--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.904038682362464</v>
+        <v>0.9040386823624649</v>
       </c>
       <c r="D2">
         <v>1.026711810702053</v>
       </c>
       <c r="E2">
-        <v>0.9223675574709387</v>
+        <v>0.9223675574709395</v>
       </c>
       <c r="F2">
-        <v>0.9289890711449794</v>
+        <v>0.92898907114498</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.044696920959735</v>
       </c>
       <c r="J2">
-        <v>0.9295243932878304</v>
+        <v>0.929524393287831</v>
       </c>
       <c r="K2">
-        <v>1.037811139945359</v>
+        <v>1.037811139945358</v>
       </c>
       <c r="L2">
-        <v>0.9350259766608202</v>
+        <v>0.9350259766608211</v>
       </c>
       <c r="M2">
-        <v>0.9415351387418572</v>
+        <v>0.9415351387418578</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9191623418404585</v>
+        <v>0.919162341840459</v>
       </c>
       <c r="D3">
         <v>1.029997105358865</v>
       </c>
       <c r="E3">
-        <v>0.9351968296904005</v>
+        <v>0.9351968296904009</v>
       </c>
       <c r="F3">
-        <v>0.9437162318529891</v>
+        <v>0.9437162318529894</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.046689192976437</v>
       </c>
       <c r="J3">
-        <v>0.9421286605532322</v>
+        <v>0.9421286605532324</v>
       </c>
       <c r="K3">
-        <v>1.040260031927068</v>
+        <v>1.040260031927067</v>
       </c>
       <c r="L3">
-        <v>0.9467320046295545</v>
+        <v>0.946732004629555</v>
       </c>
       <c r="M3">
-        <v>0.9551237991720909</v>
+        <v>0.9551237991720911</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9283460356138127</v>
+        <v>0.9283460356138131</v>
       </c>
       <c r="D4">
         <v>1.032027868462229</v>
       </c>
       <c r="E4">
-        <v>0.9429998003642741</v>
+        <v>0.9429998003642747</v>
       </c>
       <c r="F4">
-        <v>0.952667185783671</v>
+        <v>0.9526671857836716</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04788907949866</v>
       </c>
       <c r="J4">
-        <v>0.9497789718171233</v>
+        <v>0.9497789718171239</v>
       </c>
       <c r="K4">
         <v>1.041754521665919</v>
       </c>
       <c r="L4">
-        <v>0.953838597972414</v>
+        <v>0.9538385979724143</v>
       </c>
       <c r="M4">
-        <v>0.9633725643220153</v>
+        <v>0.9633725643220159</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9320795887020275</v>
+        <v>0.9320795887020286</v>
       </c>
       <c r="D5">
         <v>1.032860493309943</v>
       </c>
       <c r="E5">
-        <v>0.9461745728872235</v>
+        <v>0.9461745728872246</v>
       </c>
       <c r="F5">
-        <v>0.9563067141234394</v>
+        <v>0.9563067141234407</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.048373731152586</v>
       </c>
       <c r="J5">
-        <v>0.952887998114281</v>
+        <v>0.9528879981142823</v>
       </c>
       <c r="K5">
         <v>1.042362784347497</v>
       </c>
       <c r="L5">
-        <v>0.9567269611869065</v>
+        <v>0.9567269611869077</v>
       </c>
       <c r="M5">
-        <v>0.966724055414599</v>
+        <v>0.9667240554146002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.932699435863191</v>
+        <v>0.9326994358631916</v>
       </c>
       <c r="D6">
         <v>1.032999099420705</v>
       </c>
       <c r="E6">
-        <v>0.9467017886434854</v>
+        <v>0.9467017886434861</v>
       </c>
       <c r="F6">
-        <v>0.9569109515590744</v>
+        <v>0.9569109515590749</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.048453987061824</v>
       </c>
       <c r="J6">
-        <v>0.953404085818324</v>
+        <v>0.9534040858183248</v>
       </c>
       <c r="K6">
         <v>1.042463780274365</v>
       </c>
       <c r="L6">
-        <v>0.9572064358335766</v>
+        <v>0.9572064358335773</v>
       </c>
       <c r="M6">
-        <v>0.9672803222296602</v>
+        <v>0.9672803222296608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9283964037371226</v>
+        <v>0.9283964037371235</v>
       </c>
       <c r="D7">
         <v>1.032039075013882</v>
       </c>
       <c r="E7">
-        <v>0.9430426205984844</v>
+        <v>0.9430426205984853</v>
       </c>
       <c r="F7">
-        <v>0.9527162846927995</v>
+        <v>0.9527162846927999</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047895631282191</v>
       </c>
       <c r="J7">
-        <v>0.9498209195699274</v>
+        <v>0.9498209195699283</v>
       </c>
       <c r="K7">
-        <v>1.041762726124296</v>
+        <v>1.041762726124297</v>
       </c>
       <c r="L7">
-        <v>0.9538775673555816</v>
+        <v>0.9538775673555824</v>
       </c>
       <c r="M7">
-        <v>0.9634177876080283</v>
+        <v>0.9634177876080289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9092858680613378</v>
+        <v>0.9092858680613389</v>
       </c>
       <c r="D8">
-        <v>1.027842861069089</v>
+        <v>1.027842861069088</v>
       </c>
       <c r="E8">
-        <v>0.9268156730736218</v>
+        <v>0.9268156730736231</v>
       </c>
       <c r="F8">
-        <v>0.9340960328696163</v>
+        <v>0.9340960328696173</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.045389753362988</v>
       </c>
       <c r="J8">
-        <v>0.9338980163708354</v>
+        <v>0.9338980163708365</v>
       </c>
       <c r="K8">
         <v>1.038658441745234</v>
       </c>
       <c r="L8">
-        <v>0.9390875560250022</v>
+        <v>0.9390875560250035</v>
       </c>
       <c r="M8">
-        <v>0.9462494622480301</v>
+        <v>0.946249462248031</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8699835478745025</v>
+        <v>0.8699835478745007</v>
       </c>
       <c r="D9">
         <v>1.019625492793207</v>
       </c>
       <c r="E9">
-        <v>0.8935850028962172</v>
+        <v>0.8935850028962156</v>
       </c>
       <c r="F9">
-        <v>0.8959603544134089</v>
+        <v>0.8959603544134082</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.040197659862828</v>
       </c>
       <c r="J9">
-        <v>0.9011408439198387</v>
+        <v>0.9011408439198371</v>
       </c>
       <c r="K9">
         <v>1.032407987122539</v>
       </c>
       <c r="L9">
-        <v>0.908677905158675</v>
+        <v>0.9086779051586735</v>
       </c>
       <c r="M9">
-        <v>0.9110017347378434</v>
+        <v>0.9110017347378425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8379091537485703</v>
+        <v>0.8379091537485711</v>
       </c>
       <c r="D10">
-        <v>1.013406278168269</v>
+        <v>1.01340627816827</v>
       </c>
       <c r="E10">
-        <v>0.8666338014207712</v>
+        <v>0.8666338014207716</v>
       </c>
       <c r="F10">
-        <v>0.865135629572701</v>
+        <v>0.8651356295727017</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.036028358754606</v>
       </c>
       <c r="J10">
-        <v>0.8744446418903463</v>
+        <v>0.8744446418903471</v>
       </c>
       <c r="K10">
         <v>1.027537624676042</v>
       </c>
       <c r="L10">
-        <v>0.8839156700350004</v>
+        <v>0.8839156700350008</v>
       </c>
       <c r="M10">
-        <v>0.882457156851836</v>
+        <v>0.8824571568518367</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8218018579814362</v>
+        <v>0.8218018579814345</v>
       </c>
       <c r="D11">
         <v>1.010467373140178</v>
       </c>
       <c r="E11">
-        <v>0.8531660991360641</v>
+        <v>0.8531660991360626</v>
       </c>
       <c r="F11">
-        <v>0.8497979146773658</v>
+        <v>0.8497979146773644</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.033984278888398</v>
       </c>
       <c r="J11">
-        <v>0.8610645309115347</v>
+        <v>0.861064530911533</v>
       </c>
       <c r="K11">
-        <v>1.025194553485874</v>
+        <v>1.025194553485875</v>
       </c>
       <c r="L11">
-        <v>0.8715134597885095</v>
+        <v>0.8715134597885078</v>
       </c>
       <c r="M11">
-        <v>0.8682429617259898</v>
+        <v>0.8682429617259884</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.815362674236251</v>
+        <v>0.8153626742362523</v>
       </c>
       <c r="D12">
-        <v>1.009328771271145</v>
+        <v>1.009328771271146</v>
       </c>
       <c r="E12">
-        <v>0.8477958993418976</v>
+        <v>0.847795899341899</v>
       </c>
       <c r="F12">
-        <v>0.8436975307147102</v>
+        <v>0.8436975307147112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033178908336911</v>
+        <v>1.033178908336912</v>
       </c>
       <c r="J12">
-        <v>0.8557220580109633</v>
+        <v>0.8557220580109648</v>
       </c>
       <c r="K12">
-        <v>1.024279402840077</v>
+        <v>1.024279402840078</v>
       </c>
       <c r="L12">
-        <v>0.8665632653510237</v>
+        <v>0.866563265351025</v>
       </c>
       <c r="M12">
-        <v>0.8625880113724149</v>
+        <v>0.8625880113724163</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8167673452297799</v>
+        <v>0.8167673452297796</v>
       </c>
       <c r="D13">
         <v>1.009575353574187</v>
       </c>
       <c r="E13">
-        <v>0.8489666821355755</v>
+        <v>0.8489666821355751</v>
       </c>
       <c r="F13">
-        <v>0.8450266917196895</v>
+        <v>0.8450266917196891</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033353979372105</v>
+        <v>1.033353979372104</v>
       </c>
       <c r="J13">
-        <v>0.8568871438972182</v>
+        <v>0.8568871438972178</v>
       </c>
       <c r="K13">
         <v>1.024477949982854</v>
       </c>
       <c r="L13">
-        <v>0.8676427103577955</v>
+        <v>0.8676427103577953</v>
       </c>
       <c r="M13">
-        <v>0.8638201805222618</v>
+        <v>0.8638201805222615</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8212798755899853</v>
+        <v>0.8212798755899842</v>
       </c>
       <c r="D14">
         <v>1.010374291920773</v>
       </c>
       <c r="E14">
-        <v>0.8527304709102773</v>
+        <v>0.8527304709102767</v>
       </c>
       <c r="F14">
-        <v>0.8493027045295609</v>
+        <v>0.84930270452956</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.033918727523829</v>
       </c>
       <c r="J14">
-        <v>0.8606313041463735</v>
+        <v>0.8606313041463726</v>
       </c>
       <c r="K14">
         <v>1.025119896641201</v>
       </c>
       <c r="L14">
-        <v>0.8711120031500881</v>
+        <v>0.8711120031500875</v>
       </c>
       <c r="M14">
-        <v>0.8677839375498996</v>
+        <v>0.8677839375498988</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8239948400859436</v>
+        <v>0.8239948400859425</v>
       </c>
       <c r="D15">
         <v>1.010859929033741</v>
       </c>
       <c r="E15">
-        <v>0.8549968573154373</v>
+        <v>0.8549968573154364</v>
       </c>
       <c r="F15">
-        <v>0.8518797242730787</v>
+        <v>0.8518797242730777</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034260174266844</v>
       </c>
       <c r="J15">
-        <v>0.8628849023167624</v>
+        <v>0.8628849023167615</v>
       </c>
       <c r="K15">
         <v>1.025509102061643</v>
       </c>
       <c r="L15">
-        <v>0.8732004125090932</v>
+        <v>0.8732004125090923</v>
       </c>
       <c r="M15">
-        <v>0.8701725939440765</v>
+        <v>0.8701725939440755</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8389223922393562</v>
+        <v>0.8389223922393561</v>
       </c>
       <c r="D16">
         <v>1.013595400132588</v>
       </c>
       <c r="E16">
-        <v>0.8674825714143415</v>
+        <v>0.8674825714143412</v>
       </c>
       <c r="F16">
         <v>0.8661039443604607</v>
@@ -971,13 +971,13 @@
         <v>1.036158231487517</v>
       </c>
       <c r="J16">
-        <v>0.8752870193950755</v>
+        <v>0.8752870193950752</v>
       </c>
       <c r="K16">
         <v>1.027687478865664</v>
       </c>
       <c r="L16">
-        <v>0.884696687529563</v>
+        <v>0.8846966875295628</v>
       </c>
       <c r="M16">
         <v>0.8833543392065207</v>
@@ -994,31 +994,31 @@
         <v>0.8476242577599811</v>
       </c>
       <c r="D17">
-        <v>1.01523982021273</v>
+        <v>1.015239820212731</v>
       </c>
       <c r="E17">
-        <v>0.8747792903141277</v>
+        <v>0.8747792903141273</v>
       </c>
       <c r="F17">
-        <v>0.8744357344089099</v>
+        <v>0.8744357344089092</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037279195618463</v>
+        <v>1.037279195618464</v>
       </c>
       <c r="J17">
-        <v>0.8825244604185142</v>
+        <v>0.882524460418514</v>
       </c>
       <c r="K17">
-        <v>1.028985814345678</v>
+        <v>1.028985814345679</v>
       </c>
       <c r="L17">
-        <v>0.8914078899277718</v>
+        <v>0.8914078899277714</v>
       </c>
       <c r="M17">
-        <v>0.8910729185965887</v>
+        <v>0.8910729185965883</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8524964522718114</v>
+        <v>0.8524964522718105</v>
       </c>
       <c r="D18">
         <v>1.016176108813215</v>
       </c>
       <c r="E18">
-        <v>0.8788703318335905</v>
+        <v>0.8788703318335896</v>
       </c>
       <c r="F18">
-        <v>0.8791124733108496</v>
+        <v>0.8791124733108489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03791087875688</v>
+        <v>1.037910878756881</v>
       </c>
       <c r="J18">
-        <v>0.8865788460091146</v>
+        <v>0.8865788460091136</v>
       </c>
       <c r="K18">
         <v>1.029721343511985</v>
       </c>
       <c r="L18">
-        <v>0.8951681955326005</v>
+        <v>0.8951681955325999</v>
       </c>
       <c r="M18">
-        <v>0.8954044638521108</v>
+        <v>0.8954044638521099</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8541259731678535</v>
+        <v>0.8541259731678528</v>
       </c>
       <c r="D19">
         <v>1.016491707715686</v>
       </c>
       <c r="E19">
-        <v>0.8802394651673593</v>
+        <v>0.8802394651673582</v>
       </c>
       <c r="F19">
-        <v>0.8806784116434213</v>
+        <v>0.8806784116434209</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.038122740291809</v>
       </c>
       <c r="J19">
-        <v>0.8879351568786726</v>
+        <v>0.8879351568786717</v>
       </c>
       <c r="K19">
         <v>1.029968667384275</v>
       </c>
       <c r="L19">
-        <v>0.8964262389007487</v>
+        <v>0.8964262389007477</v>
       </c>
       <c r="M19">
-        <v>0.8968546454474208</v>
+        <v>0.8968546454474202</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8467123560947163</v>
+        <v>0.8467123560947156</v>
       </c>
       <c r="D20">
         <v>1.015065812133807</v>
       </c>
       <c r="E20">
-        <v>0.8740140324577697</v>
+        <v>0.874014032457769</v>
       </c>
       <c r="F20">
-        <v>0.8735613282764737</v>
+        <v>0.8735613282764731</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037161276125188</v>
+        <v>1.037161276125187</v>
       </c>
       <c r="J20">
-        <v>0.8817657849754945</v>
+        <v>0.8817657849754937</v>
       </c>
       <c r="K20">
         <v>1.02884882131554</v>
       </c>
       <c r="L20">
-        <v>0.8907043002299617</v>
+        <v>0.8907043002299611</v>
       </c>
       <c r="M20">
-        <v>0.8902629704040483</v>
+        <v>0.8902629704040479</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,25 +1143,25 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8199649987406824</v>
+        <v>0.8199649987406827</v>
       </c>
       <c r="D21">
-        <v>1.010140429277841</v>
+        <v>1.010140429277842</v>
       </c>
       <c r="E21">
         <v>0.8516333544707105</v>
       </c>
       <c r="F21">
-        <v>0.8480558019071067</v>
+        <v>0.8480558019071072</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033753807640407</v>
+        <v>1.033753807640408</v>
       </c>
       <c r="J21">
-        <v>0.8595401164864156</v>
+        <v>0.8595401164864158</v>
       </c>
       <c r="K21">
         <v>1.024932201555911</v>
@@ -1170,7 +1170,7 @@
         <v>0.8701008673982312</v>
       </c>
       <c r="M21">
-        <v>0.8666281266796898</v>
+        <v>0.8666281266796902</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8003789610473415</v>
+        <v>0.8003789610473405</v>
       </c>
       <c r="D22">
-        <v>1.006761833019563</v>
+        <v>1.006761833019564</v>
       </c>
       <c r="E22">
-        <v>0.8353321677716342</v>
+        <v>0.8353321677716332</v>
       </c>
       <c r="F22">
-        <v>0.8295779627187078</v>
+        <v>0.8295779627187079</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031334159248524</v>
+        <v>1.031334159248525</v>
       </c>
       <c r="J22">
-        <v>0.8433069716849325</v>
+        <v>0.8433069716849317</v>
       </c>
       <c r="K22">
         <v>1.022200516362871</v>
       </c>
       <c r="L22">
-        <v>0.8550641428765604</v>
+        <v>0.8550641428765596</v>
       </c>
       <c r="M22">
-        <v>0.8494970106533686</v>
+        <v>0.8494970106533682</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,7 +1219,7 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8110885537952341</v>
+        <v>0.8110885537952344</v>
       </c>
       <c r="D23">
         <v>1.00858469002018</v>
@@ -1243,10 +1243,10 @@
         <v>1.02367906224846</v>
       </c>
       <c r="L23">
-        <v>0.8632802060301576</v>
+        <v>0.8632802060301575</v>
       </c>
       <c r="M23">
-        <v>0.8588438260732398</v>
+        <v>0.8588438260732397</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8471250257177768</v>
+        <v>0.8471250257177759</v>
       </c>
       <c r="D24">
         <v>1.015144508904407</v>
       </c>
       <c r="E24">
-        <v>0.8743603229286016</v>
+        <v>0.8743603229286008</v>
       </c>
       <c r="F24">
-        <v>0.8739569934524775</v>
+        <v>0.873956993452477</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.037214626647007</v>
       </c>
       <c r="J24">
-        <v>0.8821091074753001</v>
+        <v>0.8821091074752992</v>
       </c>
       <c r="K24">
         <v>1.028910789186357</v>
       </c>
       <c r="L24">
-        <v>0.8910226926230114</v>
+        <v>0.8910226926230106</v>
       </c>
       <c r="M24">
-        <v>0.89062947175334</v>
+        <v>0.8906294717533395</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8809819385423415</v>
+        <v>0.8809819385423414</v>
       </c>
       <c r="D25">
         <v>1.021863171573616</v>
       </c>
       <c r="E25">
-        <v>0.9028632597800528</v>
+        <v>0.9028632597800526</v>
       </c>
       <c r="F25">
         <v>0.9066003094231958</v>
@@ -1313,10 +1313,10 @@
         <v>1.041647422727553</v>
       </c>
       <c r="J25">
-        <v>0.9103055110179895</v>
+        <v>0.9103055110179894</v>
       </c>
       <c r="K25">
-        <v>1.034131312183934</v>
+        <v>1.034131312183935</v>
       </c>
       <c r="L25">
         <v>0.9171832394629436</v>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9040386823624649</v>
+        <v>0.904038682362464</v>
       </c>
       <c r="D2">
         <v>1.026711810702053</v>
       </c>
       <c r="E2">
-        <v>0.9223675574709395</v>
+        <v>0.9223675574709387</v>
       </c>
       <c r="F2">
-        <v>0.92898907114498</v>
+        <v>0.9289890711449794</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.044696920959735</v>
       </c>
       <c r="J2">
-        <v>0.929524393287831</v>
+        <v>0.9295243932878304</v>
       </c>
       <c r="K2">
-        <v>1.037811139945358</v>
+        <v>1.037811139945359</v>
       </c>
       <c r="L2">
-        <v>0.9350259766608211</v>
+        <v>0.9350259766608202</v>
       </c>
       <c r="M2">
-        <v>0.9415351387418578</v>
+        <v>0.9415351387418572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.919162341840459</v>
+        <v>0.9191623418404585</v>
       </c>
       <c r="D3">
         <v>1.029997105358865</v>
       </c>
       <c r="E3">
-        <v>0.9351968296904009</v>
+        <v>0.9351968296904005</v>
       </c>
       <c r="F3">
-        <v>0.9437162318529894</v>
+        <v>0.9437162318529891</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.046689192976437</v>
       </c>
       <c r="J3">
-        <v>0.9421286605532324</v>
+        <v>0.9421286605532322</v>
       </c>
       <c r="K3">
-        <v>1.040260031927067</v>
+        <v>1.040260031927068</v>
       </c>
       <c r="L3">
-        <v>0.946732004629555</v>
+        <v>0.9467320046295545</v>
       </c>
       <c r="M3">
-        <v>0.9551237991720911</v>
+        <v>0.9551237991720909</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9283460356138131</v>
+        <v>0.9283460356138127</v>
       </c>
       <c r="D4">
         <v>1.032027868462229</v>
       </c>
       <c r="E4">
-        <v>0.9429998003642747</v>
+        <v>0.9429998003642741</v>
       </c>
       <c r="F4">
-        <v>0.9526671857836716</v>
+        <v>0.952667185783671</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04788907949866</v>
       </c>
       <c r="J4">
-        <v>0.9497789718171239</v>
+        <v>0.9497789718171233</v>
       </c>
       <c r="K4">
         <v>1.041754521665919</v>
       </c>
       <c r="L4">
-        <v>0.9538385979724143</v>
+        <v>0.953838597972414</v>
       </c>
       <c r="M4">
-        <v>0.9633725643220159</v>
+        <v>0.9633725643220153</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9320795887020286</v>
+        <v>0.9320795887020275</v>
       </c>
       <c r="D5">
         <v>1.032860493309943</v>
       </c>
       <c r="E5">
-        <v>0.9461745728872246</v>
+        <v>0.9461745728872235</v>
       </c>
       <c r="F5">
-        <v>0.9563067141234407</v>
+        <v>0.9563067141234394</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.048373731152586</v>
       </c>
       <c r="J5">
-        <v>0.9528879981142823</v>
+        <v>0.952887998114281</v>
       </c>
       <c r="K5">
         <v>1.042362784347497</v>
       </c>
       <c r="L5">
-        <v>0.9567269611869077</v>
+        <v>0.9567269611869065</v>
       </c>
       <c r="M5">
-        <v>0.9667240554146002</v>
+        <v>0.966724055414599</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9326994358631916</v>
+        <v>0.932699435863191</v>
       </c>
       <c r="D6">
         <v>1.032999099420705</v>
       </c>
       <c r="E6">
-        <v>0.9467017886434861</v>
+        <v>0.9467017886434854</v>
       </c>
       <c r="F6">
-        <v>0.9569109515590749</v>
+        <v>0.9569109515590744</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.048453987061824</v>
       </c>
       <c r="J6">
-        <v>0.9534040858183248</v>
+        <v>0.953404085818324</v>
       </c>
       <c r="K6">
         <v>1.042463780274365</v>
       </c>
       <c r="L6">
-        <v>0.9572064358335773</v>
+        <v>0.9572064358335766</v>
       </c>
       <c r="M6">
-        <v>0.9672803222296608</v>
+        <v>0.9672803222296602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9283964037371235</v>
+        <v>0.9283964037371226</v>
       </c>
       <c r="D7">
         <v>1.032039075013882</v>
       </c>
       <c r="E7">
-        <v>0.9430426205984853</v>
+        <v>0.9430426205984844</v>
       </c>
       <c r="F7">
-        <v>0.9527162846927999</v>
+        <v>0.9527162846927995</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047895631282191</v>
       </c>
       <c r="J7">
-        <v>0.9498209195699283</v>
+        <v>0.9498209195699274</v>
       </c>
       <c r="K7">
-        <v>1.041762726124297</v>
+        <v>1.041762726124296</v>
       </c>
       <c r="L7">
-        <v>0.9538775673555824</v>
+        <v>0.9538775673555816</v>
       </c>
       <c r="M7">
-        <v>0.9634177876080289</v>
+        <v>0.9634177876080283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9092858680613389</v>
+        <v>0.9092858680613378</v>
       </c>
       <c r="D8">
-        <v>1.027842861069088</v>
+        <v>1.027842861069089</v>
       </c>
       <c r="E8">
-        <v>0.9268156730736231</v>
+        <v>0.9268156730736218</v>
       </c>
       <c r="F8">
-        <v>0.9340960328696173</v>
+        <v>0.9340960328696163</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.045389753362988</v>
       </c>
       <c r="J8">
-        <v>0.9338980163708365</v>
+        <v>0.9338980163708354</v>
       </c>
       <c r="K8">
         <v>1.038658441745234</v>
       </c>
       <c r="L8">
-        <v>0.9390875560250035</v>
+        <v>0.9390875560250022</v>
       </c>
       <c r="M8">
-        <v>0.946249462248031</v>
+        <v>0.9462494622480301</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8699835478745007</v>
+        <v>0.8699835478745025</v>
       </c>
       <c r="D9">
         <v>1.019625492793207</v>
       </c>
       <c r="E9">
-        <v>0.8935850028962156</v>
+        <v>0.8935850028962172</v>
       </c>
       <c r="F9">
-        <v>0.8959603544134082</v>
+        <v>0.8959603544134089</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.040197659862828</v>
       </c>
       <c r="J9">
-        <v>0.9011408439198371</v>
+        <v>0.9011408439198387</v>
       </c>
       <c r="K9">
         <v>1.032407987122539</v>
       </c>
       <c r="L9">
-        <v>0.9086779051586735</v>
+        <v>0.908677905158675</v>
       </c>
       <c r="M9">
-        <v>0.9110017347378425</v>
+        <v>0.9110017347378434</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8379091537485711</v>
+        <v>0.8379091537485703</v>
       </c>
       <c r="D10">
-        <v>1.01340627816827</v>
+        <v>1.013406278168269</v>
       </c>
       <c r="E10">
-        <v>0.8666338014207716</v>
+        <v>0.8666338014207712</v>
       </c>
       <c r="F10">
-        <v>0.8651356295727017</v>
+        <v>0.865135629572701</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.036028358754606</v>
       </c>
       <c r="J10">
-        <v>0.8744446418903471</v>
+        <v>0.8744446418903463</v>
       </c>
       <c r="K10">
         <v>1.027537624676042</v>
       </c>
       <c r="L10">
-        <v>0.8839156700350008</v>
+        <v>0.8839156700350004</v>
       </c>
       <c r="M10">
-        <v>0.8824571568518367</v>
+        <v>0.882457156851836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8218018579814345</v>
+        <v>0.8218018579814362</v>
       </c>
       <c r="D11">
         <v>1.010467373140178</v>
       </c>
       <c r="E11">
-        <v>0.8531660991360626</v>
+        <v>0.8531660991360641</v>
       </c>
       <c r="F11">
-        <v>0.8497979146773644</v>
+        <v>0.8497979146773658</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.033984278888398</v>
       </c>
       <c r="J11">
-        <v>0.861064530911533</v>
+        <v>0.8610645309115347</v>
       </c>
       <c r="K11">
-        <v>1.025194553485875</v>
+        <v>1.025194553485874</v>
       </c>
       <c r="L11">
-        <v>0.8715134597885078</v>
+        <v>0.8715134597885095</v>
       </c>
       <c r="M11">
-        <v>0.8682429617259884</v>
+        <v>0.8682429617259898</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8153626742362523</v>
+        <v>0.815362674236251</v>
       </c>
       <c r="D12">
-        <v>1.009328771271146</v>
+        <v>1.009328771271145</v>
       </c>
       <c r="E12">
-        <v>0.847795899341899</v>
+        <v>0.8477958993418976</v>
       </c>
       <c r="F12">
-        <v>0.8436975307147112</v>
+        <v>0.8436975307147102</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033178908336912</v>
+        <v>1.033178908336911</v>
       </c>
       <c r="J12">
-        <v>0.8557220580109648</v>
+        <v>0.8557220580109633</v>
       </c>
       <c r="K12">
-        <v>1.024279402840078</v>
+        <v>1.024279402840077</v>
       </c>
       <c r="L12">
-        <v>0.866563265351025</v>
+        <v>0.8665632653510237</v>
       </c>
       <c r="M12">
-        <v>0.8625880113724163</v>
+        <v>0.8625880113724149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8167673452297796</v>
+        <v>0.8167673452297799</v>
       </c>
       <c r="D13">
         <v>1.009575353574187</v>
       </c>
       <c r="E13">
-        <v>0.8489666821355751</v>
+        <v>0.8489666821355755</v>
       </c>
       <c r="F13">
-        <v>0.8450266917196891</v>
+        <v>0.8450266917196895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033353979372104</v>
+        <v>1.033353979372105</v>
       </c>
       <c r="J13">
-        <v>0.8568871438972178</v>
+        <v>0.8568871438972182</v>
       </c>
       <c r="K13">
         <v>1.024477949982854</v>
       </c>
       <c r="L13">
-        <v>0.8676427103577953</v>
+        <v>0.8676427103577955</v>
       </c>
       <c r="M13">
-        <v>0.8638201805222615</v>
+        <v>0.8638201805222618</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8212798755899842</v>
+        <v>0.8212798755899853</v>
       </c>
       <c r="D14">
         <v>1.010374291920773</v>
       </c>
       <c r="E14">
-        <v>0.8527304709102767</v>
+        <v>0.8527304709102773</v>
       </c>
       <c r="F14">
-        <v>0.84930270452956</v>
+        <v>0.8493027045295609</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.033918727523829</v>
       </c>
       <c r="J14">
-        <v>0.8606313041463726</v>
+        <v>0.8606313041463735</v>
       </c>
       <c r="K14">
         <v>1.025119896641201</v>
       </c>
       <c r="L14">
-        <v>0.8711120031500875</v>
+        <v>0.8711120031500881</v>
       </c>
       <c r="M14">
-        <v>0.8677839375498988</v>
+        <v>0.8677839375498996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8239948400859425</v>
+        <v>0.8239948400859436</v>
       </c>
       <c r="D15">
         <v>1.010859929033741</v>
       </c>
       <c r="E15">
-        <v>0.8549968573154364</v>
+        <v>0.8549968573154373</v>
       </c>
       <c r="F15">
-        <v>0.8518797242730777</v>
+        <v>0.8518797242730787</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034260174266844</v>
       </c>
       <c r="J15">
-        <v>0.8628849023167615</v>
+        <v>0.8628849023167624</v>
       </c>
       <c r="K15">
         <v>1.025509102061643</v>
       </c>
       <c r="L15">
-        <v>0.8732004125090923</v>
+        <v>0.8732004125090932</v>
       </c>
       <c r="M15">
-        <v>0.8701725939440755</v>
+        <v>0.8701725939440765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,13 +953,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8389223922393561</v>
+        <v>0.8389223922393562</v>
       </c>
       <c r="D16">
         <v>1.013595400132588</v>
       </c>
       <c r="E16">
-        <v>0.8674825714143412</v>
+        <v>0.8674825714143415</v>
       </c>
       <c r="F16">
         <v>0.8661039443604607</v>
@@ -971,13 +971,13 @@
         <v>1.036158231487517</v>
       </c>
       <c r="J16">
-        <v>0.8752870193950752</v>
+        <v>0.8752870193950755</v>
       </c>
       <c r="K16">
         <v>1.027687478865664</v>
       </c>
       <c r="L16">
-        <v>0.8846966875295628</v>
+        <v>0.884696687529563</v>
       </c>
       <c r="M16">
         <v>0.8833543392065207</v>
@@ -994,31 +994,31 @@
         <v>0.8476242577599811</v>
       </c>
       <c r="D17">
-        <v>1.015239820212731</v>
+        <v>1.01523982021273</v>
       </c>
       <c r="E17">
-        <v>0.8747792903141273</v>
+        <v>0.8747792903141277</v>
       </c>
       <c r="F17">
-        <v>0.8744357344089092</v>
+        <v>0.8744357344089099</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037279195618464</v>
+        <v>1.037279195618463</v>
       </c>
       <c r="J17">
-        <v>0.882524460418514</v>
+        <v>0.8825244604185142</v>
       </c>
       <c r="K17">
-        <v>1.028985814345679</v>
+        <v>1.028985814345678</v>
       </c>
       <c r="L17">
-        <v>0.8914078899277714</v>
+        <v>0.8914078899277718</v>
       </c>
       <c r="M17">
-        <v>0.8910729185965883</v>
+        <v>0.8910729185965887</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8524964522718105</v>
+        <v>0.8524964522718114</v>
       </c>
       <c r="D18">
         <v>1.016176108813215</v>
       </c>
       <c r="E18">
-        <v>0.8788703318335896</v>
+        <v>0.8788703318335905</v>
       </c>
       <c r="F18">
-        <v>0.8791124733108489</v>
+        <v>0.8791124733108496</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037910878756881</v>
+        <v>1.03791087875688</v>
       </c>
       <c r="J18">
-        <v>0.8865788460091136</v>
+        <v>0.8865788460091146</v>
       </c>
       <c r="K18">
         <v>1.029721343511985</v>
       </c>
       <c r="L18">
-        <v>0.8951681955325999</v>
+        <v>0.8951681955326005</v>
       </c>
       <c r="M18">
-        <v>0.8954044638521099</v>
+        <v>0.8954044638521108</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8541259731678528</v>
+        <v>0.8541259731678535</v>
       </c>
       <c r="D19">
         <v>1.016491707715686</v>
       </c>
       <c r="E19">
-        <v>0.8802394651673582</v>
+        <v>0.8802394651673593</v>
       </c>
       <c r="F19">
-        <v>0.8806784116434209</v>
+        <v>0.8806784116434213</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.038122740291809</v>
       </c>
       <c r="J19">
-        <v>0.8879351568786717</v>
+        <v>0.8879351568786726</v>
       </c>
       <c r="K19">
         <v>1.029968667384275</v>
       </c>
       <c r="L19">
-        <v>0.8964262389007477</v>
+        <v>0.8964262389007487</v>
       </c>
       <c r="M19">
-        <v>0.8968546454474202</v>
+        <v>0.8968546454474208</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8467123560947156</v>
+        <v>0.8467123560947163</v>
       </c>
       <c r="D20">
         <v>1.015065812133807</v>
       </c>
       <c r="E20">
-        <v>0.874014032457769</v>
+        <v>0.8740140324577697</v>
       </c>
       <c r="F20">
-        <v>0.8735613282764731</v>
+        <v>0.8735613282764737</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037161276125187</v>
+        <v>1.037161276125188</v>
       </c>
       <c r="J20">
-        <v>0.8817657849754937</v>
+        <v>0.8817657849754945</v>
       </c>
       <c r="K20">
         <v>1.02884882131554</v>
       </c>
       <c r="L20">
-        <v>0.8907043002299611</v>
+        <v>0.8907043002299617</v>
       </c>
       <c r="M20">
-        <v>0.8902629704040479</v>
+        <v>0.8902629704040483</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,25 +1143,25 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8199649987406827</v>
+        <v>0.8199649987406824</v>
       </c>
       <c r="D21">
-        <v>1.010140429277842</v>
+        <v>1.010140429277841</v>
       </c>
       <c r="E21">
         <v>0.8516333544707105</v>
       </c>
       <c r="F21">
-        <v>0.8480558019071072</v>
+        <v>0.8480558019071067</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033753807640408</v>
+        <v>1.033753807640407</v>
       </c>
       <c r="J21">
-        <v>0.8595401164864158</v>
+        <v>0.8595401164864156</v>
       </c>
       <c r="K21">
         <v>1.024932201555911</v>
@@ -1170,7 +1170,7 @@
         <v>0.8701008673982312</v>
       </c>
       <c r="M21">
-        <v>0.8666281266796902</v>
+        <v>0.8666281266796898</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8003789610473405</v>
+        <v>0.8003789610473415</v>
       </c>
       <c r="D22">
-        <v>1.006761833019564</v>
+        <v>1.006761833019563</v>
       </c>
       <c r="E22">
-        <v>0.8353321677716332</v>
+        <v>0.8353321677716342</v>
       </c>
       <c r="F22">
-        <v>0.8295779627187079</v>
+        <v>0.8295779627187078</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031334159248525</v>
+        <v>1.031334159248524</v>
       </c>
       <c r="J22">
-        <v>0.8433069716849317</v>
+        <v>0.8433069716849325</v>
       </c>
       <c r="K22">
         <v>1.022200516362871</v>
       </c>
       <c r="L22">
-        <v>0.8550641428765596</v>
+        <v>0.8550641428765604</v>
       </c>
       <c r="M22">
-        <v>0.8494970106533682</v>
+        <v>0.8494970106533686</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,7 +1219,7 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8110885537952344</v>
+        <v>0.8110885537952341</v>
       </c>
       <c r="D23">
         <v>1.00858469002018</v>
@@ -1243,10 +1243,10 @@
         <v>1.02367906224846</v>
       </c>
       <c r="L23">
-        <v>0.8632802060301575</v>
+        <v>0.8632802060301576</v>
       </c>
       <c r="M23">
-        <v>0.8588438260732397</v>
+        <v>0.8588438260732398</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8471250257177759</v>
+        <v>0.8471250257177768</v>
       </c>
       <c r="D24">
         <v>1.015144508904407</v>
       </c>
       <c r="E24">
-        <v>0.8743603229286008</v>
+        <v>0.8743603229286016</v>
       </c>
       <c r="F24">
-        <v>0.873956993452477</v>
+        <v>0.8739569934524775</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.037214626647007</v>
       </c>
       <c r="J24">
-        <v>0.8821091074752992</v>
+        <v>0.8821091074753001</v>
       </c>
       <c r="K24">
         <v>1.028910789186357</v>
       </c>
       <c r="L24">
-        <v>0.8910226926230106</v>
+        <v>0.8910226926230114</v>
       </c>
       <c r="M24">
-        <v>0.8906294717533395</v>
+        <v>0.89062947175334</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8809819385423414</v>
+        <v>0.8809819385423415</v>
       </c>
       <c r="D25">
         <v>1.021863171573616</v>
       </c>
       <c r="E25">
-        <v>0.9028632597800526</v>
+        <v>0.9028632597800528</v>
       </c>
       <c r="F25">
         <v>0.9066003094231958</v>
@@ -1313,10 +1313,10 @@
         <v>1.041647422727553</v>
       </c>
       <c r="J25">
-        <v>0.9103055110179894</v>
+        <v>0.9103055110179895</v>
       </c>
       <c r="K25">
-        <v>1.034131312183935</v>
+        <v>1.034131312183934</v>
       </c>
       <c r="L25">
         <v>0.9171832394629436</v>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.904038682362464</v>
+        <v>0.904194227973059</v>
       </c>
       <c r="D2">
-        <v>1.026711810702053</v>
+        <v>1.026721430252492</v>
       </c>
       <c r="E2">
-        <v>0.9223675574709387</v>
+        <v>0.9225046368136417</v>
       </c>
       <c r="F2">
-        <v>0.9289890711449794</v>
+        <v>0.9291105078603311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044696920959735</v>
+        <v>1.0447087503907</v>
       </c>
       <c r="J2">
-        <v>0.9295243932878304</v>
+        <v>0.9296737748798883</v>
       </c>
       <c r="K2">
-        <v>1.037811139945359</v>
+        <v>1.037820634076418</v>
       </c>
       <c r="L2">
-        <v>0.9350259766608202</v>
+        <v>0.9351607089624447</v>
       </c>
       <c r="M2">
-        <v>0.9415351387418572</v>
+        <v>0.9416545342424262</v>
+      </c>
+      <c r="N2">
+        <v>0.9525294989713826</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9191623418404585</v>
+        <v>0.9192917653661274</v>
       </c>
       <c r="D3">
-        <v>1.029997105358865</v>
+        <v>1.030005020434439</v>
       </c>
       <c r="E3">
-        <v>0.9351968296904005</v>
+        <v>0.9353111711615051</v>
       </c>
       <c r="F3">
-        <v>0.9437162318529891</v>
+        <v>0.9438169688235247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046689192976437</v>
+        <v>1.046699009587559</v>
       </c>
       <c r="J3">
-        <v>0.9421286605532322</v>
+        <v>0.9422536335046616</v>
       </c>
       <c r="K3">
-        <v>1.040260031927068</v>
+        <v>1.040267852911752</v>
       </c>
       <c r="L3">
-        <v>0.9467320046295545</v>
+        <v>0.9468446138319238</v>
       </c>
       <c r="M3">
-        <v>0.9551237991720909</v>
+        <v>0.9552230447701935</v>
+      </c>
+      <c r="N3">
+        <v>0.9614088709752031</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9283460356138127</v>
+        <v>0.9284605185636079</v>
       </c>
       <c r="D4">
-        <v>1.032027868462229</v>
+        <v>1.032034824533944</v>
       </c>
       <c r="E4">
-        <v>0.9429998003642741</v>
+        <v>0.9431010876718846</v>
       </c>
       <c r="F4">
-        <v>0.952667185783671</v>
+        <v>0.9527561459126621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04788907949866</v>
+        <v>1.047897752343419</v>
       </c>
       <c r="J4">
-        <v>0.9497789718171233</v>
+        <v>0.9498898666352471</v>
       </c>
       <c r="K4">
-        <v>1.041754521665919</v>
+        <v>1.041761400079092</v>
       </c>
       <c r="L4">
-        <v>0.953838597972414</v>
+        <v>0.9539384695214997</v>
       </c>
       <c r="M4">
-        <v>0.9633725643220153</v>
+        <v>0.9634603125431724</v>
+      </c>
+      <c r="N4">
+        <v>0.9667924534144963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9320795887020275</v>
+        <v>0.9321881772215402</v>
       </c>
       <c r="D5">
-        <v>1.032860493309943</v>
+        <v>1.032867074436833</v>
       </c>
       <c r="E5">
-        <v>0.9461745728872235</v>
+        <v>0.9462707005933748</v>
       </c>
       <c r="F5">
-        <v>0.9563067141234394</v>
+        <v>0.9563910421543542</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048373731152586</v>
+        <v>1.048381954492632</v>
       </c>
       <c r="J5">
-        <v>0.952887998114281</v>
+        <v>0.9529933145799481</v>
       </c>
       <c r="K5">
-        <v>1.042362784347497</v>
+        <v>1.042369293972073</v>
       </c>
       <c r="L5">
-        <v>0.9567269611869065</v>
+        <v>0.9568217905621749</v>
       </c>
       <c r="M5">
-        <v>0.966724055414599</v>
+        <v>0.9668072745266608</v>
+      </c>
+      <c r="N5">
+        <v>0.9689787929690264</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.932699435863191</v>
+        <v>0.9328070553482085</v>
       </c>
       <c r="D6">
-        <v>1.032999099420705</v>
+        <v>1.033005619097067</v>
       </c>
       <c r="E6">
-        <v>0.9467017886434854</v>
+        <v>0.9467970676244482</v>
       </c>
       <c r="F6">
-        <v>0.9569109515590744</v>
+        <v>0.9569945188934224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048453987061824</v>
+        <v>1.048462136604825</v>
       </c>
       <c r="J6">
-        <v>0.953404085818324</v>
+        <v>0.9535084838880942</v>
       </c>
       <c r="K6">
-        <v>1.042463780274365</v>
+        <v>1.042470229442027</v>
       </c>
       <c r="L6">
-        <v>0.9572064358335766</v>
+        <v>0.9573004353749414</v>
       </c>
       <c r="M6">
-        <v>0.9672803222296602</v>
+        <v>0.9673627971766682</v>
+      </c>
+      <c r="N6">
+        <v>0.969341626614463</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9283964037371226</v>
+        <v>0.9285108064994312</v>
       </c>
       <c r="D7">
-        <v>1.032039075013882</v>
+        <v>1.032046025971678</v>
       </c>
       <c r="E7">
-        <v>0.9430426205984844</v>
+        <v>0.9431438377502316</v>
       </c>
       <c r="F7">
-        <v>0.9527162846927995</v>
+        <v>0.95280518175106</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047895631282191</v>
+        <v>1.047904298004995</v>
       </c>
       <c r="J7">
-        <v>0.9498209195699274</v>
+        <v>0.949931738592976</v>
       </c>
       <c r="K7">
-        <v>1.041762726124296</v>
+        <v>1.041769599508577</v>
       </c>
       <c r="L7">
-        <v>0.9538775673555816</v>
+        <v>0.9539773703750484</v>
       </c>
       <c r="M7">
-        <v>0.9634177876080283</v>
+        <v>0.9635054741873982</v>
+      </c>
+      <c r="N7">
+        <v>0.9668219581658161</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9092858680613378</v>
+        <v>0.9094321211269067</v>
       </c>
       <c r="D8">
-        <v>1.027842861069089</v>
+        <v>1.027851870436636</v>
       </c>
       <c r="E8">
-        <v>0.9268156730736218</v>
+        <v>0.9269446765981602</v>
       </c>
       <c r="F8">
-        <v>0.9340960328696163</v>
+        <v>0.9342100913844607</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045389753362988</v>
+        <v>1.045400865058336</v>
       </c>
       <c r="J8">
-        <v>0.9338980163708354</v>
+        <v>0.9340387443310925</v>
       </c>
       <c r="K8">
-        <v>1.038658441745234</v>
+        <v>1.038667337192444</v>
       </c>
       <c r="L8">
-        <v>0.9390875560250022</v>
+        <v>0.9392144397998541</v>
       </c>
       <c r="M8">
-        <v>0.9462494622480301</v>
+        <v>0.9463616838451797</v>
+      </c>
+      <c r="N8">
+        <v>0.9556117944800923</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8699835478745025</v>
+        <v>0.8702065964262005</v>
       </c>
       <c r="D9">
-        <v>1.019625492793207</v>
+        <v>1.019639651710645</v>
       </c>
       <c r="E9">
-        <v>0.8935850028962172</v>
+        <v>0.8937803078873557</v>
       </c>
       <c r="F9">
-        <v>0.8959603544134089</v>
+        <v>0.8961357625510203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040197659862828</v>
+        <v>1.040214743098926</v>
       </c>
       <c r="J9">
-        <v>0.9011408439198387</v>
+        <v>0.9013521769301318</v>
       </c>
       <c r="K9">
-        <v>1.032407987122539</v>
+        <v>1.032421927479739</v>
       </c>
       <c r="L9">
-        <v>0.908677905158675</v>
+        <v>0.9088689602162908</v>
       </c>
       <c r="M9">
-        <v>0.9110017347378434</v>
+        <v>0.9111733526010479</v>
+      </c>
+      <c r="N9">
+        <v>0.9325054035618134</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8379091537485703</v>
+        <v>0.8382111899160326</v>
       </c>
       <c r="D10">
-        <v>1.013406278168269</v>
+        <v>1.01342591883345</v>
       </c>
       <c r="E10">
-        <v>0.8666338014207712</v>
+        <v>0.8668962742149811</v>
       </c>
       <c r="F10">
-        <v>0.865135629572701</v>
+        <v>0.8653747257620996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036028358754606</v>
+        <v>1.036051633390528</v>
       </c>
       <c r="J10">
-        <v>0.8744446418903463</v>
+        <v>0.8747266823603606</v>
       </c>
       <c r="K10">
-        <v>1.027537624676042</v>
+        <v>1.027556922777162</v>
       </c>
       <c r="L10">
-        <v>0.8839156700350004</v>
+        <v>0.8841712139606488</v>
       </c>
       <c r="M10">
-        <v>0.882457156851836</v>
+        <v>0.8826899113349915</v>
+      </c>
+      <c r="N10">
+        <v>0.9136591661392719</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8218018579814362</v>
+        <v>0.8221516393413033</v>
       </c>
       <c r="D11">
-        <v>1.010467373140178</v>
+        <v>1.010490380583768</v>
       </c>
       <c r="E11">
-        <v>0.8531660991360641</v>
+        <v>0.8534687061868261</v>
       </c>
       <c r="F11">
-        <v>0.8497979146773658</v>
+        <v>0.8500756480947154</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033984278888398</v>
+        <v>1.034011298875538</v>
       </c>
       <c r="J11">
-        <v>0.8610645309115347</v>
+        <v>0.8613885348914775</v>
       </c>
       <c r="K11">
-        <v>1.025194553485874</v>
+        <v>1.025217138684595</v>
       </c>
       <c r="L11">
-        <v>0.8715134597885095</v>
+        <v>0.8718073421283925</v>
       </c>
       <c r="M11">
-        <v>0.8682429617259898</v>
+        <v>0.8685125999599804</v>
+      </c>
+      <c r="N11">
+        <v>0.9042170074224815</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.815362674236251</v>
+        <v>0.8157334983458965</v>
       </c>
       <c r="D12">
-        <v>1.009328771271145</v>
+        <v>1.009353270567868</v>
       </c>
       <c r="E12">
-        <v>0.8477958993418976</v>
+        <v>0.8481160927870313</v>
       </c>
       <c r="F12">
-        <v>0.8436975307147102</v>
+        <v>0.8439923092043702</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033178908336911</v>
+        <v>1.033207577493151</v>
       </c>
       <c r="J12">
-        <v>0.8557220580109633</v>
+        <v>0.8560643966525733</v>
       </c>
       <c r="K12">
-        <v>1.024279402840077</v>
+        <v>1.024303444039979</v>
       </c>
       <c r="L12">
-        <v>0.8665632653510237</v>
+        <v>0.8668739091014347</v>
       </c>
       <c r="M12">
-        <v>0.8625880113724149</v>
+        <v>0.8628738797865921</v>
+      </c>
+      <c r="N12">
+        <v>0.9004485726136591</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8167673452297799</v>
+        <v>0.8171334730087302</v>
       </c>
       <c r="D13">
-        <v>1.009575353574187</v>
+        <v>1.009599519578455</v>
       </c>
       <c r="E13">
-        <v>0.8489666821355755</v>
+        <v>0.8492829558155692</v>
       </c>
       <c r="F13">
-        <v>0.8450266917196895</v>
+        <v>0.8453176655044556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033353979372105</v>
+        <v>1.033382280581269</v>
       </c>
       <c r="J13">
-        <v>0.8568871438972182</v>
+        <v>0.8572253985387729</v>
       </c>
       <c r="K13">
-        <v>1.024477949982854</v>
+        <v>1.024501665923708</v>
       </c>
       <c r="L13">
-        <v>0.8676427103577955</v>
+        <v>0.8679496200701179</v>
       </c>
       <c r="M13">
-        <v>0.8638201805222618</v>
+        <v>0.8641024281573864</v>
+      </c>
+      <c r="N13">
+        <v>0.9012702911999593</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8212798755899853</v>
+        <v>0.82163131754523</v>
       </c>
       <c r="D14">
-        <v>1.010374291920773</v>
+        <v>1.010397416944431</v>
       </c>
       <c r="E14">
-        <v>0.8527304709102773</v>
+        <v>0.8530344679891396</v>
       </c>
       <c r="F14">
-        <v>0.8493027045295609</v>
+        <v>0.8495817827962653</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033918727523829</v>
+        <v>1.033945877701111</v>
       </c>
       <c r="J14">
-        <v>0.8606313041463735</v>
+        <v>0.8609567583906802</v>
       </c>
       <c r="K14">
-        <v>1.025119896641201</v>
+        <v>1.025142596604728</v>
       </c>
       <c r="L14">
-        <v>0.8711120031500881</v>
+        <v>0.8714072111032595</v>
       </c>
       <c r="M14">
-        <v>0.8677839375498996</v>
+        <v>0.868054857204572</v>
+      </c>
+      <c r="N14">
+        <v>0.9039113787023135</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8239948400859436</v>
+        <v>0.8243377281431192</v>
       </c>
       <c r="D15">
-        <v>1.010859929033741</v>
+        <v>1.010882448692253</v>
       </c>
       <c r="E15">
-        <v>0.8549968573154373</v>
+        <v>0.8552936901213901</v>
       </c>
       <c r="F15">
-        <v>0.8518797242730787</v>
+        <v>0.8521518756670813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034260174266844</v>
+        <v>1.034286653748786</v>
       </c>
       <c r="J15">
-        <v>0.8628849023167624</v>
+        <v>0.8632028797314307</v>
       </c>
       <c r="K15">
-        <v>1.025509102061643</v>
+        <v>1.025531211133838</v>
       </c>
       <c r="L15">
-        <v>0.8732004125090932</v>
+        <v>0.8734887866792034</v>
       </c>
       <c r="M15">
-        <v>0.8701725939440765</v>
+        <v>0.8704369117867375</v>
+      </c>
+      <c r="N15">
+        <v>0.9055013006655394</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8389223922393562</v>
+        <v>0.8392216324160793</v>
       </c>
       <c r="D16">
-        <v>1.013595400132588</v>
+        <v>1.013614844615125</v>
       </c>
       <c r="E16">
-        <v>0.8674825714143415</v>
+        <v>0.8677426834882788</v>
       </c>
       <c r="F16">
-        <v>0.8661039443604607</v>
+        <v>0.8663407802277631</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036158231487517</v>
+        <v>1.0361812867296</v>
       </c>
       <c r="J16">
-        <v>0.8752870193950755</v>
+        <v>0.8755665856719734</v>
       </c>
       <c r="K16">
-        <v>1.027687478865664</v>
+        <v>1.0277065853624</v>
       </c>
       <c r="L16">
-        <v>0.884696687529563</v>
+        <v>0.8849499722523279</v>
       </c>
       <c r="M16">
-        <v>0.8833543392065207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8835849315665186</v>
+      </c>
+      <c r="N16">
+        <v>0.9142537677293247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8476242577599811</v>
+        <v>0.8479003766639102</v>
       </c>
       <c r="D17">
-        <v>1.01523982021273</v>
+        <v>1.015257647521882</v>
       </c>
       <c r="E17">
-        <v>0.8747792903141277</v>
+        <v>0.8750198343415119</v>
       </c>
       <c r="F17">
-        <v>0.8744357344089099</v>
+        <v>0.8746538920270812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037279195618463</v>
+        <v>1.037300436795099</v>
       </c>
       <c r="J17">
-        <v>0.8825244604185142</v>
+        <v>0.8827834899388927</v>
       </c>
       <c r="K17">
-        <v>1.028985814345678</v>
+        <v>1.02900334107233</v>
       </c>
       <c r="L17">
-        <v>0.8914078899277718</v>
+        <v>0.891642428792338</v>
       </c>
       <c r="M17">
-        <v>0.8910729185965887</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8912856239657063</v>
+      </c>
+      <c r="N17">
+        <v>0.9193628389988031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8524964522718114</v>
+        <v>0.8527602769003843</v>
       </c>
       <c r="D18">
-        <v>1.016176108813215</v>
+        <v>1.016193080392583</v>
       </c>
       <c r="E18">
-        <v>0.8788703318335905</v>
+        <v>0.8791004366668032</v>
       </c>
       <c r="F18">
-        <v>0.8791124733108496</v>
+        <v>0.8793207104184246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03791087875688</v>
+        <v>1.037931155699761</v>
       </c>
       <c r="J18">
-        <v>0.8865788460091146</v>
+        <v>0.8868268977483523</v>
       </c>
       <c r="K18">
-        <v>1.029721343511985</v>
+        <v>1.029738034029299</v>
       </c>
       <c r="L18">
-        <v>0.8951681955326005</v>
+        <v>0.8953927190549471</v>
       </c>
       <c r="M18">
-        <v>0.8954044638521108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8956076536319393</v>
+      </c>
+      <c r="N18">
+        <v>0.9222251456798631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8541259731678535</v>
+        <v>0.8543857831820627</v>
       </c>
       <c r="D19">
-        <v>1.016491707715686</v>
+        <v>1.016508400560276</v>
       </c>
       <c r="E19">
-        <v>0.8802394651673593</v>
+        <v>0.8804661558942936</v>
       </c>
       <c r="F19">
-        <v>0.8806784116434213</v>
+        <v>0.8808834112336938</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038122740291809</v>
+        <v>1.038142702461316</v>
       </c>
       <c r="J19">
-        <v>0.8879351568786726</v>
+        <v>0.8881796148707917</v>
       </c>
       <c r="K19">
-        <v>1.029968667384275</v>
+        <v>1.029985085479677</v>
       </c>
       <c r="L19">
-        <v>0.8964262389007487</v>
+        <v>0.8966474845954835</v>
       </c>
       <c r="M19">
-        <v>0.8968546454474208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8970547274436287</v>
+      </c>
+      <c r="N19">
+        <v>0.9231826871407274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8467123560947163</v>
+        <v>0.8469908261270531</v>
       </c>
       <c r="D20">
-        <v>1.015065812133807</v>
+        <v>1.015083803439637</v>
       </c>
       <c r="E20">
-        <v>0.8740140324577697</v>
+        <v>0.8742565701124773</v>
       </c>
       <c r="F20">
-        <v>0.8735613282764737</v>
+        <v>0.8737813840323383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037161276125188</v>
+        <v>1.037182701737801</v>
       </c>
       <c r="J20">
-        <v>0.8817657849754945</v>
+        <v>0.882026909199495</v>
       </c>
       <c r="K20">
-        <v>1.02884882131554</v>
+        <v>1.028866508275094</v>
       </c>
       <c r="L20">
-        <v>0.8907043002299617</v>
+        <v>0.8909407505778218</v>
       </c>
       <c r="M20">
-        <v>0.8902629704040483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8904774951931564</v>
+      </c>
+      <c r="N20">
+        <v>0.9188272437182989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8199649987406824</v>
+        <v>0.820320658242914</v>
       </c>
       <c r="D21">
-        <v>1.010140429277841</v>
+        <v>1.010163853050594</v>
       </c>
       <c r="E21">
-        <v>0.8516333544707105</v>
+        <v>0.8519408802086957</v>
       </c>
       <c r="F21">
-        <v>0.8480558019071067</v>
+        <v>0.8483382960227329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033753807640407</v>
+        <v>1.033781288439384</v>
       </c>
       <c r="J21">
-        <v>0.8595401164864156</v>
+        <v>0.859869251440387</v>
       </c>
       <c r="K21">
-        <v>1.024932201555911</v>
+        <v>1.024955193107104</v>
       </c>
       <c r="L21">
-        <v>0.8701008673982312</v>
+        <v>0.8703994398679281</v>
       </c>
       <c r="M21">
-        <v>0.8666281266796898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8669023003986412</v>
+      </c>
+      <c r="N21">
+        <v>0.9031416095952406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8003789610473415</v>
+        <v>0.800804018800635</v>
       </c>
       <c r="D22">
-        <v>1.006761833019563</v>
+        <v>1.006790192022515</v>
       </c>
       <c r="E22">
-        <v>0.8353321677716342</v>
+        <v>0.8356974230372738</v>
       </c>
       <c r="F22">
-        <v>0.8295779627187078</v>
+        <v>0.8299166909014551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031334159248524</v>
+        <v>1.031367071492086</v>
       </c>
       <c r="J22">
-        <v>0.8433069716849325</v>
+        <v>0.8436961665506743</v>
       </c>
       <c r="K22">
-        <v>1.022200516362871</v>
+        <v>1.022228323440549</v>
       </c>
       <c r="L22">
-        <v>0.8550641428765604</v>
+        <v>0.855417643953173</v>
       </c>
       <c r="M22">
-        <v>0.8494970106533686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8498246267507366</v>
+      </c>
+      <c r="N22">
+        <v>0.8916966257300758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8110885537952341</v>
+        <v>0.8114740529062034</v>
       </c>
       <c r="D23">
-        <v>1.00858469002018</v>
+        <v>1.008610231890607</v>
       </c>
       <c r="E23">
-        <v>0.8442358843188097</v>
+        <v>0.8445683074928416</v>
       </c>
       <c r="F23">
-        <v>0.8396588214778465</v>
+        <v>0.8399654904542326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032648386316311</v>
+        <v>1.032678204743064</v>
       </c>
       <c r="J23">
-        <v>0.8521781755502404</v>
+        <v>0.852533247455478</v>
       </c>
       <c r="K23">
-        <v>1.02367906224846</v>
+        <v>1.023704120813448</v>
       </c>
       <c r="L23">
-        <v>0.8632802060301576</v>
+        <v>0.8636024935210542</v>
       </c>
       <c r="M23">
-        <v>0.8588438260732398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8591410029604425</v>
+      </c>
+      <c r="N23">
+        <v>0.8979495051738137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8471250257177768</v>
+        <v>0.8474024297720092</v>
       </c>
       <c r="D24">
-        <v>1.015144508904407</v>
+        <v>1.015162425842416</v>
       </c>
       <c r="E24">
-        <v>0.8743603229286016</v>
+        <v>0.874601956800886</v>
       </c>
       <c r="F24">
-        <v>0.8739569934524775</v>
+        <v>0.8741761885753163</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037214626647007</v>
+        <v>1.037235968636939</v>
       </c>
       <c r="J24">
-        <v>0.8821091074753001</v>
+        <v>0.8823692821646494</v>
       </c>
       <c r="K24">
-        <v>1.028910789186357</v>
+        <v>1.028928403485726</v>
       </c>
       <c r="L24">
-        <v>0.8910226926230114</v>
+        <v>0.8912582764741117</v>
       </c>
       <c r="M24">
-        <v>0.89062947175334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8908431716494134</v>
+      </c>
+      <c r="N24">
+        <v>0.9190696153769662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8809819385423415</v>
+        <v>0.881181665241483</v>
       </c>
       <c r="D25">
-        <v>1.021863171573616</v>
+        <v>1.021875743198988</v>
       </c>
       <c r="E25">
-        <v>0.9028632597800528</v>
+        <v>0.9030385358624676</v>
       </c>
       <c r="F25">
-        <v>0.9066003094231958</v>
+        <v>0.9067570071685167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041647422727553</v>
+        <v>1.041662684511055</v>
       </c>
       <c r="J25">
-        <v>0.9103055110179895</v>
+        <v>0.9104956136304716</v>
       </c>
       <c r="K25">
-        <v>1.034131312183934</v>
+        <v>1.034143699114926</v>
       </c>
       <c r="L25">
-        <v>0.9171832394629436</v>
+        <v>0.9173549694846249</v>
       </c>
       <c r="M25">
-        <v>0.9208450745115171</v>
+        <v>0.9209986362578415</v>
+      </c>
+      <c r="N25">
+        <v>0.938973852914356</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.904194227973059</v>
+        <v>0.9610139045760353</v>
       </c>
       <c r="D2">
-        <v>1.026721430252492</v>
+        <v>1.034762087805401</v>
       </c>
       <c r="E2">
-        <v>0.9225046368136417</v>
+        <v>0.9776639614048328</v>
       </c>
       <c r="F2">
-        <v>0.9291105078603311</v>
+        <v>0.9784060013106339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0447087503907</v>
+        <v>1.04747291523547</v>
       </c>
       <c r="J2">
-        <v>0.9296737748798883</v>
+        <v>0.9844266728484818</v>
       </c>
       <c r="K2">
-        <v>1.037820634076418</v>
+        <v>1.045757477183703</v>
       </c>
       <c r="L2">
-        <v>0.9351607089624447</v>
+        <v>0.9894435000042646</v>
       </c>
       <c r="M2">
-        <v>0.9416545342424262</v>
+        <v>0.9901746040992732</v>
       </c>
       <c r="N2">
-        <v>0.9525294989713826</v>
+        <v>0.9858246716392445</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9192917653661274</v>
+        <v>0.9742327609296342</v>
       </c>
       <c r="D3">
-        <v>1.030005020434439</v>
+        <v>1.0388391844144</v>
       </c>
       <c r="E3">
-        <v>0.9353111711615051</v>
+        <v>0.9893187495658408</v>
       </c>
       <c r="F3">
-        <v>0.9438169688235247</v>
+        <v>0.9911271484913631</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046699009587559</v>
+        <v>1.050102098295774</v>
       </c>
       <c r="J3">
-        <v>0.9422536335046616</v>
+        <v>0.9954513947460109</v>
       </c>
       <c r="K3">
-        <v>1.040267852911752</v>
+        <v>1.048998105727789</v>
       </c>
       <c r="L3">
-        <v>0.9468446138319238</v>
+        <v>1.000090148275061</v>
       </c>
       <c r="M3">
-        <v>0.9552230447701935</v>
+        <v>1.001874832273109</v>
       </c>
       <c r="N3">
-        <v>0.9614088709752031</v>
+        <v>0.9968650499064209</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9284605185636079</v>
+        <v>0.9823306664482097</v>
       </c>
       <c r="D4">
-        <v>1.032034824533944</v>
+        <v>1.041357529740576</v>
       </c>
       <c r="E4">
-        <v>0.9431010876718846</v>
+        <v>0.9964698084513653</v>
       </c>
       <c r="F4">
-        <v>0.9527561459126621</v>
+        <v>0.9989356990853993</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047897752343419</v>
+        <v>1.051695129700663</v>
       </c>
       <c r="J4">
-        <v>0.9498898666352471</v>
+        <v>1.0021974156192</v>
       </c>
       <c r="K4">
-        <v>1.041761400079092</v>
+        <v>1.050981170352313</v>
       </c>
       <c r="L4">
-        <v>0.9539384695214997</v>
+        <v>1.006611027337125</v>
       </c>
       <c r="M4">
-        <v>0.9634603125431724</v>
+        <v>1.00904698627669</v>
       </c>
       <c r="N4">
-        <v>0.9667924534144963</v>
+        <v>1.003620650903029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9321881772215402</v>
+        <v>0.9856367048773168</v>
       </c>
       <c r="D5">
-        <v>1.032867074436833</v>
+        <v>1.042389634809417</v>
       </c>
       <c r="E5">
-        <v>0.9462707005933748</v>
+        <v>0.999391746759022</v>
       </c>
       <c r="F5">
-        <v>0.9563910421543542</v>
+        <v>1.00212711196503</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048381954492632</v>
+        <v>1.052340786270717</v>
       </c>
       <c r="J5">
-        <v>0.9529933145799481</v>
+        <v>1.004949503993344</v>
       </c>
       <c r="K5">
-        <v>1.042369293972073</v>
+        <v>1.051789551941564</v>
       </c>
       <c r="L5">
-        <v>0.9568217905621749</v>
+        <v>1.009272733756628</v>
       </c>
       <c r="M5">
-        <v>0.9668072745266608</v>
+        <v>1.011975974652029</v>
       </c>
       <c r="N5">
-        <v>0.9689787929690264</v>
+        <v>1.006376647558333</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9328070553482085</v>
+        <v>0.9861863174768134</v>
       </c>
       <c r="D6">
-        <v>1.033005619097067</v>
+        <v>1.042561423999725</v>
       </c>
       <c r="E6">
-        <v>0.9467970676244482</v>
+        <v>0.9998776426425807</v>
       </c>
       <c r="F6">
-        <v>0.9569945188934224</v>
+        <v>1.002657869214346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048462136604825</v>
+        <v>1.052447832881523</v>
       </c>
       <c r="J6">
-        <v>0.9535084838880942</v>
+        <v>1.005406900952304</v>
       </c>
       <c r="K6">
-        <v>1.042470229442027</v>
+        <v>1.051923850449663</v>
       </c>
       <c r="L6">
-        <v>0.9573004353749414</v>
+        <v>1.009715195047609</v>
       </c>
       <c r="M6">
-        <v>0.9673627971766682</v>
+        <v>1.012462952047878</v>
       </c>
       <c r="N6">
-        <v>0.969341626614463</v>
+        <v>1.006834694073439</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9285108064994312</v>
+        <v>0.9823752153412613</v>
       </c>
       <c r="D7">
-        <v>1.032046025971678</v>
+        <v>1.041371422819064</v>
       </c>
       <c r="E7">
-        <v>0.9431438377502316</v>
+        <v>0.9965091721266665</v>
       </c>
       <c r="F7">
-        <v>0.95280518175106</v>
+        <v>0.9989786897260571</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047904298004995</v>
+        <v>1.051703849273575</v>
       </c>
       <c r="J7">
-        <v>0.949931738592976</v>
+        <v>1.002234508321048</v>
       </c>
       <c r="K7">
-        <v>1.041769599508577</v>
+        <v>1.050992069034701</v>
       </c>
       <c r="L7">
-        <v>0.9539773703750484</v>
+        <v>1.006646896061067</v>
       </c>
       <c r="M7">
-        <v>0.9635054741873982</v>
+        <v>1.009086451097056</v>
       </c>
       <c r="N7">
-        <v>0.9668219581658161</v>
+        <v>1.00365779628077</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9094321211269067</v>
+        <v>0.9655826835722778</v>
       </c>
       <c r="D8">
-        <v>1.027851870436636</v>
+        <v>1.036166126354998</v>
       </c>
       <c r="E8">
-        <v>0.9269446765981602</v>
+        <v>0.98168955801027</v>
       </c>
       <c r="F8">
-        <v>0.9342100913844607</v>
+        <v>0.9827992708168117</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045400865058336</v>
+        <v>1.048385085550103</v>
       </c>
       <c r="J8">
-        <v>0.9340387443310925</v>
+        <v>0.9882386495287345</v>
       </c>
       <c r="K8">
-        <v>1.038667337192444</v>
+        <v>1.046877514009542</v>
       </c>
       <c r="L8">
-        <v>0.9392144397998541</v>
+        <v>0.9931234043136898</v>
       </c>
       <c r="M8">
-        <v>0.9463616838451797</v>
+        <v>0.9942173905211226</v>
       </c>
       <c r="N8">
-        <v>0.9556117944800923</v>
+        <v>0.9896420617636223</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8702065964262005</v>
+        <v>0.9318956211480475</v>
       </c>
       <c r="D9">
-        <v>1.019639651710645</v>
+        <v>1.025960922421296</v>
       </c>
       <c r="E9">
-        <v>0.8937803078873557</v>
+        <v>0.9520733145861541</v>
       </c>
       <c r="F9">
-        <v>0.8961357625510203</v>
+        <v>0.9504896904256624</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040214743098926</v>
+        <v>1.041604461896103</v>
       </c>
       <c r="J9">
-        <v>0.9013521769301318</v>
+        <v>0.9601058627775315</v>
       </c>
       <c r="K9">
-        <v>1.032421927479739</v>
+        <v>1.038646389674098</v>
       </c>
       <c r="L9">
-        <v>0.9088689602162908</v>
+        <v>0.9659949722292724</v>
       </c>
       <c r="M9">
-        <v>0.9111733526010479</v>
+        <v>0.9644405858597126</v>
       </c>
       <c r="N9">
-        <v>0.9325054035618134</v>
+        <v>0.9614693232283573</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8382111899160326</v>
+        <v>0.9055430061569809</v>
       </c>
       <c r="D10">
-        <v>1.01342591883345</v>
+        <v>1.018251637138599</v>
       </c>
       <c r="E10">
-        <v>0.8668962742149811</v>
+        <v>0.9290151509504877</v>
       </c>
       <c r="F10">
-        <v>0.8653747257620996</v>
+        <v>0.9253452178963104</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036051633390528</v>
+        <v>1.036265523972569</v>
       </c>
       <c r="J10">
-        <v>0.8747266823603606</v>
+        <v>0.9380794084945583</v>
       </c>
       <c r="K10">
-        <v>1.027556922777162</v>
+        <v>1.032298990882001</v>
       </c>
       <c r="L10">
-        <v>0.8841712139606488</v>
+        <v>0.9447963328059595</v>
       </c>
       <c r="M10">
-        <v>0.8826899113349915</v>
+        <v>0.9412072380851484</v>
       </c>
       <c r="N10">
-        <v>0.9136591661392719</v>
+        <v>0.9394115888538324</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8221516393413033</v>
+        <v>0.8928196855279372</v>
       </c>
       <c r="D11">
-        <v>1.010490380583768</v>
+        <v>1.014628654915053</v>
       </c>
       <c r="E11">
-        <v>0.8534687061868261</v>
+        <v>0.9179190416280241</v>
       </c>
       <c r="F11">
-        <v>0.8500756480947154</v>
+        <v>0.9132455391903899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034011298875538</v>
+        <v>1.033695687564423</v>
       </c>
       <c r="J11">
-        <v>0.8613885348914775</v>
+        <v>0.9274472972885603</v>
       </c>
       <c r="K11">
-        <v>1.025217138684595</v>
+        <v>1.029279870410859</v>
       </c>
       <c r="L11">
-        <v>0.8718073421283925</v>
+        <v>0.9345747418503439</v>
       </c>
       <c r="M11">
-        <v>0.8685125999599804</v>
+        <v>0.9300125613426453</v>
       </c>
       <c r="N11">
-        <v>0.9042170074224815</v>
+        <v>0.928764378830402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8157334983458965</v>
+        <v>0.8878471234274601</v>
       </c>
       <c r="D12">
-        <v>1.009353270567868</v>
+        <v>1.013231456712892</v>
       </c>
       <c r="E12">
-        <v>0.8481160927870313</v>
+        <v>0.9135891879621961</v>
       </c>
       <c r="F12">
-        <v>0.8439923092043702</v>
+        <v>0.9085238747540161</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033207577493151</v>
+        <v>1.032694399105289</v>
       </c>
       <c r="J12">
-        <v>0.8560643966525733</v>
+        <v>0.923293278700058</v>
       </c>
       <c r="K12">
-        <v>1.024303444039979</v>
+        <v>1.028109478600073</v>
       </c>
       <c r="L12">
-        <v>0.8668739091014347</v>
+        <v>0.9305828783610001</v>
       </c>
       <c r="M12">
-        <v>0.8628738797865921</v>
+        <v>0.9256418362239989</v>
       </c>
       <c r="N12">
-        <v>0.9004485726136591</v>
+        <v>0.9246044610590313</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8171334730087302</v>
+        <v>0.8889259214721554</v>
       </c>
       <c r="D13">
-        <v>1.009599519578455</v>
+        <v>1.013533664212531</v>
       </c>
       <c r="E13">
-        <v>0.8492829558155692</v>
+        <v>0.9145282222151098</v>
       </c>
       <c r="F13">
-        <v>0.8453176655044556</v>
+        <v>0.9095478971898905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033382280581269</v>
+        <v>1.032911455137751</v>
       </c>
       <c r="J13">
-        <v>0.8572253985387729</v>
+        <v>0.9241944198914195</v>
       </c>
       <c r="K13">
-        <v>1.024501665923708</v>
+        <v>1.028362914638341</v>
       </c>
       <c r="L13">
-        <v>0.8679496200701179</v>
+        <v>0.9314487614124533</v>
       </c>
       <c r="M13">
-        <v>0.8641024281573864</v>
+        <v>0.9265898477594315</v>
       </c>
       <c r="N13">
-        <v>0.9012702911999593</v>
+        <v>0.9255068819742469</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.82163131754523</v>
+        <v>0.8924140374017027</v>
       </c>
       <c r="D14">
-        <v>1.010397416944431</v>
+        <v>1.014514273617178</v>
       </c>
       <c r="E14">
-        <v>0.8530344679891396</v>
+        <v>0.9175656797365165</v>
       </c>
       <c r="F14">
-        <v>0.8495817827962653</v>
+        <v>0.9128602073463078</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033945877701111</v>
+        <v>1.033613931066989</v>
       </c>
       <c r="J14">
-        <v>0.8609567583906802</v>
+        <v>0.9271083924881705</v>
       </c>
       <c r="K14">
-        <v>1.025142596604728</v>
+        <v>1.02918418329136</v>
       </c>
       <c r="L14">
-        <v>0.8714072111032595</v>
+        <v>0.9342490302794266</v>
       </c>
       <c r="M14">
-        <v>0.868054857204572</v>
+        <v>0.9296559140454314</v>
       </c>
       <c r="N14">
-        <v>0.9039113787023135</v>
+        <v>0.9284249927463226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8243377281431192</v>
+        <v>0.8945287043260098</v>
       </c>
       <c r="D15">
-        <v>1.010882448692253</v>
+        <v>1.015111326612988</v>
       </c>
       <c r="E15">
-        <v>0.8552936901213901</v>
+        <v>0.9194080548390723</v>
       </c>
       <c r="F15">
-        <v>0.8521518756670813</v>
+        <v>0.9148692589168357</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034286653748786</v>
+        <v>1.034040267570705</v>
       </c>
       <c r="J15">
-        <v>0.8632028797314307</v>
+        <v>0.9288751787553625</v>
       </c>
       <c r="K15">
-        <v>1.025531211133838</v>
+        <v>1.02968340642277</v>
       </c>
       <c r="L15">
-        <v>0.8734887866792034</v>
+        <v>0.9359471087649911</v>
       </c>
       <c r="M15">
-        <v>0.8704369117867375</v>
+        <v>0.9315153203563828</v>
       </c>
       <c r="N15">
-        <v>0.9055013006655394</v>
+        <v>0.9301942880526674</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8392216324160793</v>
+        <v>0.9063559556876457</v>
       </c>
       <c r="D16">
-        <v>1.013614844615125</v>
+        <v>1.018485409734595</v>
       </c>
       <c r="E16">
-        <v>0.8677426834882788</v>
+        <v>0.9297249602867218</v>
       </c>
       <c r="F16">
-        <v>0.8663407802277631</v>
+        <v>0.9261192132595705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0361812867296</v>
+        <v>1.036430022123995</v>
       </c>
       <c r="J16">
-        <v>0.8755665856719734</v>
+        <v>0.938758856439578</v>
       </c>
       <c r="K16">
-        <v>1.0277065853624</v>
+        <v>1.032493015274568</v>
       </c>
       <c r="L16">
-        <v>0.8849499722523279</v>
+        <v>0.9454497752010707</v>
       </c>
       <c r="M16">
-        <v>0.8835849315665186</v>
+        <v>0.9419230455611707</v>
       </c>
       <c r="N16">
-        <v>0.9142537677293247</v>
+        <v>0.9400920016928683</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8479003766639102</v>
+        <v>0.9133940176278214</v>
       </c>
       <c r="D17">
-        <v>1.015257647521882</v>
+        <v>1.020520400676262</v>
       </c>
       <c r="E17">
-        <v>0.8750198343415119</v>
+        <v>0.9358741764721316</v>
       </c>
       <c r="F17">
-        <v>0.8746538920270812</v>
+        <v>0.932824508764547</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037300436795099</v>
+        <v>1.037855172203948</v>
       </c>
       <c r="J17">
-        <v>0.8827834899388927</v>
+        <v>0.9446414772336302</v>
       </c>
       <c r="K17">
-        <v>1.02900334107233</v>
+        <v>1.03417795141501</v>
       </c>
       <c r="L17">
-        <v>0.891642428792338</v>
+        <v>0.9511084411090232</v>
       </c>
       <c r="M17">
-        <v>0.8912856239657063</v>
+        <v>0.948122648147369</v>
       </c>
       <c r="N17">
-        <v>0.9193628389988031</v>
+        <v>0.9459829764831937</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8527602769003843</v>
+        <v>0.9173766545750047</v>
       </c>
       <c r="D18">
-        <v>1.016193080392583</v>
+        <v>1.021680607980564</v>
       </c>
       <c r="E18">
-        <v>0.8791004366668032</v>
+        <v>0.9393570506386481</v>
       </c>
       <c r="F18">
-        <v>0.8793207104184246</v>
+        <v>0.9366223993179869</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037931155699761</v>
+        <v>1.038662196380429</v>
       </c>
       <c r="J18">
-        <v>0.8868268977483523</v>
+        <v>0.9479704427426874</v>
       </c>
       <c r="K18">
-        <v>1.029738034029299</v>
+        <v>1.035135313330266</v>
       </c>
       <c r="L18">
-        <v>0.8953927190549471</v>
+        <v>0.9543116487120751</v>
       </c>
       <c r="M18">
-        <v>0.8956076536319393</v>
+        <v>0.9516327910986653</v>
       </c>
       <c r="N18">
-        <v>0.9222251456798631</v>
+        <v>0.9493166695051115</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8543857831820627</v>
+        <v>0.9187150626415684</v>
       </c>
       <c r="D19">
-        <v>1.016508400560276</v>
+        <v>1.022071884935157</v>
       </c>
       <c r="E19">
-        <v>0.8804661558942936</v>
+        <v>0.9405280231112594</v>
       </c>
       <c r="F19">
-        <v>0.8808834112336938</v>
+        <v>0.9378992988776547</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038142702461316</v>
+        <v>1.038933457430008</v>
       </c>
       <c r="J19">
-        <v>0.8881796148707917</v>
+        <v>0.9490891841993843</v>
       </c>
       <c r="K19">
-        <v>1.029985085479677</v>
+        <v>1.035457641988951</v>
       </c>
       <c r="L19">
-        <v>0.8966474845954835</v>
+        <v>0.9553882906657307</v>
       </c>
       <c r="M19">
-        <v>0.8970547274436287</v>
+        <v>0.9528127224978217</v>
       </c>
       <c r="N19">
-        <v>0.9231826871407274</v>
+        <v>0.950436999702998</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8469908261270531</v>
+        <v>0.9126518748772884</v>
       </c>
       <c r="D20">
-        <v>1.015083803439637</v>
+        <v>1.020304887334263</v>
       </c>
       <c r="E20">
-        <v>0.8742565701124773</v>
+        <v>0.9352254167521715</v>
       </c>
       <c r="F20">
-        <v>0.8737813840323383</v>
+        <v>0.9321170766978414</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037182701737801</v>
+        <v>1.037704823231779</v>
       </c>
       <c r="J20">
-        <v>0.882026909199495</v>
+        <v>0.9440211505762696</v>
       </c>
       <c r="K20">
-        <v>1.028866508275094</v>
+        <v>1.033999855094599</v>
       </c>
       <c r="L20">
-        <v>0.8909407505778218</v>
+        <v>0.9505116276487843</v>
       </c>
       <c r="M20">
-        <v>0.8904774951931564</v>
+        <v>0.9474687068948573</v>
       </c>
       <c r="N20">
-        <v>0.9188272437182989</v>
+        <v>0.9453617688908272</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.820320658242914</v>
+        <v>0.8913941750396526</v>
       </c>
       <c r="D21">
-        <v>1.010163853050594</v>
+        <v>1.014227015034872</v>
       </c>
       <c r="E21">
-        <v>0.8519408802086957</v>
+        <v>0.9166773858110289</v>
       </c>
       <c r="F21">
-        <v>0.8483382960227329</v>
+        <v>0.9118915418685526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033781288439384</v>
+        <v>1.033408438705817</v>
       </c>
       <c r="J21">
-        <v>0.859869251440387</v>
+        <v>0.9262563566953022</v>
       </c>
       <c r="K21">
-        <v>1.024955193107104</v>
+        <v>1.028943773813181</v>
       </c>
       <c r="L21">
-        <v>0.8703994398679281</v>
+        <v>0.9334301919714083</v>
       </c>
       <c r="M21">
-        <v>0.8669023003986412</v>
+        <v>0.9287593216857003</v>
       </c>
       <c r="N21">
-        <v>0.9031416095952406</v>
+        <v>0.9275717469648986</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.800804018800635</v>
+        <v>0.8765609326884581</v>
       </c>
       <c r="D22">
-        <v>1.006790192022515</v>
+        <v>1.010100829227648</v>
       </c>
       <c r="E22">
-        <v>0.8356974230372738</v>
+        <v>0.9037762730461258</v>
       </c>
       <c r="F22">
-        <v>0.8299166909014551</v>
+        <v>0.8978222037936457</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031367071492086</v>
+        <v>1.030430210952492</v>
       </c>
       <c r="J22">
-        <v>0.8436961665506743</v>
+        <v>0.9138685959689651</v>
       </c>
       <c r="K22">
-        <v>1.022228323440549</v>
+        <v>1.025474807753322</v>
       </c>
       <c r="L22">
-        <v>0.855417643953173</v>
+        <v>0.9215295713044008</v>
       </c>
       <c r="M22">
-        <v>0.8498246267507366</v>
+        <v>0.9157313967552811</v>
       </c>
       <c r="N22">
-        <v>0.8916966257300758</v>
+        <v>0.9151663941974342</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8114740529062034</v>
+        <v>0.884585678733112</v>
       </c>
       <c r="D23">
-        <v>1.008610231890607</v>
+        <v>1.012320931869135</v>
       </c>
       <c r="E23">
-        <v>0.8445683074928416</v>
+        <v>0.9107513954275424</v>
       </c>
       <c r="F23">
-        <v>0.8399654904542326</v>
+        <v>0.9054291886714276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032678204743064</v>
+        <v>1.032038819958148</v>
       </c>
       <c r="J23">
-        <v>0.852533247455478</v>
+        <v>0.9205692013090749</v>
       </c>
       <c r="K23">
-        <v>1.023704120813448</v>
+        <v>1.027344944954685</v>
       </c>
       <c r="L23">
-        <v>0.8636024935210542</v>
+        <v>0.9279656536968934</v>
       </c>
       <c r="M23">
-        <v>0.8591410029604425</v>
+        <v>0.9227765349267987</v>
       </c>
       <c r="N23">
-        <v>0.8979495051738137</v>
+        <v>0.9218765151656972</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8474024297720092</v>
+        <v>0.9129875924548647</v>
       </c>
       <c r="D24">
-        <v>1.015162425842416</v>
+        <v>1.020402350644172</v>
       </c>
       <c r="E24">
-        <v>0.874601956800886</v>
+        <v>0.9355188813857023</v>
       </c>
       <c r="F24">
-        <v>0.8741761885753163</v>
+        <v>0.9324370814066866</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037235968636939</v>
+        <v>1.037772833809555</v>
       </c>
       <c r="J24">
-        <v>0.8823692821646494</v>
+        <v>0.9443017626762057</v>
       </c>
       <c r="K24">
-        <v>1.028928403485726</v>
+        <v>1.034080407162399</v>
       </c>
       <c r="L24">
-        <v>0.8912582764741117</v>
+        <v>0.9507816002241666</v>
       </c>
       <c r="M24">
-        <v>0.8908431716494134</v>
+        <v>0.9477645193339758</v>
       </c>
       <c r="N24">
-        <v>0.9190696153769662</v>
+        <v>0.945642779492132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.881181665241483</v>
+        <v>0.9411888445097444</v>
       </c>
       <c r="D25">
-        <v>1.021875743198988</v>
+        <v>1.028740176540873</v>
       </c>
       <c r="E25">
-        <v>0.9030385358624676</v>
+        <v>0.9602281600069736</v>
       </c>
       <c r="F25">
-        <v>0.9067570071685167</v>
+        <v>0.9593839051354337</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041662684511055</v>
+        <v>1.043484687385292</v>
       </c>
       <c r="J25">
-        <v>0.9104956136304716</v>
+        <v>0.9678715562019453</v>
       </c>
       <c r="K25">
-        <v>1.034143699114926</v>
+        <v>1.040908138898455</v>
       </c>
       <c r="L25">
-        <v>0.9173549694846249</v>
+        <v>0.9734769430818524</v>
       </c>
       <c r="M25">
-        <v>0.9209986362578415</v>
+        <v>0.9726472520014067</v>
       </c>
       <c r="N25">
-        <v>0.938973852914356</v>
+        <v>0.9692460448281716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9610139045760353</v>
+        <v>0.9717403073170833</v>
       </c>
       <c r="D2">
-        <v>1.034762087805401</v>
+        <v>1.031282282803674</v>
       </c>
       <c r="E2">
-        <v>0.9776639614048328</v>
+        <v>0.9819428093272426</v>
       </c>
       <c r="F2">
-        <v>0.9784060013106339</v>
+        <v>1.021893266761633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04747291523547</v>
+        <v>1.047685871292595</v>
       </c>
       <c r="J2">
-        <v>0.9844266728484818</v>
+        <v>0.9948004143910016</v>
       </c>
       <c r="K2">
-        <v>1.045757477183703</v>
+        <v>1.042322352058804</v>
       </c>
       <c r="L2">
-        <v>0.9894435000042646</v>
+        <v>0.9936595765809404</v>
       </c>
       <c r="M2">
-        <v>0.9901746040992732</v>
+        <v>1.033055792237774</v>
       </c>
       <c r="N2">
-        <v>0.9858246716392445</v>
+        <v>0.9962131450846391</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9742327609296342</v>
+        <v>0.9769346438471002</v>
       </c>
       <c r="D3">
-        <v>1.0388391844144</v>
+        <v>1.034028388438452</v>
       </c>
       <c r="E3">
-        <v>0.9893187495658408</v>
+        <v>0.9861191929000167</v>
       </c>
       <c r="F3">
-        <v>0.9911271484913631</v>
+        <v>1.025721325470678</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050102098295774</v>
+        <v>1.048381437803244</v>
       </c>
       <c r="J3">
-        <v>0.9954513947460109</v>
+        <v>0.9980744724524766</v>
       </c>
       <c r="K3">
-        <v>1.048998105727789</v>
+        <v>1.044243623782103</v>
       </c>
       <c r="L3">
-        <v>1.000090148275061</v>
+        <v>0.996932817200665</v>
       </c>
       <c r="M3">
-        <v>1.001874832273109</v>
+        <v>1.036035343969077</v>
       </c>
       <c r="N3">
-        <v>0.9968650499064209</v>
+        <v>0.9994918526841012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9823306664482097</v>
+        <v>0.9802222576331943</v>
       </c>
       <c r="D4">
-        <v>1.041357529740576</v>
+        <v>1.035769659274602</v>
       </c>
       <c r="E4">
-        <v>0.9964698084513653</v>
+        <v>0.9887694520206731</v>
       </c>
       <c r="F4">
-        <v>0.9989356990853993</v>
+        <v>1.028150422970295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051695129700663</v>
+        <v>1.048810651496644</v>
       </c>
       <c r="J4">
-        <v>1.0021974156192</v>
+        <v>1.000145777077865</v>
       </c>
       <c r="K4">
-        <v>1.050981170352313</v>
+        <v>1.045454723821417</v>
       </c>
       <c r="L4">
-        <v>1.006611027337125</v>
+        <v>0.9990053367040518</v>
       </c>
       <c r="M4">
-        <v>1.00904698627669</v>
+        <v>1.037920565965085</v>
       </c>
       <c r="N4">
-        <v>1.003620650903029</v>
+        <v>1.00156609879964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9856367048773168</v>
+        <v>0.9815875166945248</v>
       </c>
       <c r="D5">
-        <v>1.042389634809417</v>
+        <v>1.036493364228734</v>
       </c>
       <c r="E5">
-        <v>0.999391746759022</v>
+        <v>0.9898716324309068</v>
       </c>
       <c r="F5">
-        <v>1.00212711196503</v>
+        <v>1.029160494282378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052340786270717</v>
+        <v>1.04898616958946</v>
       </c>
       <c r="J5">
-        <v>1.004949503993344</v>
+        <v>1.001005668084271</v>
       </c>
       <c r="K5">
-        <v>1.051789551941564</v>
+        <v>1.04595635430727</v>
       </c>
       <c r="L5">
-        <v>1.009272733756628</v>
+        <v>0.9998661422838702</v>
       </c>
       <c r="M5">
-        <v>1.011975974652029</v>
+        <v>1.038703162684888</v>
       </c>
       <c r="N5">
-        <v>1.006376647558333</v>
+        <v>1.002427210949906</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9861863174768134</v>
+        <v>0.9818157819665273</v>
       </c>
       <c r="D6">
-        <v>1.042561423999725</v>
+        <v>1.036614395125966</v>
       </c>
       <c r="E6">
-        <v>0.9998776426425807</v>
+        <v>0.9900560042182752</v>
       </c>
       <c r="F6">
-        <v>1.002657869214346</v>
+        <v>1.029329447366039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052447832881523</v>
+        <v>1.049015353150027</v>
       </c>
       <c r="J6">
-        <v>1.005406900952304</v>
+        <v>1.001149421052944</v>
       </c>
       <c r="K6">
-        <v>1.051923850449663</v>
+        <v>1.046040144219496</v>
       </c>
       <c r="L6">
-        <v>1.009715195047609</v>
+        <v>1.000010072116651</v>
       </c>
       <c r="M6">
-        <v>1.012462952047878</v>
+        <v>1.038833988568455</v>
       </c>
       <c r="N6">
-        <v>1.006834694073439</v>
+        <v>1.002571168064283</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9823752153412613</v>
+        <v>0.9802405655737502</v>
       </c>
       <c r="D7">
-        <v>1.041371422819064</v>
+        <v>1.035779361899692</v>
       </c>
       <c r="E7">
-        <v>0.9965091721266665</v>
+        <v>0.9887842258816359</v>
       </c>
       <c r="F7">
-        <v>0.9989786897260571</v>
+        <v>1.028163962841364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051703849273575</v>
+        <v>1.048813016030789</v>
       </c>
       <c r="J7">
-        <v>1.002234508321048</v>
+        <v>1.000157309215203</v>
       </c>
       <c r="K7">
-        <v>1.050992069034701</v>
+        <v>1.04546145594981</v>
       </c>
       <c r="L7">
-        <v>1.006646896061067</v>
+        <v>0.9990168794924598</v>
       </c>
       <c r="M7">
-        <v>1.009086451097056</v>
+        <v>1.037931061794815</v>
       </c>
       <c r="N7">
-        <v>1.00365779628077</v>
+        <v>1.001577647313936</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9655826835722778</v>
+        <v>0.9735114262133977</v>
       </c>
       <c r="D8">
-        <v>1.036166126354998</v>
+        <v>1.032217850586174</v>
       </c>
       <c r="E8">
-        <v>0.98168955801027</v>
+        <v>0.9833653399212768</v>
       </c>
       <c r="F8">
-        <v>0.9827992708168117</v>
+        <v>1.023197113588497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048385085550103</v>
+        <v>1.047925305780885</v>
       </c>
       <c r="J8">
-        <v>0.9882386495287345</v>
+        <v>0.9959169383697665</v>
       </c>
       <c r="K8">
-        <v>1.046877514009542</v>
+        <v>1.042978402745884</v>
       </c>
       <c r="L8">
-        <v>0.9931234043136898</v>
+        <v>0.9947754547027357</v>
       </c>
       <c r="M8">
-        <v>0.9942173905211226</v>
+        <v>1.034071772064382</v>
       </c>
       <c r="N8">
-        <v>0.9896420617636223</v>
+        <v>0.9973312546555209</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9318956211480475</v>
+        <v>0.9610557816348521</v>
       </c>
       <c r="D9">
-        <v>1.025960922421296</v>
+        <v>1.025659151591089</v>
       </c>
       <c r="E9">
-        <v>0.9520733145861541</v>
+        <v>0.9733935623071933</v>
       </c>
       <c r="F9">
-        <v>0.9504896904256624</v>
+        <v>1.014061310045799</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041604461896103</v>
+        <v>1.046197815241168</v>
       </c>
       <c r="J9">
-        <v>0.9601058627775315</v>
+        <v>0.9880628997349808</v>
       </c>
       <c r="K9">
-        <v>1.038646389674098</v>
+        <v>1.0383492058062</v>
       </c>
       <c r="L9">
-        <v>0.9659949722292724</v>
+        <v>0.9869335828786142</v>
       </c>
       <c r="M9">
-        <v>0.9644405858597126</v>
+        <v>1.026930298589627</v>
       </c>
       <c r="N9">
-        <v>0.9614693232283573</v>
+        <v>0.9894660623850032</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9055430061569809</v>
+        <v>0.9522965600471264</v>
       </c>
       <c r="D10">
-        <v>1.018251637138599</v>
+        <v>1.021081807466264</v>
       </c>
       <c r="E10">
-        <v>0.9290151509504877</v>
+        <v>0.9664257181810545</v>
       </c>
       <c r="F10">
-        <v>0.9253452178963104</v>
+        <v>1.007688069616875</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036265523972569</v>
+        <v>1.044931248022634</v>
       </c>
       <c r="J10">
-        <v>0.9380794084945583</v>
+        <v>0.982539578947084</v>
       </c>
       <c r="K10">
-        <v>1.032298990882001</v>
+        <v>1.035080577594252</v>
       </c>
       <c r="L10">
-        <v>0.9447963328059595</v>
+        <v>0.9814288325556633</v>
       </c>
       <c r="M10">
-        <v>0.9412072380851484</v>
+        <v>1.021919887287293</v>
       </c>
       <c r="N10">
-        <v>0.9394115888538324</v>
+        <v>0.9839348978480539</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8928196855279372</v>
+        <v>0.9483825001222245</v>
       </c>
       <c r="D11">
-        <v>1.014628654915053</v>
+        <v>1.019047613438861</v>
       </c>
       <c r="E11">
-        <v>0.9179190416280241</v>
+        <v>0.9633239228394727</v>
       </c>
       <c r="F11">
-        <v>0.9132455391903899</v>
+        <v>1.004855301915399</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033695687564423</v>
+        <v>1.044354293469082</v>
       </c>
       <c r="J11">
-        <v>0.9274472972885603</v>
+        <v>0.980072266510602</v>
       </c>
       <c r="K11">
-        <v>1.029279870410859</v>
+        <v>1.033619042613873</v>
       </c>
       <c r="L11">
-        <v>0.9345747418503439</v>
+        <v>0.9789723037077903</v>
       </c>
       <c r="M11">
-        <v>0.9300125613426453</v>
+        <v>1.019686231563848</v>
       </c>
       <c r="N11">
-        <v>0.928764378830402</v>
+        <v>0.9814640815449071</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8878471234274601</v>
+        <v>0.9469091899318839</v>
       </c>
       <c r="D12">
-        <v>1.013231456712892</v>
+        <v>1.018283856829177</v>
       </c>
       <c r="E12">
-        <v>0.9135891879621961</v>
+        <v>0.9621582413581261</v>
       </c>
       <c r="F12">
-        <v>0.9085238747540161</v>
+        <v>1.003791544201194</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032694399105289</v>
+        <v>1.044135584368306</v>
       </c>
       <c r="J12">
-        <v>0.923293278700058</v>
+        <v>0.9791437250287761</v>
       </c>
       <c r="K12">
-        <v>1.028109478600073</v>
+        <v>1.033068954713429</v>
       </c>
       <c r="L12">
-        <v>0.9305828783610001</v>
+        <v>0.9780482047907441</v>
       </c>
       <c r="M12">
-        <v>0.9256418362239989</v>
+        <v>1.018846462936672</v>
       </c>
       <c r="N12">
-        <v>0.9246044610590313</v>
+        <v>0.980534221427672</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8889259214721554</v>
+        <v>0.947226121328717</v>
       </c>
       <c r="D13">
-        <v>1.013533664212531</v>
+        <v>1.018448060278044</v>
       </c>
       <c r="E13">
-        <v>0.9145282222151098</v>
+        <v>0.9624089103811659</v>
       </c>
       <c r="F13">
-        <v>0.9095478971898905</v>
+        <v>1.004020255527903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032911455137751</v>
+        <v>1.044182699415026</v>
       </c>
       <c r="J13">
-        <v>0.9241944198914195</v>
+        <v>0.9793434585210776</v>
       </c>
       <c r="K13">
-        <v>1.028362914638341</v>
+        <v>1.033187281168092</v>
       </c>
       <c r="L13">
-        <v>0.9314487614124533</v>
+        <v>0.9782469651295591</v>
       </c>
       <c r="M13">
-        <v>0.9265898477594315</v>
+        <v>1.019027060444266</v>
       </c>
       <c r="N13">
-        <v>0.9255068819742469</v>
+        <v>0.9807342385644421</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8924140374017027</v>
+        <v>0.9482611202261069</v>
       </c>
       <c r="D14">
-        <v>1.014514273617178</v>
+        <v>1.018984649647781</v>
       </c>
       <c r="E14">
-        <v>0.9175656797365165</v>
+        <v>0.9632278483391933</v>
       </c>
       <c r="F14">
-        <v>0.9128602073463078</v>
+        <v>1.00476761018528</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033613931066989</v>
+        <v>1.044336305425347</v>
       </c>
       <c r="J14">
-        <v>0.9271083924881705</v>
+        <v>0.9799957635106519</v>
       </c>
       <c r="K14">
-        <v>1.02918418329136</v>
+        <v>1.033573720852421</v>
       </c>
       <c r="L14">
-        <v>0.9342490302794266</v>
+        <v>0.9788961588617694</v>
       </c>
       <c r="M14">
-        <v>0.9296559140454314</v>
+        <v>1.019617024613272</v>
       </c>
       <c r="N14">
-        <v>0.9284249927463226</v>
+        <v>0.9813874699019223</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8945287043260098</v>
+        <v>0.9488962005732499</v>
       </c>
       <c r="D15">
-        <v>1.015111326612988</v>
+        <v>1.019314167750126</v>
       </c>
       <c r="E15">
-        <v>0.9194080548390723</v>
+        <v>0.9637306037931143</v>
       </c>
       <c r="F15">
-        <v>0.9148692589168357</v>
+        <v>1.005226533309721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034040267570705</v>
+        <v>1.044430360128556</v>
       </c>
       <c r="J15">
-        <v>0.9288751787553625</v>
+        <v>0.9803960485227712</v>
       </c>
       <c r="K15">
-        <v>1.02968340642277</v>
+        <v>1.033810855516718</v>
       </c>
       <c r="L15">
-        <v>0.9359471087649911</v>
+        <v>0.9792945856328886</v>
       </c>
       <c r="M15">
-        <v>0.9315153203563828</v>
+        <v>1.019979169808854</v>
       </c>
       <c r="N15">
-        <v>0.9301942880526674</v>
+        <v>0.9817883233646723</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9063559556876457</v>
+        <v>0.9525536653911648</v>
       </c>
       <c r="D16">
-        <v>1.018485409734595</v>
+        <v>1.021215683514502</v>
       </c>
       <c r="E16">
-        <v>0.9297249602867218</v>
+        <v>0.9666297220590999</v>
       </c>
       <c r="F16">
-        <v>0.9261192132595705</v>
+        <v>1.007874484033259</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036430022123995</v>
+        <v>1.04496892784373</v>
       </c>
       <c r="J16">
-        <v>0.938758856439578</v>
+        <v>0.9827016732945689</v>
       </c>
       <c r="K16">
-        <v>1.032493015274568</v>
+        <v>1.035176579090914</v>
       </c>
       <c r="L16">
-        <v>0.9454497752010707</v>
+        <v>0.9815902710914503</v>
       </c>
       <c r="M16">
-        <v>0.9419230455611707</v>
+        <v>1.022066738613856</v>
       </c>
       <c r="N16">
-        <v>0.9400920016928683</v>
+        <v>0.9840972223881045</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9133940176278214</v>
+        <v>0.9548145917803099</v>
       </c>
       <c r="D17">
-        <v>1.020520400676262</v>
+        <v>1.022394261314796</v>
       </c>
       <c r="E17">
-        <v>0.9358741764721316</v>
+        <v>0.9684250378220525</v>
       </c>
       <c r="F17">
-        <v>0.932824508764547</v>
+        <v>1.009515518408309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037855172203948</v>
+        <v>1.045299040730682</v>
       </c>
       <c r="J17">
-        <v>0.9446414772336302</v>
+        <v>0.9841271920231903</v>
       </c>
       <c r="K17">
-        <v>1.03417795141501</v>
+        <v>1.03602070984436</v>
       </c>
       <c r="L17">
-        <v>0.9511084411090232</v>
+        <v>0.9830103062710659</v>
       </c>
       <c r="M17">
-        <v>0.948122648147369</v>
+        <v>1.023358738097878</v>
       </c>
       <c r="N17">
-        <v>0.9459829764831937</v>
+        <v>0.9855247655168299</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9173766545750047</v>
+        <v>0.956121741049646</v>
       </c>
       <c r="D18">
-        <v>1.021680607980564</v>
+        <v>1.02307669510678</v>
       </c>
       <c r="E18">
-        <v>0.9393570506386481</v>
+        <v>0.969464103903577</v>
       </c>
       <c r="F18">
-        <v>0.9366223993179869</v>
+        <v>1.010465691430588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038662196380429</v>
+        <v>1.045488846351276</v>
       </c>
       <c r="J18">
-        <v>0.9479704427426874</v>
+        <v>0.984951421544095</v>
       </c>
       <c r="K18">
-        <v>1.035135313330266</v>
+        <v>1.036508638770081</v>
       </c>
       <c r="L18">
-        <v>0.9543116487120751</v>
+        <v>0.9838316001153029</v>
       </c>
       <c r="M18">
-        <v>0.9516327910986653</v>
+        <v>1.024106186038329</v>
       </c>
       <c r="N18">
-        <v>0.9493166695051115</v>
+        <v>0.9863501655381947</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9187150626415684</v>
+        <v>0.95656551160616</v>
       </c>
       <c r="D19">
-        <v>1.022071884935157</v>
+        <v>1.023308547077734</v>
       </c>
       <c r="E19">
-        <v>0.9405280231112594</v>
+        <v>0.9698170464716954</v>
       </c>
       <c r="F19">
-        <v>0.9378992988776547</v>
+        <v>1.010788502348458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038933457430008</v>
+        <v>1.045553103213632</v>
       </c>
       <c r="J19">
-        <v>0.9490891841993843</v>
+        <v>0.9852312529180172</v>
       </c>
       <c r="K19">
-        <v>1.035457641988951</v>
+        <v>1.036674264941713</v>
       </c>
       <c r="L19">
-        <v>0.9553882906657307</v>
+        <v>0.9841104743530833</v>
       </c>
       <c r="M19">
-        <v>0.9528127224978217</v>
+        <v>1.024360016050136</v>
       </c>
       <c r="N19">
-        <v>0.950436999702998</v>
+        <v>0.986630394304765</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9126518748772884</v>
+        <v>0.9545732253373304</v>
       </c>
       <c r="D20">
-        <v>1.020304887334263</v>
+        <v>1.022268331648135</v>
       </c>
       <c r="E20">
-        <v>0.9352254167521715</v>
+        <v>0.9682332620959317</v>
       </c>
       <c r="F20">
-        <v>0.9321170766978414</v>
+        <v>1.009340180398287</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037704823231779</v>
+        <v>1.045263907349989</v>
       </c>
       <c r="J20">
-        <v>0.9440211505762696</v>
+        <v>0.983975002292461</v>
       </c>
       <c r="K20">
-        <v>1.033999855094599</v>
+        <v>1.035930603549092</v>
       </c>
       <c r="L20">
-        <v>0.9505116276487843</v>
+        <v>0.9828586775194209</v>
       </c>
       <c r="M20">
-        <v>0.9474687068948573</v>
+        <v>1.023220758459512</v>
       </c>
       <c r="N20">
-        <v>0.9453617688908272</v>
+        <v>0.9853723596592266</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8913941750396526</v>
+        <v>0.9479568863394865</v>
       </c>
       <c r="D21">
-        <v>1.014227015034872</v>
+        <v>1.018826865633174</v>
       </c>
       <c r="E21">
-        <v>0.9166773858110289</v>
+        <v>0.9629870720834249</v>
       </c>
       <c r="F21">
-        <v>0.9118915418685526</v>
+        <v>1.004547856155019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033408438705817</v>
+        <v>1.044291194800347</v>
       </c>
       <c r="J21">
-        <v>0.9262563566953022</v>
+        <v>0.9798040151235156</v>
       </c>
       <c r="K21">
-        <v>1.028943773813181</v>
+        <v>1.033460125245925</v>
       </c>
       <c r="L21">
-        <v>0.9334301919714083</v>
+        <v>0.9787053143833199</v>
       </c>
       <c r="M21">
-        <v>0.9287593216857003</v>
+        <v>1.019443577231666</v>
       </c>
       <c r="N21">
-        <v>0.9275717469648986</v>
+        <v>0.9811954492100823</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8765609326884581</v>
+        <v>0.9436836837544198</v>
       </c>
       <c r="D22">
-        <v>1.010100829227648</v>
+        <v>1.016615651713501</v>
       </c>
       <c r="E22">
-        <v>0.9037762730461258</v>
+        <v>0.9596098116224174</v>
       </c>
       <c r="F22">
-        <v>0.8978222037936457</v>
+        <v>1.001467648474729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030430210952492</v>
+        <v>1.043654075719103</v>
       </c>
       <c r="J22">
-        <v>0.9138685959689651</v>
+        <v>0.9771113144713214</v>
       </c>
       <c r="K22">
-        <v>1.025474807753322</v>
+        <v>1.031864982459128</v>
       </c>
       <c r="L22">
-        <v>0.9215295713044008</v>
+        <v>0.9760262377063155</v>
       </c>
       <c r="M22">
-        <v>0.9157313967552811</v>
+        <v>1.017010086922165</v>
       </c>
       <c r="N22">
-        <v>0.9151663941974342</v>
+        <v>0.978498924614105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.884585678733112</v>
+        <v>0.9459601652551075</v>
       </c>
       <c r="D23">
-        <v>1.012320931869135</v>
+        <v>1.01779246924091</v>
       </c>
       <c r="E23">
-        <v>0.9107513954275424</v>
+        <v>0.9614079182236812</v>
       </c>
       <c r="F23">
-        <v>0.9054291886714276</v>
+        <v>1.003107080624254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032038819958148</v>
+        <v>1.043994286631813</v>
       </c>
       <c r="J23">
-        <v>0.9205692013090749</v>
+        <v>0.9785456737069078</v>
       </c>
       <c r="K23">
-        <v>1.027344944954685</v>
+        <v>1.032714659988585</v>
       </c>
       <c r="L23">
-        <v>0.9279656536968934</v>
+        <v>0.9774531245078054</v>
       </c>
       <c r="M23">
-        <v>0.9227765349267987</v>
+        <v>1.018305845115675</v>
       </c>
       <c r="N23">
-        <v>0.9218765151656972</v>
+        <v>0.9799353208043293</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9129875924548647</v>
+        <v>0.9546823242333622</v>
       </c>
       <c r="D24">
-        <v>1.020402350644172</v>
+        <v>1.022325249305059</v>
       </c>
       <c r="E24">
-        <v>0.9355188813857023</v>
+        <v>0.9683199422981349</v>
       </c>
       <c r="F24">
-        <v>0.9324370814066866</v>
+        <v>1.009419429734504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037772833809555</v>
+        <v>1.045279791082572</v>
       </c>
       <c r="J24">
-        <v>0.9443017626762057</v>
+        <v>0.9840437926384263</v>
       </c>
       <c r="K24">
-        <v>1.034080407162399</v>
+        <v>1.035971332401579</v>
       </c>
       <c r="L24">
-        <v>0.9507816002241666</v>
+        <v>0.9829272135728978</v>
       </c>
       <c r="M24">
-        <v>0.9477645193339758</v>
+        <v>1.023283124501883</v>
       </c>
       <c r="N24">
-        <v>0.945642779492132</v>
+        <v>0.9854412476953734</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9411888445097444</v>
+        <v>0.9643519769401693</v>
       </c>
       <c r="D25">
-        <v>1.028740176540873</v>
+        <v>1.027389708299263</v>
       </c>
       <c r="E25">
-        <v>0.9602281600069736</v>
+        <v>0.9760251376834163</v>
       </c>
       <c r="F25">
-        <v>0.9593839051354337</v>
+        <v>1.016471042853908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043484687385292</v>
+        <v>1.046664265445996</v>
       </c>
       <c r="J25">
-        <v>0.9678715562019453</v>
+        <v>0.9901416193850229</v>
       </c>
       <c r="K25">
-        <v>1.040908138898455</v>
+        <v>1.03957720895803</v>
       </c>
       <c r="L25">
-        <v>0.9734769430818524</v>
+        <v>0.9890073951007824</v>
       </c>
       <c r="M25">
-        <v>0.9726472520014067</v>
+        <v>1.028818936791393</v>
       </c>
       <c r="N25">
-        <v>0.9692460448281716</v>
+        <v>0.9915477340553809</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9717403073170833</v>
+        <v>1.015095992252911</v>
       </c>
       <c r="D2">
-        <v>1.031282282803674</v>
+        <v>1.040238998888775</v>
       </c>
       <c r="E2">
-        <v>0.9819428093272426</v>
+        <v>1.016781028109505</v>
       </c>
       <c r="F2">
-        <v>1.021893266761633</v>
+        <v>1.043223671430217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047685871292595</v>
+        <v>1.033401191578782</v>
       </c>
       <c r="J2">
-        <v>0.9948004143910016</v>
+        <v>1.020323464360613</v>
       </c>
       <c r="K2">
-        <v>1.042322352058804</v>
+        <v>1.043021912275336</v>
       </c>
       <c r="L2">
-        <v>0.9936595765809404</v>
+        <v>1.019632176276497</v>
       </c>
       <c r="M2">
-        <v>1.033055792237774</v>
+        <v>1.045998141876539</v>
       </c>
       <c r="N2">
-        <v>0.9962131450846391</v>
+        <v>1.021772440712743</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9769346438471002</v>
+        <v>1.016195744974358</v>
       </c>
       <c r="D3">
-        <v>1.034028388438452</v>
+        <v>1.040819828612072</v>
       </c>
       <c r="E3">
-        <v>0.9861191929000167</v>
+        <v>1.017718670370386</v>
       </c>
       <c r="F3">
-        <v>1.025721325470678</v>
+        <v>1.044070901047487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048381437803244</v>
+        <v>1.033479741128522</v>
       </c>
       <c r="J3">
-        <v>0.9980744724524766</v>
+        <v>1.021057288576413</v>
       </c>
       <c r="K3">
-        <v>1.044243623782103</v>
+        <v>1.043413729032948</v>
       </c>
       <c r="L3">
-        <v>0.996932817200665</v>
+        <v>1.020374906376732</v>
       </c>
       <c r="M3">
-        <v>1.036035343969077</v>
+        <v>1.046656268083197</v>
       </c>
       <c r="N3">
-        <v>0.9994918526841012</v>
+        <v>1.022507307043099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9802222576331943</v>
+        <v>1.016907851338674</v>
       </c>
       <c r="D4">
-        <v>1.035769659274602</v>
+        <v>1.041195370820844</v>
       </c>
       <c r="E4">
-        <v>0.9887694520206731</v>
+        <v>1.018326160095925</v>
       </c>
       <c r="F4">
-        <v>1.028150422970295</v>
+        <v>1.044619284223505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048810651496644</v>
+        <v>1.033529078007704</v>
       </c>
       <c r="J4">
-        <v>1.000145777077865</v>
+        <v>1.021532111576009</v>
       </c>
       <c r="K4">
-        <v>1.045454723821417</v>
+        <v>1.04366626757097</v>
       </c>
       <c r="L4">
-        <v>0.9990053367040518</v>
+        <v>1.020855657432625</v>
       </c>
       <c r="M4">
-        <v>1.037920565965085</v>
+        <v>1.04708164529066</v>
       </c>
       <c r="N4">
-        <v>1.00156609879964</v>
+        <v>1.022982804345818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9815875166945248</v>
+        <v>1.017207339219309</v>
       </c>
       <c r="D5">
-        <v>1.036493364228734</v>
+        <v>1.041353176672695</v>
       </c>
       <c r="E5">
-        <v>0.9898716324309068</v>
+        <v>1.018581733313434</v>
       </c>
       <c r="F5">
-        <v>1.029160494282378</v>
+        <v>1.044849863291978</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04898616958946</v>
+        <v>1.033549461862354</v>
       </c>
       <c r="J5">
-        <v>1.001005668084271</v>
+        <v>1.02173172451236</v>
       </c>
       <c r="K5">
-        <v>1.04595635430727</v>
+        <v>1.043772195655157</v>
       </c>
       <c r="L5">
-        <v>0.9998661422838702</v>
+        <v>1.0210578020243</v>
       </c>
       <c r="M5">
-        <v>1.038703162684888</v>
+        <v>1.047260358832596</v>
       </c>
       <c r="N5">
-        <v>1.002427210949906</v>
+        <v>1.023182700755435</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9818157819665273</v>
+        <v>1.017257631504594</v>
       </c>
       <c r="D6">
-        <v>1.036614395125966</v>
+        <v>1.041379668688471</v>
       </c>
       <c r="E6">
-        <v>0.9900560042182752</v>
+        <v>1.018624655991075</v>
       </c>
       <c r="F6">
-        <v>1.029329447366039</v>
+        <v>1.044888580757741</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049015353150027</v>
+        <v>1.033552863425224</v>
       </c>
       <c r="J6">
-        <v>1.001149421052944</v>
+        <v>1.021765240242057</v>
       </c>
       <c r="K6">
-        <v>1.046040144219496</v>
+        <v>1.043789967384828</v>
       </c>
       <c r="L6">
-        <v>1.000010072116651</v>
+        <v>1.021091745143897</v>
       </c>
       <c r="M6">
-        <v>1.038833988568455</v>
+        <v>1.047290358834647</v>
       </c>
       <c r="N6">
-        <v>1.002571168064283</v>
+        <v>1.023216264081311</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9802405655737502</v>
+        <v>1.016911852644805</v>
       </c>
       <c r="D7">
-        <v>1.035779361899692</v>
+        <v>1.041197479715969</v>
       </c>
       <c r="E7">
-        <v>0.9887842258816359</v>
+        <v>1.018329574353158</v>
       </c>
       <c r="F7">
-        <v>1.028163962841364</v>
+        <v>1.044622365082036</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048813016030789</v>
+        <v>1.033529351782838</v>
       </c>
       <c r="J7">
-        <v>1.000157309215203</v>
+        <v>1.02153477882448</v>
       </c>
       <c r="K7">
-        <v>1.04546145594981</v>
+        <v>1.043667683928518</v>
       </c>
       <c r="L7">
-        <v>0.9990168794924598</v>
+        <v>1.020858358354096</v>
       </c>
       <c r="M7">
-        <v>1.037931061794815</v>
+        <v>1.04708403372361</v>
       </c>
       <c r="N7">
-        <v>1.001577647313936</v>
+        <v>1.022985475382088</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9735114262133977</v>
+        <v>1.015467557022683</v>
       </c>
       <c r="D8">
-        <v>1.032217850586174</v>
+        <v>1.040435352673367</v>
       </c>
       <c r="E8">
-        <v>0.9833653399212768</v>
+        <v>1.017097748513982</v>
       </c>
       <c r="F8">
-        <v>1.023197113588497</v>
+        <v>1.043509960659313</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047925305780885</v>
+        <v>1.033428045860716</v>
       </c>
       <c r="J8">
-        <v>0.9959169383697665</v>
+        <v>1.020571465722849</v>
       </c>
       <c r="K8">
-        <v>1.042978402745884</v>
+        <v>1.04315453339171</v>
       </c>
       <c r="L8">
-        <v>0.9947754547027357</v>
+        <v>1.019883153135218</v>
       </c>
       <c r="M8">
-        <v>1.034071772064382</v>
+        <v>1.046220656077353</v>
       </c>
       <c r="N8">
-        <v>0.9973312546555209</v>
+        <v>1.022020794265359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9610557816348521</v>
+        <v>1.012926280662738</v>
       </c>
       <c r="D9">
-        <v>1.025659151591089</v>
+        <v>1.039090220769406</v>
       </c>
       <c r="E9">
-        <v>0.9733935623071933</v>
+        <v>1.014933047619323</v>
       </c>
       <c r="F9">
-        <v>1.014061310045799</v>
+        <v>1.041551129408298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046197815241168</v>
+        <v>1.033238150575161</v>
       </c>
       <c r="J9">
-        <v>0.9880628997349808</v>
+        <v>1.018873913405392</v>
       </c>
       <c r="K9">
-        <v>1.0383492058062</v>
+        <v>1.042242750693426</v>
       </c>
       <c r="L9">
-        <v>0.9869335828786142</v>
+        <v>1.018165915589622</v>
       </c>
       <c r="M9">
-        <v>1.026930298589627</v>
+        <v>1.044695704391946</v>
       </c>
       <c r="N9">
-        <v>0.9894660623850032</v>
+        <v>1.020320831228899</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9522965600471264</v>
+        <v>1.011234595853459</v>
       </c>
       <c r="D10">
-        <v>1.021081807466264</v>
+        <v>1.038192118091489</v>
       </c>
       <c r="E10">
-        <v>0.9664257181810545</v>
+        <v>1.013493924453952</v>
       </c>
       <c r="F10">
-        <v>1.007688069616875</v>
+        <v>1.04024625936632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044931248022634</v>
+        <v>1.033103941531001</v>
       </c>
       <c r="J10">
-        <v>0.982539578947084</v>
+        <v>1.017742172099673</v>
       </c>
       <c r="K10">
-        <v>1.035080577594252</v>
+        <v>1.041629902726324</v>
       </c>
       <c r="L10">
-        <v>0.9814288325556633</v>
+        <v>1.017021910037742</v>
       </c>
       <c r="M10">
-        <v>1.021919887287293</v>
+        <v>1.043676754844614</v>
       </c>
       <c r="N10">
-        <v>0.9839348978480539</v>
+        <v>1.019187482720713</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9483825001222245</v>
+        <v>1.010502663799955</v>
       </c>
       <c r="D11">
-        <v>1.019047613438861</v>
+        <v>1.037802932783046</v>
       </c>
       <c r="E11">
-        <v>0.9633239228394727</v>
+        <v>1.012871723379454</v>
       </c>
       <c r="F11">
-        <v>1.004855301915399</v>
+        <v>1.03968149793555</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044354293469082</v>
+        <v>1.033044030370619</v>
       </c>
       <c r="J11">
-        <v>0.980072266510602</v>
+        <v>1.017252107312908</v>
       </c>
       <c r="K11">
-        <v>1.033619042613873</v>
+        <v>1.041363365409706</v>
       </c>
       <c r="L11">
-        <v>0.9789723037077903</v>
+        <v>1.016526739639982</v>
       </c>
       <c r="M11">
-        <v>1.019686231563848</v>
+        <v>1.04323500700686</v>
       </c>
       <c r="N11">
-        <v>0.9814640815449071</v>
+        <v>1.018696721985741</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9469091899318839</v>
+        <v>1.010230877909102</v>
       </c>
       <c r="D12">
-        <v>1.018283856829177</v>
+        <v>1.037658328647601</v>
       </c>
       <c r="E12">
-        <v>0.9621582413581261</v>
+        <v>1.012640752971669</v>
       </c>
       <c r="F12">
-        <v>1.003791544201194</v>
+        <v>1.039471760449758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044135584368306</v>
+        <v>1.033021507252932</v>
       </c>
       <c r="J12">
-        <v>0.9791437250287761</v>
+        <v>1.017070073438113</v>
       </c>
       <c r="K12">
-        <v>1.033068954713429</v>
+        <v>1.041264187121252</v>
       </c>
       <c r="L12">
-        <v>0.9780482047907441</v>
+        <v>1.016342840195048</v>
       </c>
       <c r="M12">
-        <v>1.018846462936672</v>
+        <v>1.043070843055642</v>
       </c>
       <c r="N12">
-        <v>0.980534221427672</v>
+        <v>1.018514429601963</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.947226121328717</v>
+        <v>1.010289173012392</v>
       </c>
       <c r="D13">
-        <v>1.018448060278044</v>
+        <v>1.037689348659469</v>
       </c>
       <c r="E13">
-        <v>0.9624089103811659</v>
+        <v>1.012690290443526</v>
       </c>
       <c r="F13">
-        <v>1.004020255527903</v>
+        <v>1.039516748014055</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044182699415026</v>
+        <v>1.033026350720713</v>
       </c>
       <c r="J13">
-        <v>0.9793434585210776</v>
+        <v>1.017109120412174</v>
       </c>
       <c r="K13">
-        <v>1.033187281168092</v>
+        <v>1.041285469074194</v>
       </c>
       <c r="L13">
-        <v>0.9782469651295591</v>
+        <v>1.016382285941217</v>
       </c>
       <c r="M13">
-        <v>1.019027060444266</v>
+        <v>1.043106060339275</v>
       </c>
       <c r="N13">
-        <v>0.9807342385644421</v>
+        <v>1.018553532027206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9482611202261069</v>
+        <v>1.010480196137541</v>
       </c>
       <c r="D14">
-        <v>1.018984649647781</v>
+        <v>1.037790980634576</v>
       </c>
       <c r="E14">
-        <v>0.9632278483391933</v>
+        <v>1.012852628379562</v>
       </c>
       <c r="F14">
-        <v>1.00476761018528</v>
+        <v>1.039664160143141</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044336305425347</v>
+        <v>1.033042174095546</v>
       </c>
       <c r="J14">
-        <v>0.9799957635106519</v>
+        <v>1.017237060376616</v>
       </c>
       <c r="K14">
-        <v>1.033573720852421</v>
+        <v>1.041355170852716</v>
       </c>
       <c r="L14">
-        <v>0.9788961588617694</v>
+        <v>1.016511537864544</v>
       </c>
       <c r="M14">
-        <v>1.019617024613272</v>
+        <v>1.043221438769779</v>
       </c>
       <c r="N14">
-        <v>0.9813874699019223</v>
+        <v>1.018681653681073</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9488962005732499</v>
+        <v>1.010597903200283</v>
       </c>
       <c r="D15">
-        <v>1.019314167750126</v>
+        <v>1.037853593754488</v>
       </c>
       <c r="E15">
-        <v>0.9637306037931143</v>
+        <v>1.012952669065908</v>
       </c>
       <c r="F15">
-        <v>1.005226533309721</v>
+        <v>1.039754990976865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044430360128556</v>
+        <v>1.03305188771426</v>
       </c>
       <c r="J15">
-        <v>0.9803960485227712</v>
+        <v>1.017315888147544</v>
       </c>
       <c r="K15">
-        <v>1.033810855516718</v>
+        <v>1.04139809334085</v>
       </c>
       <c r="L15">
-        <v>0.9792945856328886</v>
+        <v>1.01659117807164</v>
       </c>
       <c r="M15">
-        <v>1.019979169808854</v>
+        <v>1.043292516783957</v>
       </c>
       <c r="N15">
-        <v>0.9817883233646723</v>
+        <v>1.018760593396477</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9525536653911648</v>
+        <v>1.011283183907078</v>
       </c>
       <c r="D16">
-        <v>1.021215683514502</v>
+        <v>1.038217940854692</v>
       </c>
       <c r="E16">
-        <v>0.9666297220590999</v>
+        <v>1.013535237899274</v>
       </c>
       <c r="F16">
-        <v>1.007874484033259</v>
+        <v>1.040283746251562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04496892784373</v>
+        <v>1.033107879816026</v>
       </c>
       <c r="J16">
-        <v>0.9827016732945689</v>
+        <v>1.017774695805485</v>
       </c>
       <c r="K16">
-        <v>1.035176579090914</v>
+        <v>1.041647567391419</v>
       </c>
       <c r="L16">
-        <v>0.9815902710914503</v>
+        <v>1.01705477691136</v>
       </c>
       <c r="M16">
-        <v>1.022066738613856</v>
+        <v>1.043706061020134</v>
       </c>
       <c r="N16">
-        <v>0.9840972223881045</v>
+        <v>1.019220052613918</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9548145917803099</v>
+        <v>1.011713196831239</v>
       </c>
       <c r="D17">
-        <v>1.022394261314796</v>
+        <v>1.038446406891513</v>
       </c>
       <c r="E17">
-        <v>0.9684250378220525</v>
+        <v>1.013900922110954</v>
       </c>
       <c r="F17">
-        <v>1.009515518408309</v>
+        <v>1.040615490116658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045299040730682</v>
+        <v>1.033142521328997</v>
       </c>
       <c r="J17">
-        <v>0.9841271920231903</v>
+        <v>1.018062490164747</v>
       </c>
       <c r="K17">
-        <v>1.03602070984436</v>
+        <v>1.041803743545598</v>
       </c>
       <c r="L17">
-        <v>0.9830103062710659</v>
+        <v>1.0173456315768</v>
       </c>
       <c r="M17">
-        <v>1.023358738097878</v>
+        <v>1.043965323882387</v>
       </c>
       <c r="N17">
-        <v>0.9855247655168299</v>
+        <v>1.019508255674181</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.956121741049646</v>
+        <v>1.011964071968862</v>
       </c>
       <c r="D18">
-        <v>1.02307669510678</v>
+        <v>1.038579638108731</v>
       </c>
       <c r="E18">
-        <v>0.969464103903577</v>
+        <v>1.014114311049735</v>
       </c>
       <c r="F18">
-        <v>1.010465691430588</v>
+        <v>1.040809015284306</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045488846351276</v>
+        <v>1.03316255363644</v>
       </c>
       <c r="J18">
-        <v>0.984951421544095</v>
+        <v>1.018230354458122</v>
       </c>
       <c r="K18">
-        <v>1.036508638770081</v>
+        <v>1.04189472546697</v>
       </c>
       <c r="L18">
-        <v>0.9838316001153029</v>
+        <v>1.017515300657155</v>
       </c>
       <c r="M18">
-        <v>1.024106186038329</v>
+        <v>1.044116495718447</v>
       </c>
       <c r="N18">
-        <v>0.9863501655381947</v>
+        <v>1.019676358354107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.95656551160616</v>
+        <v>1.012049623405305</v>
       </c>
       <c r="D19">
-        <v>1.023308547077734</v>
+        <v>1.038625061509622</v>
       </c>
       <c r="E19">
-        <v>0.9698170464716954</v>
+        <v>1.014187086680493</v>
       </c>
       <c r="F19">
-        <v>1.010788502348458</v>
+        <v>1.040875006486187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045553103213632</v>
+        <v>1.033169354687089</v>
       </c>
       <c r="J19">
-        <v>0.9852312529180172</v>
+        <v>1.018287591625544</v>
       </c>
       <c r="K19">
-        <v>1.036674264941713</v>
+        <v>1.041925728745772</v>
       </c>
       <c r="L19">
-        <v>0.9841104743530833</v>
+        <v>1.017573156559286</v>
       </c>
       <c r="M19">
-        <v>1.024360016050136</v>
+        <v>1.044168032578633</v>
       </c>
       <c r="N19">
-        <v>0.986630394304765</v>
+        <v>1.019733676804872</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9545732253373304</v>
+        <v>1.011667054739444</v>
       </c>
       <c r="D20">
-        <v>1.022268331648135</v>
+        <v>1.038421897650539</v>
       </c>
       <c r="E20">
-        <v>0.9682332620959317</v>
+        <v>1.013861678187195</v>
       </c>
       <c r="F20">
-        <v>1.009340180398287</v>
+        <v>1.040579894585041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045263907349989</v>
+        <v>1.033138822563831</v>
       </c>
       <c r="J20">
-        <v>0.983975002292461</v>
+        <v>1.018031612686646</v>
       </c>
       <c r="K20">
-        <v>1.035930603549092</v>
+        <v>1.041786998999416</v>
       </c>
       <c r="L20">
-        <v>0.9828586775194209</v>
+        <v>1.017314423712007</v>
       </c>
       <c r="M20">
-        <v>1.023220758459512</v>
+        <v>1.04393751277929</v>
       </c>
       <c r="N20">
-        <v>0.9853723596592266</v>
+        <v>1.01947733434652</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9479568863394865</v>
+        <v>1.010423942212374</v>
       </c>
       <c r="D21">
-        <v>1.018826865633174</v>
+        <v>1.037761053733981</v>
       </c>
       <c r="E21">
-        <v>0.9629870720834249</v>
+        <v>1.012804819960383</v>
       </c>
       <c r="F21">
-        <v>1.004547856155019</v>
+        <v>1.039620749826652</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044291194800347</v>
+        <v>1.033037521938858</v>
       </c>
       <c r="J21">
-        <v>0.9798040151235156</v>
+        <v>1.017199385300824</v>
       </c>
       <c r="K21">
-        <v>1.033460125245925</v>
+        <v>1.041334650221524</v>
       </c>
       <c r="L21">
-        <v>0.9787053143833199</v>
+        <v>1.016473475596299</v>
       </c>
       <c r="M21">
-        <v>1.019443577231666</v>
+        <v>1.04318746487114</v>
       </c>
       <c r="N21">
-        <v>0.9811954492100823</v>
+        <v>1.018643925102352</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9436836837544198</v>
+        <v>1.009642846792458</v>
       </c>
       <c r="D22">
-        <v>1.016615651713501</v>
+        <v>1.037345304829998</v>
       </c>
       <c r="E22">
-        <v>0.9596098116224174</v>
+        <v>1.01214115741557</v>
       </c>
       <c r="F22">
-        <v>1.001467648474729</v>
+        <v>1.039017929990805</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043654075719103</v>
+        <v>1.032972271607938</v>
       </c>
       <c r="J22">
-        <v>0.9771113144713214</v>
+        <v>1.016676119389346</v>
       </c>
       <c r="K22">
-        <v>1.031864982459128</v>
+        <v>1.041049231866688</v>
       </c>
       <c r="L22">
-        <v>0.9760262377063155</v>
+        <v>1.015944905333075</v>
       </c>
       <c r="M22">
-        <v>1.017010086922165</v>
+        <v>1.042715422811725</v>
       </c>
       <c r="N22">
-        <v>0.978498924614105</v>
+        <v>1.01811991609326</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9459601652551075</v>
+        <v>1.010056873198281</v>
       </c>
       <c r="D23">
-        <v>1.01779246924091</v>
+        <v>1.037565724289506</v>
       </c>
       <c r="E23">
-        <v>0.9614079182236812</v>
+        <v>1.012492899097114</v>
       </c>
       <c r="F23">
-        <v>1.003107080624254</v>
+        <v>1.039337473613448</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043994286631813</v>
+        <v>1.033007009565112</v>
       </c>
       <c r="J23">
-        <v>0.9785456737069078</v>
+        <v>1.016953513637714</v>
       </c>
       <c r="K23">
-        <v>1.032714659988585</v>
+        <v>1.041200632708639</v>
       </c>
       <c r="L23">
-        <v>0.9774531245078054</v>
+        <v>1.016225094545404</v>
       </c>
       <c r="M23">
-        <v>1.018305845115675</v>
+        <v>1.042965704111471</v>
       </c>
       <c r="N23">
-        <v>0.9799353208043293</v>
+        <v>1.018397704273278</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9546823242333622</v>
+        <v>1.011687904191659</v>
       </c>
       <c r="D24">
-        <v>1.022325249305059</v>
+        <v>1.038432972411834</v>
       </c>
       <c r="E24">
-        <v>0.9683199422981349</v>
+        <v>1.013879410544231</v>
       </c>
       <c r="F24">
-        <v>1.009419429734504</v>
+        <v>1.04059597859776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045279791082572</v>
+        <v>1.03314049441275</v>
       </c>
       <c r="J24">
-        <v>0.9840437926384263</v>
+        <v>1.018045564893762</v>
       </c>
       <c r="K24">
-        <v>1.035971332401579</v>
+        <v>1.041794565488315</v>
       </c>
       <c r="L24">
-        <v>0.9829272135728978</v>
+        <v>1.017328525145606</v>
       </c>
       <c r="M24">
-        <v>1.023283124501883</v>
+        <v>1.04395007957984</v>
       </c>
       <c r="N24">
-        <v>0.9854412476953734</v>
+        <v>1.019491306367369</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9643519769401693</v>
+        <v>1.013582819047461</v>
       </c>
       <c r="D25">
-        <v>1.027389708299263</v>
+        <v>1.039438215143753</v>
       </c>
       <c r="E25">
-        <v>0.9760251376834163</v>
+        <v>1.015491969331991</v>
       </c>
       <c r="F25">
-        <v>1.016471042853908</v>
+        <v>1.042057362067115</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046664265445996</v>
+        <v>1.033288587677214</v>
       </c>
       <c r="J25">
-        <v>0.9901416193850229</v>
+        <v>1.019312778996914</v>
       </c>
       <c r="K25">
-        <v>1.03957720895803</v>
+        <v>1.04247935427774</v>
       </c>
       <c r="L25">
-        <v>0.9890073951007824</v>
+        <v>1.018609719219104</v>
       </c>
       <c r="M25">
-        <v>1.028818936791393</v>
+        <v>1.045090355223863</v>
       </c>
       <c r="N25">
-        <v>0.9915477340553809</v>
+        <v>1.020760320059899</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015095992252911</v>
+        <v>0.9717403073170838</v>
       </c>
       <c r="D2">
-        <v>1.040238998888775</v>
+        <v>1.031282282803674</v>
       </c>
       <c r="E2">
-        <v>1.016781028109505</v>
+        <v>0.9819428093272431</v>
       </c>
       <c r="F2">
-        <v>1.043223671430217</v>
+        <v>1.021893266761633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033401191578782</v>
+        <v>1.047685871292596</v>
       </c>
       <c r="J2">
-        <v>1.020323464360613</v>
+        <v>0.9948004143910021</v>
       </c>
       <c r="K2">
-        <v>1.043021912275336</v>
+        <v>1.042322352058804</v>
       </c>
       <c r="L2">
-        <v>1.019632176276497</v>
+        <v>0.9936595765809408</v>
       </c>
       <c r="M2">
-        <v>1.045998141876539</v>
+        <v>1.033055792237774</v>
       </c>
       <c r="N2">
-        <v>1.021772440712743</v>
+        <v>0.9962131450846397</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016195744974358</v>
+        <v>0.9769346438471012</v>
       </c>
       <c r="D3">
-        <v>1.040819828612072</v>
+        <v>1.034028388438453</v>
       </c>
       <c r="E3">
-        <v>1.017718670370386</v>
+        <v>0.986119192900018</v>
       </c>
       <c r="F3">
-        <v>1.044070901047487</v>
+        <v>1.025721325470679</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033479741128522</v>
+        <v>1.048381437803245</v>
       </c>
       <c r="J3">
-        <v>1.021057288576413</v>
+        <v>0.9980744724524775</v>
       </c>
       <c r="K3">
-        <v>1.043413729032948</v>
+        <v>1.044243623782103</v>
       </c>
       <c r="L3">
-        <v>1.020374906376732</v>
+        <v>0.9969328172006663</v>
       </c>
       <c r="M3">
-        <v>1.046656268083197</v>
+        <v>1.036035343969077</v>
       </c>
       <c r="N3">
-        <v>1.022507307043099</v>
+        <v>0.9994918526841021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016907851338674</v>
+        <v>0.9802222576331937</v>
       </c>
       <c r="D4">
-        <v>1.041195370820844</v>
+        <v>1.035769659274601</v>
       </c>
       <c r="E4">
-        <v>1.018326160095925</v>
+        <v>0.9887694520206728</v>
       </c>
       <c r="F4">
-        <v>1.044619284223505</v>
+        <v>1.028150422970295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033529078007704</v>
+        <v>1.048810651496644</v>
       </c>
       <c r="J4">
-        <v>1.021532111576009</v>
+        <v>1.000145777077864</v>
       </c>
       <c r="K4">
-        <v>1.04366626757097</v>
+        <v>1.045454723821417</v>
       </c>
       <c r="L4">
-        <v>1.020855657432625</v>
+        <v>0.9990053367040512</v>
       </c>
       <c r="M4">
-        <v>1.04708164529066</v>
+        <v>1.037920565965085</v>
       </c>
       <c r="N4">
-        <v>1.022982804345818</v>
+        <v>1.001566098799639</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017207339219309</v>
+        <v>0.981587516694525</v>
       </c>
       <c r="D5">
-        <v>1.041353176672695</v>
+        <v>1.036493364228734</v>
       </c>
       <c r="E5">
-        <v>1.018581733313434</v>
+        <v>0.9898716324309069</v>
       </c>
       <c r="F5">
-        <v>1.044849863291978</v>
+        <v>1.029160494282378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033549461862354</v>
+        <v>1.04898616958946</v>
       </c>
       <c r="J5">
-        <v>1.02173172451236</v>
+        <v>1.001005668084271</v>
       </c>
       <c r="K5">
-        <v>1.043772195655157</v>
+        <v>1.04595635430727</v>
       </c>
       <c r="L5">
-        <v>1.0210578020243</v>
+        <v>0.9998661422838702</v>
       </c>
       <c r="M5">
-        <v>1.047260358832596</v>
+        <v>1.038703162684889</v>
       </c>
       <c r="N5">
-        <v>1.023182700755435</v>
+        <v>1.002427210949906</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017257631504594</v>
+        <v>0.981815781966527</v>
       </c>
       <c r="D6">
-        <v>1.041379668688471</v>
+        <v>1.036614395125965</v>
       </c>
       <c r="E6">
-        <v>1.018624655991075</v>
+        <v>0.9900560042182747</v>
       </c>
       <c r="F6">
-        <v>1.044888580757741</v>
+        <v>1.029329447366039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033552863425224</v>
+        <v>1.049015353150027</v>
       </c>
       <c r="J6">
-        <v>1.021765240242057</v>
+        <v>1.001149421052944</v>
       </c>
       <c r="K6">
-        <v>1.043789967384828</v>
+        <v>1.046040144219496</v>
       </c>
       <c r="L6">
-        <v>1.021091745143897</v>
+        <v>1.000010072116651</v>
       </c>
       <c r="M6">
-        <v>1.047290358834647</v>
+        <v>1.038833988568455</v>
       </c>
       <c r="N6">
-        <v>1.023216264081311</v>
+        <v>1.002571168064283</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016911852644805</v>
+        <v>0.9802405655737502</v>
       </c>
       <c r="D7">
-        <v>1.041197479715969</v>
+        <v>1.035779361899692</v>
       </c>
       <c r="E7">
-        <v>1.018329574353158</v>
+        <v>0.9887842258816356</v>
       </c>
       <c r="F7">
-        <v>1.044622365082036</v>
+        <v>1.028163962841365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033529351782838</v>
+        <v>1.048813016030789</v>
       </c>
       <c r="J7">
-        <v>1.02153477882448</v>
+        <v>1.000157309215203</v>
       </c>
       <c r="K7">
-        <v>1.043667683928518</v>
+        <v>1.04546145594981</v>
       </c>
       <c r="L7">
-        <v>1.020858358354096</v>
+        <v>0.9990168794924593</v>
       </c>
       <c r="M7">
-        <v>1.04708403372361</v>
+        <v>1.037931061794815</v>
       </c>
       <c r="N7">
-        <v>1.022985475382088</v>
+        <v>1.001577647313936</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015467557022683</v>
+        <v>0.9735114262133976</v>
       </c>
       <c r="D8">
-        <v>1.040435352673367</v>
+        <v>1.032217850586174</v>
       </c>
       <c r="E8">
-        <v>1.017097748513982</v>
+        <v>0.9833653399212766</v>
       </c>
       <c r="F8">
-        <v>1.043509960659313</v>
+        <v>1.023197113588497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033428045860716</v>
+        <v>1.047925305780885</v>
       </c>
       <c r="J8">
-        <v>1.020571465722849</v>
+        <v>0.9959169383697664</v>
       </c>
       <c r="K8">
-        <v>1.04315453339171</v>
+        <v>1.042978402745884</v>
       </c>
       <c r="L8">
-        <v>1.019883153135218</v>
+        <v>0.9947754547027357</v>
       </c>
       <c r="M8">
-        <v>1.046220656077353</v>
+        <v>1.034071772064382</v>
       </c>
       <c r="N8">
-        <v>1.022020794265359</v>
+        <v>0.9973312546555209</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012926280662738</v>
+        <v>0.9610557816348517</v>
       </c>
       <c r="D9">
-        <v>1.039090220769406</v>
+        <v>1.025659151591089</v>
       </c>
       <c r="E9">
-        <v>1.014933047619323</v>
+        <v>0.973393562307193</v>
       </c>
       <c r="F9">
-        <v>1.041551129408298</v>
+        <v>1.014061310045798</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033238150575161</v>
+        <v>1.046197815241168</v>
       </c>
       <c r="J9">
-        <v>1.018873913405392</v>
+        <v>0.9880628997349805</v>
       </c>
       <c r="K9">
-        <v>1.042242750693426</v>
+        <v>1.0383492058062</v>
       </c>
       <c r="L9">
-        <v>1.018165915589622</v>
+        <v>0.9869335828786139</v>
       </c>
       <c r="M9">
-        <v>1.044695704391946</v>
+        <v>1.026930298589626</v>
       </c>
       <c r="N9">
-        <v>1.020320831228899</v>
+        <v>0.9894660623850029</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011234595853459</v>
+        <v>0.9522965600471263</v>
       </c>
       <c r="D10">
-        <v>1.038192118091489</v>
+        <v>1.021081807466264</v>
       </c>
       <c r="E10">
-        <v>1.013493924453952</v>
+        <v>0.9664257181810546</v>
       </c>
       <c r="F10">
-        <v>1.04024625936632</v>
+        <v>1.007688069616875</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033103941531001</v>
+        <v>1.044931248022634</v>
       </c>
       <c r="J10">
-        <v>1.017742172099673</v>
+        <v>0.982539578947084</v>
       </c>
       <c r="K10">
-        <v>1.041629902726324</v>
+        <v>1.035080577594252</v>
       </c>
       <c r="L10">
-        <v>1.017021910037742</v>
+        <v>0.9814288325556632</v>
       </c>
       <c r="M10">
-        <v>1.043676754844614</v>
+        <v>1.021919887287294</v>
       </c>
       <c r="N10">
-        <v>1.019187482720713</v>
+        <v>0.9839348978480538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010502663799955</v>
+        <v>0.9483825001222247</v>
       </c>
       <c r="D11">
-        <v>1.037802932783046</v>
+        <v>1.019047613438861</v>
       </c>
       <c r="E11">
-        <v>1.012871723379454</v>
+        <v>0.9633239228394729</v>
       </c>
       <c r="F11">
-        <v>1.03968149793555</v>
+        <v>1.004855301915399</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033044030370619</v>
+        <v>1.044354293469082</v>
       </c>
       <c r="J11">
-        <v>1.017252107312908</v>
+        <v>0.9800722665106021</v>
       </c>
       <c r="K11">
-        <v>1.041363365409706</v>
+        <v>1.033619042613873</v>
       </c>
       <c r="L11">
-        <v>1.016526739639982</v>
+        <v>0.9789723037077905</v>
       </c>
       <c r="M11">
-        <v>1.04323500700686</v>
+        <v>1.019686231563848</v>
       </c>
       <c r="N11">
-        <v>1.018696721985741</v>
+        <v>0.9814640815449072</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010230877909102</v>
+        <v>0.946909189931884</v>
       </c>
       <c r="D12">
-        <v>1.037658328647601</v>
+        <v>1.018283856829177</v>
       </c>
       <c r="E12">
-        <v>1.012640752971669</v>
+        <v>0.9621582413581262</v>
       </c>
       <c r="F12">
-        <v>1.039471760449758</v>
+        <v>1.003791544201195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033021507252932</v>
+        <v>1.044135584368307</v>
       </c>
       <c r="J12">
-        <v>1.017070073438113</v>
+        <v>0.9791437250287762</v>
       </c>
       <c r="K12">
-        <v>1.041264187121252</v>
+        <v>1.033068954713429</v>
       </c>
       <c r="L12">
-        <v>1.016342840195048</v>
+        <v>0.9780482047907443</v>
       </c>
       <c r="M12">
-        <v>1.043070843055642</v>
+        <v>1.018846462936672</v>
       </c>
       <c r="N12">
-        <v>1.018514429601963</v>
+        <v>0.9805342214276721</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010289173012392</v>
+        <v>0.9472261213287168</v>
       </c>
       <c r="D13">
-        <v>1.037689348659469</v>
+        <v>1.018448060278045</v>
       </c>
       <c r="E13">
-        <v>1.012690290443526</v>
+        <v>0.9624089103811658</v>
       </c>
       <c r="F13">
-        <v>1.039516748014055</v>
+        <v>1.004020255527904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033026350720713</v>
+        <v>1.044182699415026</v>
       </c>
       <c r="J13">
-        <v>1.017109120412174</v>
+        <v>0.9793434585210775</v>
       </c>
       <c r="K13">
-        <v>1.041285469074194</v>
+        <v>1.033187281168092</v>
       </c>
       <c r="L13">
-        <v>1.016382285941217</v>
+        <v>0.978246965129559</v>
       </c>
       <c r="M13">
-        <v>1.043106060339275</v>
+        <v>1.019027060444266</v>
       </c>
       <c r="N13">
-        <v>1.018553532027206</v>
+        <v>0.9807342385644422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010480196137541</v>
+        <v>0.9482611202261073</v>
       </c>
       <c r="D14">
-        <v>1.037790980634576</v>
+        <v>1.018984649647781</v>
       </c>
       <c r="E14">
-        <v>1.012852628379562</v>
+        <v>0.9632278483391938</v>
       </c>
       <c r="F14">
-        <v>1.039664160143141</v>
+        <v>1.004767610185281</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033042174095546</v>
+        <v>1.044336305425347</v>
       </c>
       <c r="J14">
-        <v>1.017237060376616</v>
+        <v>0.9799957635106524</v>
       </c>
       <c r="K14">
-        <v>1.041355170852716</v>
+        <v>1.033573720852422</v>
       </c>
       <c r="L14">
-        <v>1.016511537864544</v>
+        <v>0.9788961588617698</v>
       </c>
       <c r="M14">
-        <v>1.043221438769779</v>
+        <v>1.019617024613272</v>
       </c>
       <c r="N14">
-        <v>1.018681653681073</v>
+        <v>0.9813874699019228</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010597903200283</v>
+        <v>0.9488962005732496</v>
       </c>
       <c r="D15">
-        <v>1.037853593754488</v>
+        <v>1.019314167750126</v>
       </c>
       <c r="E15">
-        <v>1.012952669065908</v>
+        <v>0.9637306037931144</v>
       </c>
       <c r="F15">
-        <v>1.039754990976865</v>
+        <v>1.005226533309721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03305188771426</v>
+        <v>1.044430360128556</v>
       </c>
       <c r="J15">
-        <v>1.017315888147544</v>
+        <v>0.980396048522771</v>
       </c>
       <c r="K15">
-        <v>1.04139809334085</v>
+        <v>1.033810855516718</v>
       </c>
       <c r="L15">
-        <v>1.01659117807164</v>
+        <v>0.9792945856328886</v>
       </c>
       <c r="M15">
-        <v>1.043292516783957</v>
+        <v>1.019979169808854</v>
       </c>
       <c r="N15">
-        <v>1.018760593396477</v>
+        <v>0.9817883233646721</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011283183907078</v>
+        <v>0.9525536653911649</v>
       </c>
       <c r="D16">
-        <v>1.038217940854692</v>
+        <v>1.021215683514502</v>
       </c>
       <c r="E16">
-        <v>1.013535237899274</v>
+        <v>0.9666297220591</v>
       </c>
       <c r="F16">
-        <v>1.040283746251562</v>
+        <v>1.00787448403326</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033107879816026</v>
+        <v>1.04496892784373</v>
       </c>
       <c r="J16">
-        <v>1.017774695805485</v>
+        <v>0.982701673294569</v>
       </c>
       <c r="K16">
-        <v>1.041647567391419</v>
+        <v>1.035176579090914</v>
       </c>
       <c r="L16">
-        <v>1.01705477691136</v>
+        <v>0.9815902710914504</v>
       </c>
       <c r="M16">
-        <v>1.043706061020134</v>
+        <v>1.022066738613857</v>
       </c>
       <c r="N16">
-        <v>1.019220052613918</v>
+        <v>0.9840972223881047</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011713196831239</v>
+        <v>0.9548145917803101</v>
       </c>
       <c r="D17">
-        <v>1.038446406891513</v>
+        <v>1.022394261314796</v>
       </c>
       <c r="E17">
-        <v>1.013900922110954</v>
+        <v>0.9684250378220525</v>
       </c>
       <c r="F17">
-        <v>1.040615490116658</v>
+        <v>1.00951551840831</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033142521328997</v>
+        <v>1.045299040730682</v>
       </c>
       <c r="J17">
-        <v>1.018062490164747</v>
+        <v>0.9841271920231904</v>
       </c>
       <c r="K17">
-        <v>1.041803743545598</v>
+        <v>1.036020709844361</v>
       </c>
       <c r="L17">
-        <v>1.0173456315768</v>
+        <v>0.9830103062710658</v>
       </c>
       <c r="M17">
-        <v>1.043965323882387</v>
+        <v>1.023358738097878</v>
       </c>
       <c r="N17">
-        <v>1.019508255674181</v>
+        <v>0.9855247655168301</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011964071968862</v>
+        <v>0.9561217410496455</v>
       </c>
       <c r="D18">
-        <v>1.038579638108731</v>
+        <v>1.02307669510678</v>
       </c>
       <c r="E18">
-        <v>1.014114311049735</v>
+        <v>0.9694641039035763</v>
       </c>
       <c r="F18">
-        <v>1.040809015284306</v>
+        <v>1.010465691430588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03316255363644</v>
+        <v>1.045488846351276</v>
       </c>
       <c r="J18">
-        <v>1.018230354458122</v>
+        <v>0.9849514215440949</v>
       </c>
       <c r="K18">
-        <v>1.04189472546697</v>
+        <v>1.036508638770081</v>
       </c>
       <c r="L18">
-        <v>1.017515300657155</v>
+        <v>0.9838316001153025</v>
       </c>
       <c r="M18">
-        <v>1.044116495718447</v>
+        <v>1.024106186038329</v>
       </c>
       <c r="N18">
-        <v>1.019676358354107</v>
+        <v>0.9863501655381948</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012049623405305</v>
+        <v>0.9565655116061597</v>
       </c>
       <c r="D19">
-        <v>1.038625061509622</v>
+        <v>1.023308547077734</v>
       </c>
       <c r="E19">
-        <v>1.014187086680493</v>
+        <v>0.9698170464716949</v>
       </c>
       <c r="F19">
-        <v>1.040875006486187</v>
+        <v>1.010788502348458</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033169354687089</v>
+        <v>1.045553103213632</v>
       </c>
       <c r="J19">
-        <v>1.018287591625544</v>
+        <v>0.9852312529180168</v>
       </c>
       <c r="K19">
-        <v>1.041925728745772</v>
+        <v>1.036674264941713</v>
       </c>
       <c r="L19">
-        <v>1.017573156559286</v>
+        <v>0.9841104743530831</v>
       </c>
       <c r="M19">
-        <v>1.044168032578633</v>
+        <v>1.024360016050136</v>
       </c>
       <c r="N19">
-        <v>1.019733676804872</v>
+        <v>0.9866303943047646</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011667054739444</v>
+        <v>0.9545732253373306</v>
       </c>
       <c r="D20">
-        <v>1.038421897650539</v>
+        <v>1.022268331648135</v>
       </c>
       <c r="E20">
-        <v>1.013861678187195</v>
+        <v>0.9682332620959317</v>
       </c>
       <c r="F20">
-        <v>1.040579894585041</v>
+        <v>1.009340180398287</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033138822563831</v>
+        <v>1.045263907349989</v>
       </c>
       <c r="J20">
-        <v>1.018031612686646</v>
+        <v>0.9839750022924613</v>
       </c>
       <c r="K20">
-        <v>1.041786998999416</v>
+        <v>1.035930603549092</v>
       </c>
       <c r="L20">
-        <v>1.017314423712007</v>
+        <v>0.9828586775194209</v>
       </c>
       <c r="M20">
-        <v>1.04393751277929</v>
+        <v>1.023220758459512</v>
       </c>
       <c r="N20">
-        <v>1.01947733434652</v>
+        <v>0.9853723596592268</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010423942212374</v>
+        <v>0.947956886339487</v>
       </c>
       <c r="D21">
-        <v>1.037761053733981</v>
+        <v>1.018826865633174</v>
       </c>
       <c r="E21">
-        <v>1.012804819960383</v>
+        <v>0.9629870720834255</v>
       </c>
       <c r="F21">
-        <v>1.039620749826652</v>
+        <v>1.004547856155019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033037521938858</v>
+        <v>1.044291194800347</v>
       </c>
       <c r="J21">
-        <v>1.017199385300824</v>
+        <v>0.979804015123516</v>
       </c>
       <c r="K21">
-        <v>1.041334650221524</v>
+        <v>1.033460125245925</v>
       </c>
       <c r="L21">
-        <v>1.016473475596299</v>
+        <v>0.9787053143833205</v>
       </c>
       <c r="M21">
-        <v>1.04318746487114</v>
+        <v>1.019443577231666</v>
       </c>
       <c r="N21">
-        <v>1.018643925102352</v>
+        <v>0.9811954492100829</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009642846792458</v>
+        <v>0.9436836837544197</v>
       </c>
       <c r="D22">
-        <v>1.037345304829998</v>
+        <v>1.016615651713501</v>
       </c>
       <c r="E22">
-        <v>1.01214115741557</v>
+        <v>0.9596098116224172</v>
       </c>
       <c r="F22">
-        <v>1.039017929990805</v>
+        <v>1.001467648474729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032972271607938</v>
+        <v>1.043654075719103</v>
       </c>
       <c r="J22">
-        <v>1.016676119389346</v>
+        <v>0.9771113144713214</v>
       </c>
       <c r="K22">
-        <v>1.041049231866688</v>
+        <v>1.031864982459128</v>
       </c>
       <c r="L22">
-        <v>1.015944905333075</v>
+        <v>0.9760262377063152</v>
       </c>
       <c r="M22">
-        <v>1.042715422811725</v>
+        <v>1.017010086922165</v>
       </c>
       <c r="N22">
-        <v>1.01811991609326</v>
+        <v>0.978498924614105</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010056873198281</v>
+        <v>0.9459601652551076</v>
       </c>
       <c r="D23">
-        <v>1.037565724289506</v>
+        <v>1.017792469240911</v>
       </c>
       <c r="E23">
-        <v>1.012492899097114</v>
+        <v>0.961407918223681</v>
       </c>
       <c r="F23">
-        <v>1.039337473613448</v>
+        <v>1.003107080624254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033007009565112</v>
+        <v>1.043994286631813</v>
       </c>
       <c r="J23">
-        <v>1.016953513637714</v>
+        <v>0.978545673706908</v>
       </c>
       <c r="K23">
-        <v>1.041200632708639</v>
+        <v>1.032714659988586</v>
       </c>
       <c r="L23">
-        <v>1.016225094545404</v>
+        <v>0.9774531245078055</v>
       </c>
       <c r="M23">
-        <v>1.042965704111471</v>
+        <v>1.018305845115675</v>
       </c>
       <c r="N23">
-        <v>1.018397704273278</v>
+        <v>0.9799353208043293</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011687904191659</v>
+        <v>0.9546823242333626</v>
       </c>
       <c r="D24">
-        <v>1.038432972411834</v>
+        <v>1.022325249305059</v>
       </c>
       <c r="E24">
-        <v>1.013879410544231</v>
+        <v>0.968319942298135</v>
       </c>
       <c r="F24">
-        <v>1.04059597859776</v>
+        <v>1.009419429734504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03314049441275</v>
+        <v>1.045279791082572</v>
       </c>
       <c r="J24">
-        <v>1.018045564893762</v>
+        <v>0.9840437926384266</v>
       </c>
       <c r="K24">
-        <v>1.041794565488315</v>
+        <v>1.035971332401579</v>
       </c>
       <c r="L24">
-        <v>1.017328525145606</v>
+        <v>0.9829272135728979</v>
       </c>
       <c r="M24">
-        <v>1.04395007957984</v>
+        <v>1.023283124501883</v>
       </c>
       <c r="N24">
-        <v>1.019491306367369</v>
+        <v>0.9854412476953734</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013582819047461</v>
+        <v>0.9643519769401689</v>
       </c>
       <c r="D25">
-        <v>1.039438215143753</v>
+        <v>1.027389708299263</v>
       </c>
       <c r="E25">
-        <v>1.015491969331991</v>
+        <v>0.9760251376834156</v>
       </c>
       <c r="F25">
-        <v>1.042057362067115</v>
+        <v>1.016471042853907</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033288587677214</v>
+        <v>1.046664265445995</v>
       </c>
       <c r="J25">
-        <v>1.019312778996914</v>
+        <v>0.9901416193850224</v>
       </c>
       <c r="K25">
-        <v>1.04247935427774</v>
+        <v>1.039577208958029</v>
       </c>
       <c r="L25">
-        <v>1.018609719219104</v>
+        <v>0.9890073951007819</v>
       </c>
       <c r="M25">
-        <v>1.045090355223863</v>
+        <v>1.028818936791392</v>
       </c>
       <c r="N25">
-        <v>1.020760320059899</v>
+        <v>0.9915477340553803</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9717403073170838</v>
+        <v>1.004017031397998</v>
       </c>
       <c r="D2">
-        <v>1.031282282803674</v>
+        <v>1.037707810360091</v>
       </c>
       <c r="E2">
-        <v>0.9819428093272431</v>
+        <v>1.018580688110343</v>
       </c>
       <c r="F2">
-        <v>1.021893266761633</v>
+        <v>1.026650062832437</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047685871292596</v>
+        <v>1.05170396375523</v>
       </c>
       <c r="J2">
-        <v>0.9948004143910021</v>
+        <v>1.026078254009589</v>
       </c>
       <c r="K2">
-        <v>1.042322352058804</v>
+        <v>1.048665669813913</v>
       </c>
       <c r="L2">
-        <v>0.9936595765809408</v>
+        <v>1.029787094060842</v>
       </c>
       <c r="M2">
-        <v>1.033055792237774</v>
+        <v>1.037750197212498</v>
       </c>
       <c r="N2">
-        <v>0.9962131450846397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.01261324930828</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038449136413643</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04548110070333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769346438471012</v>
+        <v>1.007560800072352</v>
       </c>
       <c r="D3">
-        <v>1.034028388438453</v>
+        <v>1.039445592919667</v>
       </c>
       <c r="E3">
-        <v>0.986119192900018</v>
+        <v>1.021367429189414</v>
       </c>
       <c r="F3">
-        <v>1.025721325470679</v>
+        <v>1.029436361950291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048381437803245</v>
+        <v>1.052432824746614</v>
       </c>
       <c r="J3">
-        <v>0.9980744724524775</v>
+        <v>1.027847450875393</v>
       </c>
       <c r="K3">
-        <v>1.044243623782103</v>
+        <v>1.049597461497113</v>
       </c>
       <c r="L3">
-        <v>0.9969328172006663</v>
+        <v>1.031734019031979</v>
       </c>
       <c r="M3">
-        <v>1.036035343969077</v>
+        <v>1.039705958950361</v>
       </c>
       <c r="N3">
-        <v>0.9994918526841021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013208024566817</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039996993448417</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046137302407281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9802222576331937</v>
+        <v>1.009813059614296</v>
       </c>
       <c r="D4">
-        <v>1.035769659274601</v>
+        <v>1.040554742991471</v>
       </c>
       <c r="E4">
-        <v>0.9887694520206728</v>
+        <v>1.023144647442474</v>
       </c>
       <c r="F4">
-        <v>1.028150422970295</v>
+        <v>1.03121561514819</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048810651496644</v>
+        <v>1.052885922869734</v>
       </c>
       <c r="J4">
-        <v>1.000145777077864</v>
+        <v>1.028969034225242</v>
       </c>
       <c r="K4">
-        <v>1.045454723821417</v>
+        <v>1.050187158300635</v>
       </c>
       <c r="L4">
-        <v>0.9990053367040512</v>
+        <v>1.032971536907955</v>
       </c>
       <c r="M4">
-        <v>1.037920565965085</v>
+        <v>1.040951345326882</v>
       </c>
       <c r="N4">
-        <v>1.001566098799639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013585088789508</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040982633278829</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046555146877927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.981587516694525</v>
+        <v>1.010750484635239</v>
       </c>
       <c r="D5">
-        <v>1.036493364228734</v>
+        <v>1.041022717728177</v>
       </c>
       <c r="E5">
-        <v>0.9898716324309069</v>
+        <v>1.023885868802651</v>
       </c>
       <c r="F5">
-        <v>1.029160494282378</v>
+        <v>1.031958189071352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04898616958946</v>
+        <v>1.053073575236853</v>
       </c>
       <c r="J5">
-        <v>1.001005668084271</v>
+        <v>1.029435182695503</v>
       </c>
       <c r="K5">
-        <v>1.04595635430727</v>
+        <v>1.050437179005655</v>
       </c>
       <c r="L5">
-        <v>0.9998661422838702</v>
+        <v>1.033486718544567</v>
       </c>
       <c r="M5">
-        <v>1.038703162684889</v>
+        <v>1.041470294016889</v>
       </c>
       <c r="N5">
-        <v>1.002427210949906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013742050503692</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041393345980956</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046739034483002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.981815781966527</v>
+        <v>1.010907413142701</v>
       </c>
       <c r="D6">
-        <v>1.036614395125965</v>
+        <v>1.041107507843981</v>
       </c>
       <c r="E6">
-        <v>0.9900560042182747</v>
+        <v>1.024010139130302</v>
       </c>
       <c r="F6">
-        <v>1.029329447366039</v>
+        <v>1.032082658451779</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049015353150027</v>
+        <v>1.053106703870889</v>
       </c>
       <c r="J6">
-        <v>1.001149421052944</v>
+        <v>1.029513213805838</v>
       </c>
       <c r="K6">
-        <v>1.046040144219496</v>
+        <v>1.050485333510314</v>
       </c>
       <c r="L6">
-        <v>1.000010072116651</v>
+        <v>1.033573082845064</v>
       </c>
       <c r="M6">
-        <v>1.038833988568455</v>
+        <v>1.041557261260961</v>
       </c>
       <c r="N6">
-        <v>1.002571168064283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013768627977478</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041462174635214</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046781749054299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9802405655737502</v>
+        <v>1.009825760188266</v>
       </c>
       <c r="D7">
-        <v>1.035779361899692</v>
+        <v>1.040578136077053</v>
       </c>
       <c r="E7">
-        <v>0.9887842258816356</v>
+        <v>1.023154967627834</v>
       </c>
       <c r="F7">
-        <v>1.028163962841365</v>
+        <v>1.031225799570411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048813016030789</v>
+        <v>1.052893383374621</v>
       </c>
       <c r="J7">
-        <v>1.000157309215203</v>
+        <v>1.028975418384537</v>
       </c>
       <c r="K7">
-        <v>1.04546145594981</v>
+        <v>1.050207449888253</v>
       </c>
       <c r="L7">
-        <v>0.9990168794924593</v>
+        <v>1.032978828968304</v>
       </c>
       <c r="M7">
-        <v>1.037931061794815</v>
+        <v>1.040958535817271</v>
       </c>
       <c r="N7">
-        <v>1.001577647313936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01358806158052</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040988324066034</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046589423581921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9735114262133976</v>
+        <v>1.00522308917913</v>
       </c>
       <c r="D8">
-        <v>1.032217850586174</v>
+        <v>1.038319030172525</v>
       </c>
       <c r="E8">
-        <v>0.9833653399212766</v>
+        <v>1.019528182738675</v>
       </c>
       <c r="F8">
-        <v>1.023197113588497</v>
+        <v>1.027596777096486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047925305780885</v>
+        <v>1.051959820420491</v>
       </c>
       <c r="J8">
-        <v>0.9959169383697664</v>
+        <v>1.026680858042891</v>
       </c>
       <c r="K8">
-        <v>1.042978402745884</v>
+        <v>1.049003805615512</v>
       </c>
       <c r="L8">
-        <v>0.9947754547027357</v>
+        <v>1.030449973219671</v>
       </c>
       <c r="M8">
-        <v>1.034071772064382</v>
+        <v>1.038415470383532</v>
       </c>
       <c r="N8">
-        <v>0.9973312546555209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012816900240685</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038975656833314</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045742878402495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9610557816348517</v>
+        <v>0.9967878953100137</v>
       </c>
       <c r="D9">
-        <v>1.025659151591089</v>
+        <v>1.034191415733776</v>
       </c>
       <c r="E9">
-        <v>0.973393562307193</v>
+        <v>1.012930694426181</v>
       </c>
       <c r="F9">
-        <v>1.014061310045798</v>
+        <v>1.021013694109269</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046197815241168</v>
+        <v>1.05016322209937</v>
       </c>
       <c r="J9">
-        <v>0.9880628997349805</v>
+        <v>1.022454593403964</v>
       </c>
       <c r="K9">
-        <v>1.0383492058062</v>
+        <v>1.046753090837766</v>
       </c>
       <c r="L9">
-        <v>0.9869335828786139</v>
+        <v>1.025817406790102</v>
       </c>
       <c r="M9">
-        <v>1.026930298589626</v>
+        <v>1.033774796658933</v>
       </c>
       <c r="N9">
-        <v>0.9894660623850029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011395256902721</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035302857487932</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.044148368642672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9522965600471263</v>
+        <v>0.9909957250171952</v>
       </c>
       <c r="D10">
-        <v>1.021081807466264</v>
+        <v>1.031375162557561</v>
       </c>
       <c r="E10">
-        <v>0.9664257181810546</v>
+        <v>1.008476946829663</v>
       </c>
       <c r="F10">
-        <v>1.007688069616875</v>
+        <v>1.016633561345262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044931248022634</v>
+        <v>1.048889608964738</v>
       </c>
       <c r="J10">
-        <v>0.982539578947084</v>
+        <v>1.019571203683405</v>
       </c>
       <c r="K10">
-        <v>1.035080577594252</v>
+        <v>1.045200130119932</v>
       </c>
       <c r="L10">
-        <v>0.9814288325556632</v>
+        <v>1.0226948157592</v>
       </c>
       <c r="M10">
-        <v>1.021919887287294</v>
+        <v>1.030708848728043</v>
       </c>
       <c r="N10">
-        <v>0.9839348978480538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010429818859142</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032928130581447</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043066999362366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9483825001222247</v>
+        <v>0.9889835592688757</v>
       </c>
       <c r="D11">
-        <v>1.019047613438861</v>
+        <v>1.030282471401611</v>
       </c>
       <c r="E11">
-        <v>0.9633239228394729</v>
+        <v>1.007268990946039</v>
       </c>
       <c r="F11">
-        <v>1.004855301915399</v>
+        <v>1.015861652243611</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044354293469082</v>
+        <v>1.048511596902102</v>
       </c>
       <c r="J11">
-        <v>0.9800722665106021</v>
+        <v>1.018821926630811</v>
       </c>
       <c r="K11">
-        <v>1.033619042613873</v>
+        <v>1.044655041353984</v>
       </c>
       <c r="L11">
-        <v>0.9789723037077905</v>
+        <v>1.022055114456673</v>
       </c>
       <c r="M11">
-        <v>1.019686231563848</v>
+        <v>1.030490514611026</v>
       </c>
       <c r="N11">
-        <v>0.9814640815449072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010214270485516</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033194227608822</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042714113649899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.946909189931884</v>
+        <v>0.9884429337367187</v>
       </c>
       <c r="D12">
-        <v>1.018283856829177</v>
+        <v>1.029910532515814</v>
       </c>
       <c r="E12">
-        <v>0.9621582413581262</v>
+        <v>1.007100988050905</v>
       </c>
       <c r="F12">
-        <v>1.003791544201195</v>
+        <v>1.015998204886675</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044135584368307</v>
+        <v>1.048439965425043</v>
       </c>
       <c r="J12">
-        <v>0.9791437250287762</v>
+        <v>1.018744592850567</v>
       </c>
       <c r="K12">
-        <v>1.033068954713429</v>
+        <v>1.044486285109023</v>
       </c>
       <c r="L12">
-        <v>0.9780482047907443</v>
+        <v>1.022093397209063</v>
       </c>
       <c r="M12">
-        <v>1.018846462936672</v>
+        <v>1.030825191466047</v>
       </c>
       <c r="N12">
-        <v>0.9805342214276721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01021608152594</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033787041528168</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042594799811402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9472261213287168</v>
+        <v>0.9889978307203137</v>
       </c>
       <c r="D13">
-        <v>1.018448060278045</v>
+        <v>1.030085871741656</v>
       </c>
       <c r="E13">
-        <v>0.9624089103811658</v>
+        <v>1.007723168579081</v>
       </c>
       <c r="F13">
-        <v>1.004020255527904</v>
+        <v>1.016855301928292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044182699415026</v>
+        <v>1.048607861309668</v>
       </c>
       <c r="J13">
-        <v>0.9793434585210775</v>
+        <v>1.019180878817832</v>
       </c>
       <c r="K13">
-        <v>1.033187281168092</v>
+        <v>1.044616336099097</v>
       </c>
       <c r="L13">
-        <v>0.978246965129559</v>
+        <v>1.022660343601073</v>
       </c>
       <c r="M13">
-        <v>1.019027060444266</v>
+        <v>1.031623577347875</v>
       </c>
       <c r="N13">
-        <v>0.9807342385644422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010386944235822</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034696168024787</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042684281032036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9482611202261073</v>
+        <v>0.9898789133327585</v>
       </c>
       <c r="D14">
-        <v>1.018984649647781</v>
+        <v>1.030459636849892</v>
       </c>
       <c r="E14">
-        <v>0.9632278483391938</v>
+        <v>1.008511759925101</v>
       </c>
       <c r="F14">
-        <v>1.004767610185281</v>
+        <v>1.017776726017276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044336305425347</v>
+        <v>1.048833279304355</v>
       </c>
       <c r="J14">
-        <v>0.9799957635106524</v>
+        <v>1.019715153665181</v>
       </c>
       <c r="K14">
-        <v>1.033573720852422</v>
+        <v>1.04484536274272</v>
       </c>
       <c r="L14">
-        <v>0.9788961588617698</v>
+        <v>1.023291683207664</v>
       </c>
       <c r="M14">
-        <v>1.019617024613272</v>
+        <v>1.032387549267017</v>
       </c>
       <c r="N14">
-        <v>0.9813874699019228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010581906707607</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035473991493871</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04284761738588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9488962005732496</v>
+        <v>0.9903346982697226</v>
       </c>
       <c r="D15">
-        <v>1.019314167750126</v>
+        <v>1.030674978728141</v>
       </c>
       <c r="E15">
-        <v>0.9637306037931144</v>
+        <v>1.008883763112327</v>
       </c>
       <c r="F15">
-        <v>1.005226533309721</v>
+        <v>1.01817430143774</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044430360128556</v>
+        <v>1.048942752128425</v>
       </c>
       <c r="J15">
-        <v>0.980396048522771</v>
+        <v>1.019961607299661</v>
       </c>
       <c r="K15">
-        <v>1.033810855516718</v>
+        <v>1.044971854558279</v>
       </c>
       <c r="L15">
-        <v>0.9792945856328886</v>
+        <v>1.023569059247205</v>
       </c>
       <c r="M15">
-        <v>1.019979169808854</v>
+        <v>1.032691356639315</v>
       </c>
       <c r="N15">
-        <v>0.9817883233646721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010668067178269</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035751768639672</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042942861601461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9525536653911649</v>
+        <v>0.9926736140600868</v>
       </c>
       <c r="D16">
-        <v>1.021215683514502</v>
+        <v>1.031833340702906</v>
       </c>
       <c r="E16">
-        <v>0.9666297220591</v>
+        <v>1.0106487163544</v>
       </c>
       <c r="F16">
-        <v>1.00787448403326</v>
+        <v>1.019893497206292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04496892784373</v>
+        <v>1.049462829790579</v>
       </c>
       <c r="J16">
-        <v>0.982701673294569</v>
+        <v>1.021103229302564</v>
       </c>
       <c r="K16">
-        <v>1.035176579090914</v>
+        <v>1.045615613479439</v>
       </c>
       <c r="L16">
-        <v>0.9815902710914504</v>
+        <v>1.024792209367545</v>
       </c>
       <c r="M16">
-        <v>1.022066738613857</v>
+        <v>1.033876972608631</v>
       </c>
       <c r="N16">
-        <v>0.9840972223881047</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01104586146591</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036650041908031</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043401152855155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9548145917803101</v>
+        <v>0.9940083258447346</v>
       </c>
       <c r="D17">
-        <v>1.022394261314796</v>
+        <v>1.032529155543308</v>
       </c>
       <c r="E17">
-        <v>0.9684250378220525</v>
+        <v>1.011591255887046</v>
       </c>
       <c r="F17">
-        <v>1.00951551840831</v>
+        <v>1.020725582020243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045299040730682</v>
+        <v>1.049741715167883</v>
       </c>
       <c r="J17">
-        <v>0.9841271920231904</v>
+        <v>1.021698718526621</v>
       </c>
       <c r="K17">
-        <v>1.036020709844361</v>
+        <v>1.045989897044604</v>
       </c>
       <c r="L17">
-        <v>0.9830103062710658</v>
+        <v>1.025399055597967</v>
       </c>
       <c r="M17">
-        <v>1.023358738097878</v>
+        <v>1.034379720003271</v>
       </c>
       <c r="N17">
-        <v>0.9855247655168301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011233344635628</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036917983953513</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.043668345937036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9561217410496455</v>
+        <v>0.9945942804786014</v>
       </c>
       <c r="D18">
-        <v>1.02307669510678</v>
+        <v>1.032880285629682</v>
       </c>
       <c r="E18">
-        <v>0.9694641039035763</v>
+        <v>1.011884617609021</v>
       </c>
       <c r="F18">
-        <v>1.010465691430588</v>
+        <v>1.020815855048239</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045488846351276</v>
+        <v>1.049833793450396</v>
       </c>
       <c r="J18">
-        <v>0.9849514215440949</v>
+        <v>1.02186307648754</v>
       </c>
       <c r="K18">
-        <v>1.036508638770081</v>
+        <v>1.046154612824146</v>
       </c>
       <c r="L18">
-        <v>0.9838316001153025</v>
+        <v>1.025501312622647</v>
       </c>
       <c r="M18">
-        <v>1.024106186038329</v>
+        <v>1.034284699396613</v>
       </c>
       <c r="N18">
-        <v>0.9863501655381948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01126757142433</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036604308944548</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.043773281631007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1334,105 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9565655116061597</v>
+        <v>0.9944948860048247</v>
       </c>
       <c r="D19">
-        <v>1.023308547077734</v>
+        <v>1.032940163358298</v>
       </c>
       <c r="E19">
-        <v>0.9698170464716949</v>
+        <v>1.011578408130615</v>
       </c>
       <c r="F19">
-        <v>1.010788502348458</v>
+        <v>1.020217636040613</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045553103213632</v>
+        <v>1.049762596532641</v>
       </c>
       <c r="J19">
-        <v>0.9852312529180168</v>
+        <v>1.021631641410741</v>
       </c>
       <c r="K19">
-        <v>1.036674264941713</v>
+        <v>1.046151910605804</v>
       </c>
       <c r="L19">
-        <v>0.9841104743530831</v>
+        <v>1.025136743965273</v>
       </c>
       <c r="M19">
-        <v>1.024360016050136</v>
+        <v>1.033633556785951</v>
       </c>
       <c r="N19">
-        <v>0.9866303943047646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011163998020524</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035762503962158</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.043777702350737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9545732253373306</v>
+        <v>0.9924957229895615</v>
       </c>
       <c r="D20">
-        <v>1.022268331648135</v>
+        <v>1.032141891966576</v>
       </c>
       <c r="E20">
-        <v>0.9682332620959317</v>
+        <v>1.009630326065746</v>
       </c>
       <c r="F20">
-        <v>1.009340180398287</v>
+        <v>1.017769609887887</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045263907349989</v>
+        <v>1.049232935162303</v>
       </c>
       <c r="J20">
-        <v>0.9839750022924613</v>
+        <v>1.020319018593747</v>
       </c>
       <c r="K20">
-        <v>1.035930603549092</v>
+        <v>1.045642167753707</v>
       </c>
       <c r="L20">
-        <v>0.9828586775194209</v>
+        <v>1.023505925433854</v>
       </c>
       <c r="M20">
-        <v>1.023220758459512</v>
+        <v>1.031507036451375</v>
       </c>
       <c r="N20">
-        <v>0.9853723596592268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010682748376421</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033549196240329</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04342117506913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.947956886339487</v>
+        <v>0.988044341820732</v>
       </c>
       <c r="D21">
-        <v>1.018826865633174</v>
+        <v>1.030003897327443</v>
       </c>
       <c r="E21">
-        <v>0.9629870720834255</v>
+        <v>1.00615662524082</v>
       </c>
       <c r="F21">
-        <v>1.004547856155019</v>
+        <v>1.014276504692267</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044291194800347</v>
+        <v>1.048220671743117</v>
       </c>
       <c r="J21">
-        <v>0.979804015123516</v>
+        <v>1.018050570556562</v>
       </c>
       <c r="K21">
-        <v>1.033460125245925</v>
+        <v>1.044438291932849</v>
       </c>
       <c r="L21">
-        <v>0.9787053143833205</v>
+        <v>1.021022289739234</v>
       </c>
       <c r="M21">
-        <v>1.019443577231666</v>
+        <v>1.02899235985904</v>
       </c>
       <c r="N21">
-        <v>0.9811954492100829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009916588775619</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.031517841686982</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042573188723189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9436836837544197</v>
+        <v>0.9852255575065769</v>
       </c>
       <c r="D22">
-        <v>1.016615651713501</v>
+        <v>1.02863351560651</v>
       </c>
       <c r="E22">
-        <v>0.9596098116224172</v>
+        <v>1.00398531540778</v>
       </c>
       <c r="F22">
-        <v>1.001467648474729</v>
+        <v>1.012121361777272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043654075719103</v>
+        <v>1.04757086400632</v>
       </c>
       <c r="J22">
-        <v>0.9771113144713214</v>
+        <v>1.016628196729894</v>
       </c>
       <c r="K22">
-        <v>1.031864982459128</v>
+        <v>1.043658306347891</v>
       </c>
       <c r="L22">
-        <v>0.9760262377063152</v>
+        <v>1.019478233695457</v>
       </c>
       <c r="M22">
-        <v>1.017010086922165</v>
+        <v>1.027456456807976</v>
       </c>
       <c r="N22">
-        <v>0.978498924614105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009437198448788</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030302260941176</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042008344552271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9459601652551076</v>
+        <v>0.9867263590168514</v>
       </c>
       <c r="D23">
-        <v>1.017792469240911</v>
+        <v>1.029348199835234</v>
       </c>
       <c r="E23">
-        <v>0.961407918223681</v>
+        <v>1.005140290541156</v>
       </c>
       <c r="F23">
-        <v>1.003107080624254</v>
+        <v>1.01326747598297</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043994286631813</v>
+        <v>1.047914576721579</v>
       </c>
       <c r="J23">
-        <v>0.978545673706908</v>
+        <v>1.017386208848897</v>
       </c>
       <c r="K23">
-        <v>1.032714659988586</v>
+        <v>1.044059965997647</v>
       </c>
       <c r="L23">
-        <v>0.9774531245078055</v>
+        <v>1.020300132385995</v>
       </c>
       <c r="M23">
-        <v>1.018305845115675</v>
+        <v>1.028273771719886</v>
       </c>
       <c r="N23">
-        <v>0.9799353208043293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009691770775576</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030949119918015</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042282796254322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9546823242333626</v>
+        <v>0.9925162059052243</v>
       </c>
       <c r="D24">
-        <v>1.022325249305059</v>
+        <v>1.03214182813034</v>
       </c>
       <c r="E24">
-        <v>0.968319942298135</v>
+        <v>1.009613386564366</v>
       </c>
       <c r="F24">
-        <v>1.009419429734504</v>
+        <v>1.017711766610035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045279791082572</v>
+        <v>1.049225259606015</v>
       </c>
       <c r="J24">
-        <v>0.9840437926384266</v>
+        <v>1.020305413289771</v>
       </c>
       <c r="K24">
-        <v>1.035971332401579</v>
+        <v>1.04562706756829</v>
       </c>
       <c r="L24">
-        <v>0.9829272135728979</v>
+        <v>1.02347375771534</v>
       </c>
       <c r="M24">
-        <v>1.023283124501883</v>
+        <v>1.031434822863061</v>
       </c>
       <c r="N24">
-        <v>0.9854412476953734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010673712890233</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.033450909208473</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043383368358937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9643519769401689</v>
+        <v>0.9990080526379321</v>
       </c>
       <c r="D25">
-        <v>1.027389708299263</v>
+        <v>1.035298527413744</v>
       </c>
       <c r="E25">
-        <v>0.9760251376834156</v>
+        <v>1.01466163444269</v>
       </c>
       <c r="F25">
-        <v>1.016471042853907</v>
+        <v>1.022738593728777</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046664265445995</v>
+        <v>1.050651523162201</v>
       </c>
       <c r="J25">
-        <v>0.9901416193850224</v>
+        <v>1.02356884594515</v>
       </c>
       <c r="K25">
-        <v>1.039577208958029</v>
+        <v>1.047372521792375</v>
       </c>
       <c r="L25">
-        <v>0.9890073951007819</v>
+        <v>1.027036532435031</v>
       </c>
       <c r="M25">
-        <v>1.028818936791392</v>
+        <v>1.034993886962706</v>
       </c>
       <c r="N25">
-        <v>0.9915477340553803</v>
+        <v>1.011771473995597</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.036267692091495</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.044614640476412</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004017031397998</v>
+        <v>1.004013617884688</v>
       </c>
       <c r="D2">
-        <v>1.037707810360091</v>
+        <v>1.034670981878736</v>
       </c>
       <c r="E2">
-        <v>1.018580688110343</v>
+        <v>1.018574653606718</v>
       </c>
       <c r="F2">
-        <v>1.026650062832437</v>
+        <v>1.026646086757346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05170396375523</v>
+        <v>1.050566305931386</v>
       </c>
       <c r="J2">
-        <v>1.026078254009589</v>
+        <v>1.026074941475366</v>
       </c>
       <c r="K2">
-        <v>1.048665669813913</v>
+        <v>1.04566753624772</v>
       </c>
       <c r="L2">
-        <v>1.029787094060842</v>
+        <v>1.029781139820926</v>
       </c>
       <c r="M2">
-        <v>1.037750197212498</v>
+        <v>1.037746272986015</v>
       </c>
       <c r="N2">
-        <v>1.01261324930828</v>
+        <v>1.014108767045031</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038449136413643</v>
+        <v>1.03844603064262</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04548110070333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043369895315589</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02421823243985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007560800072352</v>
+        <v>1.007501029268681</v>
       </c>
       <c r="D3">
-        <v>1.039445592919667</v>
+        <v>1.03625575797326</v>
       </c>
       <c r="E3">
-        <v>1.021367429189414</v>
+        <v>1.021316137374883</v>
       </c>
       <c r="F3">
-        <v>1.029436361950291</v>
+        <v>1.02939585820798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052432824746614</v>
+        <v>1.05122150688268</v>
       </c>
       <c r="J3">
-        <v>1.027847450875393</v>
+        <v>1.027789276563981</v>
       </c>
       <c r="K3">
-        <v>1.049597461497113</v>
+        <v>1.046444839835854</v>
       </c>
       <c r="L3">
-        <v>1.031734019031979</v>
+        <v>1.031683349861534</v>
       </c>
       <c r="M3">
-        <v>1.039705958950361</v>
+        <v>1.039665937377006</v>
       </c>
       <c r="N3">
-        <v>1.013208024566817</v>
+        <v>1.014568161941895</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039996993448417</v>
+        <v>1.039965319033653</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046137302407281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043916589190196</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024327680837865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009813059614296</v>
+        <v>1.009717786756418</v>
       </c>
       <c r="D4">
-        <v>1.040554742991471</v>
+        <v>1.037267969002053</v>
       </c>
       <c r="E4">
-        <v>1.023144647442474</v>
+        <v>1.023064810191634</v>
       </c>
       <c r="F4">
-        <v>1.03121561514819</v>
+        <v>1.031152091331123</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052885922869734</v>
+        <v>1.051627822426018</v>
       </c>
       <c r="J4">
-        <v>1.028969034225242</v>
+        <v>1.028876135328646</v>
       </c>
       <c r="K4">
-        <v>1.050187158300635</v>
+        <v>1.046936483776467</v>
       </c>
       <c r="L4">
-        <v>1.032971536907955</v>
+        <v>1.032892610257796</v>
       </c>
       <c r="M4">
-        <v>1.040951345326882</v>
+        <v>1.04088853213408</v>
       </c>
       <c r="N4">
-        <v>1.013585088789508</v>
+        <v>1.01485942320102</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040982633278829</v>
+        <v>1.040932920879774</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046555146877927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04426519059471</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024394150729764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010750484635239</v>
+        <v>1.010640596673979</v>
       </c>
       <c r="D5">
-        <v>1.041022717728177</v>
+        <v>1.037695453218089</v>
       </c>
       <c r="E5">
-        <v>1.023885868802651</v>
+        <v>1.023794265638289</v>
       </c>
       <c r="F5">
-        <v>1.031958189071352</v>
+        <v>1.03188518317177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053073575236853</v>
+        <v>1.051796035241274</v>
       </c>
       <c r="J5">
-        <v>1.029435182695503</v>
+        <v>1.029327951715969</v>
       </c>
       <c r="K5">
-        <v>1.050437179005655</v>
+        <v>1.047145513165948</v>
       </c>
       <c r="L5">
-        <v>1.033486718544567</v>
+        <v>1.033396132314872</v>
       </c>
       <c r="M5">
-        <v>1.041470294016889</v>
+        <v>1.041398083086696</v>
       </c>
       <c r="N5">
-        <v>1.013742050503692</v>
+        <v>1.014980682920449</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041393345980956</v>
+        <v>1.041336195939768</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046739034483002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044420817055944</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024422342621437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010907413142701</v>
+        <v>1.010795194946245</v>
       </c>
       <c r="D6">
-        <v>1.041107507843981</v>
+        <v>1.037773205621292</v>
       </c>
       <c r="E6">
-        <v>1.024010139130302</v>
+        <v>1.023916650727794</v>
       </c>
       <c r="F6">
-        <v>1.032082658451779</v>
+        <v>1.032008136080901</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053106703870889</v>
+        <v>1.051825941419913</v>
       </c>
       <c r="J6">
-        <v>1.029513213805838</v>
+        <v>1.029403695116578</v>
       </c>
       <c r="K6">
-        <v>1.050485333510314</v>
+        <v>1.047186546235956</v>
       </c>
       <c r="L6">
-        <v>1.033573082845064</v>
+        <v>1.033480627553498</v>
       </c>
       <c r="M6">
-        <v>1.041557261260961</v>
+        <v>1.041483546665556</v>
       </c>
       <c r="N6">
-        <v>1.013768627977478</v>
+        <v>1.015001228744685</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041462174635214</v>
+        <v>1.041403834550758</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046781749054299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044459377534662</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024428566338566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009825760188266</v>
+        <v>1.00973871099657</v>
       </c>
       <c r="D7">
-        <v>1.040578136077053</v>
+        <v>1.03729172743751</v>
       </c>
       <c r="E7">
-        <v>1.023154967627834</v>
+        <v>1.023081946294353</v>
       </c>
       <c r="F7">
-        <v>1.031225799570411</v>
+        <v>1.031167719084109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052893383374621</v>
+        <v>1.051637914316399</v>
       </c>
       <c r="J7">
-        <v>1.028975418384537</v>
+        <v>1.028890537351645</v>
       </c>
       <c r="K7">
-        <v>1.050207449888253</v>
+        <v>1.046957122682671</v>
       </c>
       <c r="L7">
-        <v>1.032978828968304</v>
+        <v>1.032906640189333</v>
       </c>
       <c r="M7">
-        <v>1.040958535817271</v>
+        <v>1.040901104825536</v>
       </c>
       <c r="N7">
-        <v>1.01358806158052</v>
+        <v>1.0148897674956</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040988324066034</v>
+        <v>1.040942871316047</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046589423581921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044301739498561</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024399044749136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00522308917913</v>
+        <v>1.005225825772623</v>
       </c>
       <c r="D8">
-        <v>1.038319030172525</v>
+        <v>1.035234145181486</v>
       </c>
       <c r="E8">
-        <v>1.019528182738675</v>
+        <v>1.019527820068682</v>
       </c>
       <c r="F8">
-        <v>1.027596777096486</v>
+        <v>1.0275971795498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051959820420491</v>
+        <v>1.050805869913415</v>
       </c>
       <c r="J8">
-        <v>1.026680858042891</v>
+        <v>1.026683516378876</v>
       </c>
       <c r="K8">
-        <v>1.049003805615512</v>
+        <v>1.045957095884411</v>
       </c>
       <c r="L8">
-        <v>1.030449973219671</v>
+        <v>1.030449615229602</v>
       </c>
       <c r="M8">
-        <v>1.038415470383532</v>
+        <v>1.038415867744867</v>
       </c>
       <c r="N8">
-        <v>1.012816900240685</v>
+        <v>1.014351332212597</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038975656833314</v>
+        <v>1.038975971318836</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045742878402495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043599625763022</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024262196672953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9967878953100137</v>
+        <v>0.9969302402396258</v>
       </c>
       <c r="D9">
-        <v>1.034191415733776</v>
+        <v>1.031473966811247</v>
       </c>
       <c r="E9">
-        <v>1.012930694426181</v>
+        <v>1.013042367657914</v>
       </c>
       <c r="F9">
-        <v>1.021013694109269</v>
+        <v>1.021104604928579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05016322209937</v>
+        <v>1.049186037679376</v>
       </c>
       <c r="J9">
-        <v>1.022454593403964</v>
+        <v>1.022591867291645</v>
       </c>
       <c r="K9">
-        <v>1.046753090837766</v>
+        <v>1.044076236168606</v>
       </c>
       <c r="L9">
-        <v>1.025817406790102</v>
+        <v>1.025927327151023</v>
       </c>
       <c r="M9">
-        <v>1.033774796658933</v>
+        <v>1.03386430915895</v>
       </c>
       <c r="N9">
-        <v>1.011395256902721</v>
+        <v>1.013263882782425</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035302857487932</v>
+        <v>1.035373701142186</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.044148368642672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.042266322481183</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023979735019007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9909957250171952</v>
+        <v>0.9912730232339889</v>
       </c>
       <c r="D10">
-        <v>1.031375162557561</v>
+        <v>1.028918810687855</v>
       </c>
       <c r="E10">
-        <v>1.008476946829663</v>
+        <v>1.008697747197115</v>
       </c>
       <c r="F10">
-        <v>1.016633561345262</v>
+        <v>1.016812429397807</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048889608964738</v>
+        <v>1.048047341402941</v>
       </c>
       <c r="J10">
-        <v>1.019571203683405</v>
+        <v>1.01983721863069</v>
       </c>
       <c r="K10">
-        <v>1.045200130119932</v>
+        <v>1.04278484633493</v>
       </c>
       <c r="L10">
-        <v>1.0226948157592</v>
+        <v>1.02291171705413</v>
       </c>
       <c r="M10">
-        <v>1.030708848728043</v>
+        <v>1.030884623239289</v>
       </c>
       <c r="N10">
-        <v>1.010429818859142</v>
+        <v>1.012646166344366</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032928130581447</v>
+        <v>1.03306723700083</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043066999362366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041371583169967</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023773590898057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9889835592688757</v>
+        <v>0.9893715400331152</v>
       </c>
       <c r="D11">
-        <v>1.030282471401611</v>
+        <v>1.027930786867413</v>
       </c>
       <c r="E11">
-        <v>1.007268990946039</v>
+        <v>1.007579984710366</v>
       </c>
       <c r="F11">
-        <v>1.015861652243611</v>
+        <v>1.016112717386914</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048511596902102</v>
+        <v>1.047742416980733</v>
       </c>
       <c r="J11">
-        <v>1.018821926630811</v>
+        <v>1.019193258728145</v>
       </c>
       <c r="K11">
-        <v>1.044655041353984</v>
+        <v>1.042344515952468</v>
       </c>
       <c r="L11">
-        <v>1.022055114456673</v>
+        <v>1.022360355488504</v>
       </c>
       <c r="M11">
-        <v>1.030490514611026</v>
+        <v>1.030737036814316</v>
       </c>
       <c r="N11">
-        <v>1.010214270485516</v>
+        <v>1.012730365421382</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033194227608822</v>
+        <v>1.033389223791053</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042714113649899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041096014749723</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023708450732326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9884429337367187</v>
+        <v>0.9888747705144246</v>
       </c>
       <c r="D12">
-        <v>1.029910532515814</v>
+        <v>1.027590991028924</v>
       </c>
       <c r="E12">
-        <v>1.007100988050905</v>
+        <v>1.007447320163753</v>
       </c>
       <c r="F12">
-        <v>1.015998204886675</v>
+        <v>1.016277512743522</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048439965425043</v>
+        <v>1.047697402496414</v>
       </c>
       <c r="J12">
-        <v>1.018744592850567</v>
+        <v>1.019157548821826</v>
       </c>
       <c r="K12">
-        <v>1.044486285109023</v>
+        <v>1.042208017237276</v>
       </c>
       <c r="L12">
-        <v>1.022093397209063</v>
+        <v>1.022433218719146</v>
       </c>
       <c r="M12">
-        <v>1.030825191466047</v>
+        <v>1.031099367338622</v>
       </c>
       <c r="N12">
-        <v>1.01021608152594</v>
+        <v>1.012843772574582</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033787041528168</v>
+        <v>1.034003837265548</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042594799811402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040999509196534</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023688592915165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9889978307203137</v>
+        <v>0.9894141053317375</v>
       </c>
       <c r="D13">
-        <v>1.030085871741656</v>
+        <v>1.027742201135487</v>
       </c>
       <c r="E13">
-        <v>1.007723168579081</v>
+        <v>1.008056210518855</v>
       </c>
       <c r="F13">
-        <v>1.016855301928292</v>
+        <v>1.017123932979372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048607861309668</v>
+        <v>1.047854246224504</v>
       </c>
       <c r="J13">
-        <v>1.019180878817832</v>
+        <v>1.0195790484577</v>
       </c>
       <c r="K13">
-        <v>1.044616336099097</v>
+        <v>1.042314212355101</v>
       </c>
       <c r="L13">
-        <v>1.022660343601073</v>
+        <v>1.022987155719472</v>
       </c>
       <c r="M13">
-        <v>1.031623577347875</v>
+        <v>1.031887299822476</v>
       </c>
       <c r="N13">
-        <v>1.010386944235822</v>
+        <v>1.012952258166455</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034696168024787</v>
+        <v>1.034904645253361</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042684281032036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041071877308015</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023708054725254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9898789133327585</v>
+        <v>0.990258213177051</v>
       </c>
       <c r="D14">
-        <v>1.030459636849892</v>
+        <v>1.028073784306996</v>
       </c>
       <c r="E14">
-        <v>1.008511759925101</v>
+        <v>1.008814351193345</v>
       </c>
       <c r="F14">
-        <v>1.017776726017276</v>
+        <v>1.018020936407176</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048833279304355</v>
+        <v>1.048055234664338</v>
       </c>
       <c r="J14">
-        <v>1.019715153665181</v>
+        <v>1.020078195837254</v>
       </c>
       <c r="K14">
-        <v>1.04484536274272</v>
+        <v>1.042501304846172</v>
       </c>
       <c r="L14">
-        <v>1.023291683207664</v>
+        <v>1.023588687765976</v>
       </c>
       <c r="M14">
-        <v>1.032387549267017</v>
+        <v>1.032627356554205</v>
       </c>
       <c r="N14">
-        <v>1.010581906707607</v>
+        <v>1.013026365538322</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035473991493871</v>
+        <v>1.03566353762778</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04284761738588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0412057034277</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023740064096865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9903346982697226</v>
+        <v>0.9906930930646777</v>
       </c>
       <c r="D15">
-        <v>1.030674978728141</v>
+        <v>1.028266536035525</v>
       </c>
       <c r="E15">
-        <v>1.008883763112327</v>
+        <v>1.009169284335423</v>
       </c>
       <c r="F15">
-        <v>1.01817430143774</v>
+        <v>1.018404821227582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048942752128425</v>
+        <v>1.048150943598046</v>
       </c>
       <c r="J15">
-        <v>1.019961607299661</v>
+        <v>1.02030477508198</v>
       </c>
       <c r="K15">
-        <v>1.044971854558279</v>
+        <v>1.042605293568818</v>
       </c>
       <c r="L15">
-        <v>1.023569059247205</v>
+        <v>1.023849349930804</v>
       </c>
       <c r="M15">
-        <v>1.032691356639315</v>
+        <v>1.032917752663761</v>
       </c>
       <c r="N15">
-        <v>1.010668067178269</v>
+        <v>1.013047835795878</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035751768639672</v>
+        <v>1.035930709651048</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042942861601461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041285614168617</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023757772373212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9926736140600868</v>
+        <v>0.9929243589831622</v>
       </c>
       <c r="D16">
-        <v>1.031833340702906</v>
+        <v>1.0293089716085</v>
       </c>
       <c r="E16">
-        <v>1.0106487163544</v>
+        <v>1.01084686595393</v>
       </c>
       <c r="F16">
-        <v>1.019893497206292</v>
+        <v>1.020053908109781</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049462829790579</v>
+        <v>1.048597755120134</v>
       </c>
       <c r="J16">
-        <v>1.021103229302564</v>
+        <v>1.021343852464928</v>
       </c>
       <c r="K16">
-        <v>1.045615613479439</v>
+        <v>1.043133282042382</v>
       </c>
       <c r="L16">
-        <v>1.024792209367545</v>
+        <v>1.024986889438195</v>
       </c>
       <c r="M16">
-        <v>1.033876972608631</v>
+        <v>1.03403464004092</v>
       </c>
       <c r="N16">
-        <v>1.01104586146591</v>
+        <v>1.013114875737875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036650041908031</v>
+        <v>1.036774664151425</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043401152855155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041662360554958</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023846074953972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9940083258447346</v>
+        <v>0.9942047525051549</v>
       </c>
       <c r="D17">
-        <v>1.032529155543308</v>
+        <v>1.029939325966607</v>
       </c>
       <c r="E17">
-        <v>1.011591255887046</v>
+        <v>1.01174541657809</v>
       </c>
       <c r="F17">
-        <v>1.020725582020243</v>
+        <v>1.020850698258835</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049741715167883</v>
+        <v>1.048836171332131</v>
       </c>
       <c r="J17">
-        <v>1.021698718526621</v>
+        <v>1.021887469688228</v>
       </c>
       <c r="K17">
-        <v>1.045989897044604</v>
+        <v>1.043442013128303</v>
       </c>
       <c r="L17">
-        <v>1.025399055597967</v>
+        <v>1.025550593207387</v>
       </c>
       <c r="M17">
-        <v>1.034379720003271</v>
+        <v>1.034502756066168</v>
       </c>
       <c r="N17">
-        <v>1.011233344635628</v>
+        <v>1.013156476092641</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036917983953513</v>
+        <v>1.037015242882525</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.043668345937036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041883459283266</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023896523601827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9945942804786014</v>
+        <v>0.9947654490975217</v>
       </c>
       <c r="D18">
-        <v>1.032880285629682</v>
+        <v>1.030260969339151</v>
       </c>
       <c r="E18">
-        <v>1.011884617609021</v>
+        <v>1.012018358009559</v>
       </c>
       <c r="F18">
-        <v>1.020815855048239</v>
+        <v>1.020924622594895</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049833793450396</v>
+        <v>1.048908219148744</v>
       </c>
       <c r="J18">
-        <v>1.02186307648754</v>
+        <v>1.022027680545007</v>
       </c>
       <c r="K18">
-        <v>1.046154612824146</v>
+        <v>1.043577031907713</v>
       </c>
       <c r="L18">
-        <v>1.025501312622647</v>
+        <v>1.025632814236193</v>
       </c>
       <c r="M18">
-        <v>1.034284699396613</v>
+        <v>1.034391686864824</v>
       </c>
       <c r="N18">
-        <v>1.01126757142433</v>
+        <v>1.013136685319837</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036604308944548</v>
+        <v>1.036688899347345</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.043773281631007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04196625022847</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023916321826907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9944948860048247</v>
+        <v>0.9946625828670825</v>
       </c>
       <c r="D19">
-        <v>1.032940163358298</v>
+        <v>1.030322057306383</v>
       </c>
       <c r="E19">
-        <v>1.011578408130615</v>
+        <v>1.011709375056498</v>
       </c>
       <c r="F19">
-        <v>1.020217636040613</v>
+        <v>1.020324260035855</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049762596532641</v>
+        <v>1.048834246981224</v>
       </c>
       <c r="J19">
-        <v>1.021631641410741</v>
+        <v>1.021792942692978</v>
       </c>
       <c r="K19">
-        <v>1.046151910605804</v>
+        <v>1.043575292467311</v>
       </c>
       <c r="L19">
-        <v>1.025136743965273</v>
+        <v>1.025265528553411</v>
       </c>
       <c r="M19">
-        <v>1.033633556785951</v>
+        <v>1.033738442475497</v>
       </c>
       <c r="N19">
-        <v>1.011163998020524</v>
+        <v>1.013042152134586</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035762503962158</v>
+        <v>1.035845459914949</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.043777702350737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041971982474982</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023912592852067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9924957229895615</v>
+        <v>0.9927162524513611</v>
       </c>
       <c r="D20">
-        <v>1.032141891966576</v>
+        <v>1.029611660824854</v>
       </c>
       <c r="E20">
-        <v>1.009630326065746</v>
+        <v>1.009804533912298</v>
       </c>
       <c r="F20">
-        <v>1.017769609887887</v>
+        <v>1.017911114473411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049232935162303</v>
+        <v>1.048348230956463</v>
       </c>
       <c r="J20">
-        <v>1.020319018593747</v>
+        <v>1.020530866796521</v>
       </c>
       <c r="K20">
-        <v>1.045642167753707</v>
+        <v>1.043153069810324</v>
       </c>
       <c r="L20">
-        <v>1.023505925433854</v>
+        <v>1.023677145774282</v>
       </c>
       <c r="M20">
-        <v>1.031507036451375</v>
+        <v>1.031646164045755</v>
       </c>
       <c r="N20">
-        <v>1.010682748376421</v>
+        <v>1.012734466301086</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033549196240329</v>
+        <v>1.033659301943017</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04342117506913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041677722598281</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023835920459015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.988044341820732</v>
+        <v>0.9884788949197743</v>
       </c>
       <c r="D21">
-        <v>1.030003897327443</v>
+        <v>1.02769565643459</v>
       </c>
       <c r="E21">
-        <v>1.00615662524082</v>
+        <v>1.006507089905039</v>
       </c>
       <c r="F21">
-        <v>1.014276504692267</v>
+        <v>1.014559250590014</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048220671743117</v>
+        <v>1.047477125936644</v>
       </c>
       <c r="J21">
-        <v>1.018050570556562</v>
+        <v>1.018466333191129</v>
       </c>
       <c r="K21">
-        <v>1.044438291932849</v>
+        <v>1.042170660383041</v>
       </c>
       <c r="L21">
-        <v>1.021022289739234</v>
+        <v>1.021366223313461</v>
       </c>
       <c r="M21">
-        <v>1.02899235985904</v>
+        <v>1.029269945414865</v>
       </c>
       <c r="N21">
-        <v>1.009916588775619</v>
+        <v>1.012597150809815</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031517841686982</v>
+        <v>1.031737534791391</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042573188723189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040986641186227</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023672837276454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9852255575065769</v>
+        <v>0.9857950980433423</v>
       </c>
       <c r="D22">
-        <v>1.02863351560651</v>
+        <v>1.026466444048167</v>
       </c>
       <c r="E22">
-        <v>1.00398531540778</v>
+        <v>1.004447190498033</v>
       </c>
       <c r="F22">
-        <v>1.012121361777272</v>
+        <v>1.012493327181448</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04757086400632</v>
+        <v>1.046916738395162</v>
       </c>
       <c r="J22">
-        <v>1.016628196729894</v>
+        <v>1.017171672109263</v>
       </c>
       <c r="K22">
-        <v>1.043658306347891</v>
+        <v>1.041531217463821</v>
       </c>
       <c r="L22">
-        <v>1.019478233695457</v>
+        <v>1.0199310594945</v>
       </c>
       <c r="M22">
-        <v>1.027456456807976</v>
+        <v>1.027821286184546</v>
       </c>
       <c r="N22">
-        <v>1.009437198448788</v>
+        <v>1.012508179281379</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030302260941176</v>
+        <v>1.030591003033849</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042008344552271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.04051984345259</v>
+      </c>
+      <c r="S22">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T22">
+        <v>1.023563177053331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9867263590168514</v>
+        <v>0.9872105136510625</v>
       </c>
       <c r="D23">
-        <v>1.029348199835234</v>
+        <v>1.027104199142088</v>
       </c>
       <c r="E23">
-        <v>1.005140290541156</v>
+        <v>1.005531523763195</v>
       </c>
       <c r="F23">
-        <v>1.01326747598297</v>
+        <v>1.013582919768428</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047914576721579</v>
+        <v>1.047208089358531</v>
       </c>
       <c r="J23">
-        <v>1.017386208848897</v>
+        <v>1.017848857906726</v>
       </c>
       <c r="K23">
-        <v>1.044059965997647</v>
+        <v>1.041856345943131</v>
       </c>
       <c r="L23">
-        <v>1.020300132385995</v>
+        <v>1.02068389968016</v>
       </c>
       <c r="M23">
-        <v>1.028273771719886</v>
+        <v>1.028583320644713</v>
       </c>
       <c r="N23">
-        <v>1.009691770775576</v>
+        <v>1.012512586522155</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030949119918015</v>
+        <v>1.031194110397844</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042282796254322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040739234678375</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023618452870275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9925162059052243</v>
+        <v>0.992734569122662</v>
       </c>
       <c r="D24">
-        <v>1.03214182813034</v>
+        <v>1.029611209232126</v>
       </c>
       <c r="E24">
-        <v>1.009613386564366</v>
+        <v>1.009785915484757</v>
       </c>
       <c r="F24">
-        <v>1.017711766610035</v>
+        <v>1.017851915113165</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049225259606015</v>
+        <v>1.048339094074964</v>
       </c>
       <c r="J24">
-        <v>1.020305413289771</v>
+        <v>1.020515193096444</v>
       </c>
       <c r="K24">
-        <v>1.04562706756829</v>
+        <v>1.043137535626076</v>
       </c>
       <c r="L24">
-        <v>1.02347375771534</v>
+        <v>1.023643331591424</v>
       </c>
       <c r="M24">
-        <v>1.031434822863061</v>
+        <v>1.031572619825707</v>
       </c>
       <c r="N24">
-        <v>1.010673712890233</v>
+        <v>1.01272293295036</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.033450909208473</v>
+        <v>1.033559967337317</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043383368358937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.041636904616245</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023831135173936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9990080526379321</v>
+        <v>0.9991039553730845</v>
       </c>
       <c r="D25">
-        <v>1.035298527413744</v>
+        <v>1.032481037603079</v>
       </c>
       <c r="E25">
-        <v>1.01466163444269</v>
+        <v>1.014735715980377</v>
       </c>
       <c r="F25">
-        <v>1.022738593728777</v>
+        <v>1.022799217448312</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050651523162201</v>
+        <v>1.049624533034382</v>
       </c>
       <c r="J25">
-        <v>1.02356884594515</v>
+        <v>1.023661512668592</v>
       </c>
       <c r="K25">
-        <v>1.047372521792375</v>
+        <v>1.04459521579637</v>
       </c>
       <c r="L25">
-        <v>1.027036532435031</v>
+        <v>1.027109505956226</v>
       </c>
       <c r="M25">
-        <v>1.034993886962706</v>
+        <v>1.035053622024155</v>
       </c>
       <c r="N25">
-        <v>1.011771473995597</v>
+        <v>1.013518668578062</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036267692091495</v>
+        <v>1.036314968665685</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.044614640476412</v>
+        <v>1.042664413747022</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024062161032171</v>
       </c>
     </row>
   </sheetData>
